--- a/logs_regression.xlsx
+++ b/logs_regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
   <si>
     <t>Date</t>
   </si>
@@ -1279,7 +1279,209 @@
     <t>January26  21:03:26</t>
   </si>
   <si>
+    <t>January28  15:08:14</t>
+  </si>
+  <si>
+    <t>[ 0.0625  0.125   0.1875  0.25    0.3125  0.375   0.4375  1.      0.4375
+  0.375   0.3125  0.25    0.1875  0.125   0.0625]</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>January28  15:10:19</t>
+  </si>
+  <si>
+    <t>January28  15:11:43</t>
+  </si>
+  <si>
+    <t>January28  15:12:59</t>
+  </si>
+  <si>
+    <t>January28  15:14:11</t>
+  </si>
+  <si>
+    <t>January28  15:15:20</t>
+  </si>
+  <si>
+    <t>January28  15:16:26</t>
+  </si>
+  <si>
+    <t>January28  15:17:41</t>
+  </si>
+  <si>
+    <t>January28  15:18:58</t>
+  </si>
+  <si>
+    <t>January28  15:20:03</t>
+  </si>
+  <si>
+    <t>January28  15:21:18</t>
+  </si>
+  <si>
+    <t>January28  15:22:35</t>
+  </si>
+  <si>
+    <t>[ 0.075  0.15   0.225  0.3    0.375  0.45   0.525  1.     0.525  0.45
+  0.375  0.3    0.225  0.15   0.075]</t>
+  </si>
+  <si>
+    <t>January28  15:23:48</t>
+  </si>
+  <si>
+    <t>January28  15:24:48</t>
+  </si>
+  <si>
+    <t>January28  15:25:59</t>
+  </si>
+  <si>
+    <t>January28  15:27:07</t>
+  </si>
+  <si>
+    <t>January28  15:28:10</t>
+  </si>
+  <si>
+    <t>January28  15:29:11</t>
+  </si>
+  <si>
+    <t>January28  15:30:11</t>
+  </si>
+  <si>
+    <t>January28  15:31:18</t>
+  </si>
+  <si>
+    <t>January28  15:32:21</t>
+  </si>
+  <si>
+    <t>January28  15:33:22</t>
+  </si>
+  <si>
+    <t>[ 0.0875  0.175   0.2625  0.35    0.4375  0.525   0.6125  1.      0.6125
+  0.525   0.4375  0.35    0.2625  0.175   0.0875]</t>
+  </si>
+  <si>
+    <t>January28  15:34:23</t>
+  </si>
+  <si>
+    <t>January28  15:35:24</t>
+  </si>
+  <si>
+    <t>January28  15:36:25</t>
+  </si>
+  <si>
+    <t>January28  15:37:27</t>
+  </si>
+  <si>
+    <t>January28  15:38:28</t>
+  </si>
+  <si>
+    <t>January28  15:39:29</t>
+  </si>
+  <si>
+    <t>January28  15:40:32</t>
+  </si>
+  <si>
+    <t>January28  15:41:37</t>
+  </si>
+  <si>
+    <t>January28  15:42:40</t>
+  </si>
+  <si>
+    <t>January28  15:43:41</t>
+  </si>
+  <si>
+    <t>[ 0.1  0.2  0.3  0.4  0.5  0.6  0.7  1.   0.7  0.6  0.5  0.4  0.3  0.2  0.1]</t>
+  </si>
+  <si>
+    <t>January28  15:44:42</t>
+  </si>
+  <si>
+    <t>January28  15:45:43</t>
+  </si>
+  <si>
+    <t>January28  15:46:48</t>
+  </si>
+  <si>
+    <t>January28  15:47:51</t>
+  </si>
+  <si>
+    <t>January28  15:48:51</t>
+  </si>
+  <si>
+    <t>January28  15:49:52</t>
+  </si>
+  <si>
+    <t>January28  15:50:54</t>
+  </si>
+  <si>
+    <t>January28  15:52:00</t>
+  </si>
+  <si>
+    <t>January28  15:53:06</t>
+  </si>
+  <si>
+    <t>January28  15:54:11</t>
+  </si>
+  <si>
+    <t>[ 0.1125  0.225   0.3375  0.45    0.5625  0.675   0.7875  1.      0.7875
+  0.675   0.5625  0.45    0.3375  0.225   0.1125]</t>
+  </si>
+  <si>
+    <t>January28  15:55:17</t>
+  </si>
+  <si>
+    <t>January28  15:56:30</t>
+  </si>
+  <si>
+    <t>January28  15:57:42</t>
+  </si>
+  <si>
+    <t>January28  15:58:51</t>
+  </si>
+  <si>
+    <t>January28  16:00:03</t>
+  </si>
+  <si>
+    <t>January28  16:01:22</t>
+  </si>
+  <si>
+    <t>January28  16:02:41</t>
+  </si>
+  <si>
+    <t>January28  16:04:01</t>
+  </si>
+  <si>
+    <t>January28  16:05:15</t>
+  </si>
+  <si>
+    <t>January28  16:06:26</t>
+  </si>
+  <si>
+    <t>January28  16:07:45</t>
+  </si>
+  <si>
+    <t>January28  16:08:57</t>
+  </si>
+  <si>
+    <t>January28  16:10:10</t>
+  </si>
+  <si>
+    <t>January28  16:11:25</t>
+  </si>
+  <si>
+    <t>January28  16:12:31</t>
+  </si>
+  <si>
+    <t>January28  16:13:37</t>
+  </si>
+  <si>
+    <t>January28  16:14:42</t>
+  </si>
+  <si>
+    <t>January28  16:15:46</t>
+  </si>
+  <si>
+    <t>January28  16:17:08</t>
   </si>
 </sst>
 </file>
@@ -1344,12 +1546,12 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1670,7 +1872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AC362"/>
+  <dimension ref="A1:AC423"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A184" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A203" activeCellId="0" pane="topLeft" sqref="A203"/>
@@ -33736,6 +33938,5378 @@
         <v>0.9498</v>
       </c>
     </row>
+    <row r="363" spans="1:29">
+      <c r="A363" t="s">
+        <v>419</v>
+      </c>
+      <c r="B363" t="s">
+        <v>63</v>
+      </c>
+      <c r="C363" t="s">
+        <v>27</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" t="s">
+        <v>29</v>
+      </c>
+      <c r="F363" t="s">
+        <v>30</v>
+      </c>
+      <c r="G363" t="s">
+        <v>216</v>
+      </c>
+      <c r="H363" t="s">
+        <v>420</v>
+      </c>
+      <c r="I363" t="s">
+        <v>39</v>
+      </c>
+      <c r="O363" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29">
+      <c r="A364" t="s">
+        <v>422</v>
+      </c>
+      <c r="B364" t="s">
+        <v>63</v>
+      </c>
+      <c r="C364" t="s">
+        <v>27</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364" t="s">
+        <v>29</v>
+      </c>
+      <c r="F364" t="s">
+        <v>30</v>
+      </c>
+      <c r="G364" t="s">
+        <v>216</v>
+      </c>
+      <c r="H364" t="s">
+        <v>420</v>
+      </c>
+      <c r="I364" t="s">
+        <v>39</v>
+      </c>
+      <c r="J364" t="n">
+        <v>29</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.0001581927821040153</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.0001597970198839903</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0.5276</v>
+      </c>
+      <c r="N364" t="n">
+        <v>0.5152</v>
+      </c>
+      <c r="O364" t="n">
+        <v>0.7973706791699831</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0.7862569554541314</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0.5258</v>
+      </c>
+      <c r="R364" t="n">
+        <v>0.5278</v>
+      </c>
+      <c r="S364" t="n">
+        <v>0.9482</v>
+      </c>
+      <c r="T364" t="n">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="U364" t="n">
+        <v>50</v>
+      </c>
+      <c r="V364" t="n">
+        <v>0.5216</v>
+      </c>
+      <c r="W364" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="X364" t="n">
+        <v>0.7976214641043707</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>0.8069696400732805</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>0.5298</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>0.5412</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>0.9504</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>0.9506</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29">
+      <c r="A365" t="s">
+        <v>423</v>
+      </c>
+      <c r="B365" t="s">
+        <v>63</v>
+      </c>
+      <c r="C365" t="s">
+        <v>27</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365" t="s">
+        <v>29</v>
+      </c>
+      <c r="F365" t="s">
+        <v>30</v>
+      </c>
+      <c r="G365" t="s">
+        <v>216</v>
+      </c>
+      <c r="H365" t="s">
+        <v>420</v>
+      </c>
+      <c r="I365" t="s">
+        <v>39</v>
+      </c>
+      <c r="J365" t="n">
+        <v>28</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.0001514569295570254</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0.0001522766632959247</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0.5358000000000001</v>
+      </c>
+      <c r="N365" t="n">
+        <v>0.5404</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0.7942291860665912</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0.7472616676907762</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0.5188</v>
+      </c>
+      <c r="R365" t="n">
+        <v>0.4924</v>
+      </c>
+      <c r="S365" t="n">
+        <v>0.9468</v>
+      </c>
+      <c r="T365" t="n">
+        <v>0.9674</v>
+      </c>
+      <c r="U365" t="n">
+        <v>50</v>
+      </c>
+      <c r="V365" t="n">
+        <v>0.5442</v>
+      </c>
+      <c r="W365" t="n">
+        <v>0.5338000000000001</v>
+      </c>
+      <c r="X365" t="n">
+        <v>0.7666811592833099</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>0.7747257579298625</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>0.5094</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" t="s">
+        <v>424</v>
+      </c>
+      <c r="B366" t="s">
+        <v>63</v>
+      </c>
+      <c r="C366" t="s">
+        <v>27</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" t="s">
+        <v>29</v>
+      </c>
+      <c r="F366" t="s">
+        <v>30</v>
+      </c>
+      <c r="G366" t="s">
+        <v>216</v>
+      </c>
+      <c r="H366" t="s">
+        <v>420</v>
+      </c>
+      <c r="I366" t="s">
+        <v>39</v>
+      </c>
+      <c r="J366" t="n">
+        <v>25</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.0001579130228608847</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0.0001597424825653434</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0.5426</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0.5198</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0.7723988606931007</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0.7820485918406861</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0.5026</v>
+      </c>
+      <c r="R366" t="n">
+        <v>0.5232</v>
+      </c>
+      <c r="S366" t="n">
+        <v>0.9566</v>
+      </c>
+      <c r="T366" t="n">
+        <v>0.9582000000000001</v>
+      </c>
+      <c r="U366" t="n">
+        <v>50</v>
+      </c>
+      <c r="V366" t="n">
+        <v>0.5232</v>
+      </c>
+      <c r="W366" t="n">
+        <v>0.5114</v>
+      </c>
+      <c r="X366" t="n">
+        <v>0.7918333157931662</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>0.7991245209602819</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>0.5258</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>0.9526</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29">
+      <c r="A367" t="s">
+        <v>425</v>
+      </c>
+      <c r="B367" t="s">
+        <v>63</v>
+      </c>
+      <c r="C367" t="s">
+        <v>27</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" t="s">
+        <v>29</v>
+      </c>
+      <c r="F367" t="s">
+        <v>30</v>
+      </c>
+      <c r="G367" t="s">
+        <v>216</v>
+      </c>
+      <c r="H367" t="s">
+        <v>420</v>
+      </c>
+      <c r="I367" t="s">
+        <v>39</v>
+      </c>
+      <c r="J367" t="n">
+        <v>14</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.0001588712651282549</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0.0001603351747617126</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0.5276</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0.5316</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0.8613942186943212</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0.7775602870517501</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0.5592</v>
+      </c>
+      <c r="R367" t="n">
+        <v>0.5138</v>
+      </c>
+      <c r="S367" t="n">
+        <v>0.9177999999999999</v>
+      </c>
+      <c r="T367" t="n">
+        <v>0.9546</v>
+      </c>
+      <c r="U367" t="n">
+        <v>50</v>
+      </c>
+      <c r="V367" t="n">
+        <v>0.5292</v>
+      </c>
+      <c r="W367" t="n">
+        <v>0.5135999999999999</v>
+      </c>
+      <c r="X367" t="n">
+        <v>0.7898101037591252</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>0.8001249902359006</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>0.5206</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>0.5358000000000001</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>0.9534</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" t="s">
+        <v>426</v>
+      </c>
+      <c r="B368" t="s">
+        <v>63</v>
+      </c>
+      <c r="C368" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" t="s">
+        <v>29</v>
+      </c>
+      <c r="F368" t="s">
+        <v>30</v>
+      </c>
+      <c r="G368" t="s">
+        <v>216</v>
+      </c>
+      <c r="H368" t="s">
+        <v>420</v>
+      </c>
+      <c r="I368" t="s">
+        <v>39</v>
+      </c>
+      <c r="J368" t="n">
+        <v>18</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.0001590373728424311</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0.0001607596132904291</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0.4966</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0.8809086218218096</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0.7756287771866126</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0.5908</v>
+      </c>
+      <c r="R368" t="n">
+        <v>0.5048</v>
+      </c>
+      <c r="S368" t="n">
+        <v>0.9177999999999999</v>
+      </c>
+      <c r="T368" t="n">
+        <v>0.9528</v>
+      </c>
+      <c r="U368" t="n">
+        <v>50</v>
+      </c>
+      <c r="V368" t="n">
+        <v>0.5222</v>
+      </c>
+      <c r="W368" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="X368" t="n">
+        <v>0.7987490219086343</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>0.8082078940470701</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>0.5432</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>0.9496</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>0.9506</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29">
+      <c r="A369" t="s">
+        <v>427</v>
+      </c>
+      <c r="B369" t="s">
+        <v>63</v>
+      </c>
+      <c r="C369" t="s">
+        <v>27</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" t="s">
+        <v>29</v>
+      </c>
+      <c r="F369" t="s">
+        <v>30</v>
+      </c>
+      <c r="G369" t="s">
+        <v>216</v>
+      </c>
+      <c r="H369" t="s">
+        <v>420</v>
+      </c>
+      <c r="I369" t="s">
+        <v>39</v>
+      </c>
+      <c r="J369" t="n">
+        <v>25</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.0001578107008710504</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0.000159907859005034</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0.5278</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0.7925906888173744</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0.7817928114276825</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0.5162</v>
+      </c>
+      <c r="R369" t="n">
+        <v>0.5172</v>
+      </c>
+      <c r="S369" t="n">
+        <v>0.9476</v>
+      </c>
+      <c r="T369" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="U369" t="n">
+        <v>50</v>
+      </c>
+      <c r="V369" t="n">
+        <v>0.5204</v>
+      </c>
+      <c r="W369" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="X369" t="n">
+        <v>0.7987490219086343</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>0.8027452896155791</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>0.5312</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>0.5384</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>0.9502</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>0.9522</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29">
+      <c r="A370" t="s">
+        <v>428</v>
+      </c>
+      <c r="B370" t="s">
+        <v>63</v>
+      </c>
+      <c r="C370" t="s">
+        <v>27</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370" t="s">
+        <v>29</v>
+      </c>
+      <c r="F370" t="s">
+        <v>30</v>
+      </c>
+      <c r="G370" t="s">
+        <v>216</v>
+      </c>
+      <c r="H370" t="s">
+        <v>420</v>
+      </c>
+      <c r="I370" t="s">
+        <v>39</v>
+      </c>
+      <c r="J370" t="n">
+        <v>26</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.0001583378603681922</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.0001601721368730068</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0.5414</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0.7896834808959854</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0.7780745465570764</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0.5124</v>
+      </c>
+      <c r="R370" t="n">
+        <v>0.5118</v>
+      </c>
+      <c r="S370" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="T370" t="n">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="U370" t="n">
+        <v>50</v>
+      </c>
+      <c r="V370" t="n">
+        <v>0.5238</v>
+      </c>
+      <c r="W370" t="n">
+        <v>0.5158</v>
+      </c>
+      <c r="X370" t="n">
+        <v>0.7866384175718855</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>0.7944809626416481</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>0.5228</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>0.5316</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>0.9548</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29">
+      <c r="A371" t="s">
+        <v>429</v>
+      </c>
+      <c r="B371" t="s">
+        <v>63</v>
+      </c>
+      <c r="C371" t="s">
+        <v>27</v>
+      </c>
+      <c r="D371" t="s">
+        <v>28</v>
+      </c>
+      <c r="E371" t="s">
+        <v>29</v>
+      </c>
+      <c r="F371" t="s">
+        <v>30</v>
+      </c>
+      <c r="G371" t="s">
+        <v>216</v>
+      </c>
+      <c r="H371" t="s">
+        <v>420</v>
+      </c>
+      <c r="I371" t="s">
+        <v>39</v>
+      </c>
+      <c r="J371" t="n">
+        <v>24</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.0001578977530822158</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0.0001598531248047948</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="N371" t="n">
+        <v>0.5204</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0.7937253933193772</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0.7797435475847171</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="R371" t="n">
+        <v>0.5212</v>
+      </c>
+      <c r="S371" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="T371" t="n">
+        <v>0.9602000000000001</v>
+      </c>
+      <c r="U371" t="n">
+        <v>50</v>
+      </c>
+      <c r="V371" t="n">
+        <v>0.5178</v>
+      </c>
+      <c r="W371" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="X371" t="n">
+        <v>0.7974960814950754</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>0.7991245209602819</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>0.5324</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>0.5374</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>0.9514</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>0.9538</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29">
+      <c r="A372" t="s">
+        <v>430</v>
+      </c>
+      <c r="B372" t="s">
+        <v>63</v>
+      </c>
+      <c r="C372" t="s">
+        <v>27</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372" t="s">
+        <v>29</v>
+      </c>
+      <c r="F372" t="s">
+        <v>30</v>
+      </c>
+      <c r="G372" t="s">
+        <v>216</v>
+      </c>
+      <c r="H372" t="s">
+        <v>420</v>
+      </c>
+      <c r="I372" t="s">
+        <v>39</v>
+      </c>
+      <c r="J372" t="n">
+        <v>22</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.0001519287399947643</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0.0001532690469175577</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0.5358000000000001</v>
+      </c>
+      <c r="O372" t="n">
+        <v>0.7712327793863536</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0.7457881736793632</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0.5164</v>
+      </c>
+      <c r="R372" t="n">
+        <v>0.4946</v>
+      </c>
+      <c r="S372" t="n">
+        <v>0.9624</v>
+      </c>
+      <c r="T372" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="U372" t="n">
+        <v>50</v>
+      </c>
+      <c r="V372" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="W372" t="n">
+        <v>0.5354</v>
+      </c>
+      <c r="X372" t="n">
+        <v>0.7648529270389177</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>0.7666811592833099</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="AA372" t="n">
+        <v>0.5042</v>
+      </c>
+      <c r="AB372" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="AC372" t="n">
+        <v>0.9626</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29">
+      <c r="A373" t="s">
+        <v>431</v>
+      </c>
+      <c r="B373" t="s">
+        <v>63</v>
+      </c>
+      <c r="C373" t="s">
+        <v>27</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373" t="s">
+        <v>29</v>
+      </c>
+      <c r="F373" t="s">
+        <v>30</v>
+      </c>
+      <c r="G373" t="s">
+        <v>216</v>
+      </c>
+      <c r="H373" t="s">
+        <v>420</v>
+      </c>
+      <c r="I373" t="s">
+        <v>39</v>
+      </c>
+      <c r="J373" t="n">
+        <v>28</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.000157981713861227</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0.0001600226441398263</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0.5206</v>
+      </c>
+      <c r="N373" t="n">
+        <v>0.5185999999999999</v>
+      </c>
+      <c r="O373" t="n">
+        <v>0.8043631020876082</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0.7848566748139434</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0.5342</v>
+      </c>
+      <c r="R373" t="n">
+        <v>0.5248</v>
+      </c>
+      <c r="S373" t="n">
+        <v>0.9468</v>
+      </c>
+      <c r="T373" t="n">
+        <v>0.9588</v>
+      </c>
+      <c r="U373" t="n">
+        <v>50</v>
+      </c>
+      <c r="V373" t="n">
+        <v>0.5258</v>
+      </c>
+      <c r="W373" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="X373" t="n">
+        <v>0.7935993951610598</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>0.7977468270071651</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="AA373" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="AB373" t="n">
+        <v>0.9508</v>
+      </c>
+      <c r="AC373" t="n">
+        <v>0.9532</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29">
+      <c r="A374" t="s">
+        <v>432</v>
+      </c>
+      <c r="B374" t="s">
+        <v>63</v>
+      </c>
+      <c r="C374" t="s">
+        <v>27</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374" t="s">
+        <v>29</v>
+      </c>
+      <c r="F374" t="s">
+        <v>30</v>
+      </c>
+      <c r="G374" t="s">
+        <v>216</v>
+      </c>
+      <c r="H374" t="s">
+        <v>433</v>
+      </c>
+      <c r="I374" t="s">
+        <v>39</v>
+      </c>
+      <c r="J374" t="n">
+        <v>27</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.0001154553341679275</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0.0001177025323733687</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0.5911999999999999</v>
+      </c>
+      <c r="O374" t="n">
+        <v>0.7297944916207576</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0.7054076835419359</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0.4606</v>
+      </c>
+      <c r="R374" t="n">
+        <v>0.4372</v>
+      </c>
+      <c r="S374" t="n">
+        <v>0.9668</v>
+      </c>
+      <c r="T374" t="n">
+        <v>0.9734</v>
+      </c>
+      <c r="U374" t="n">
+        <v>50</v>
+      </c>
+      <c r="V374" t="n">
+        <v>0.5896</v>
+      </c>
+      <c r="W374" t="n">
+        <v>0.5724</v>
+      </c>
+      <c r="X374" t="n">
+        <v>0.7073895673530958</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>0.7264984514780469</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>0.4396</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>0.4598</v>
+      </c>
+      <c r="AB374" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="AC374" t="n">
+        <v>0.9696</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29">
+      <c r="A375" t="s">
+        <v>434</v>
+      </c>
+      <c r="B375" t="s">
+        <v>63</v>
+      </c>
+      <c r="C375" t="s">
+        <v>27</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375" t="s">
+        <v>29</v>
+      </c>
+      <c r="F375" t="s">
+        <v>30</v>
+      </c>
+      <c r="G375" t="s">
+        <v>216</v>
+      </c>
+      <c r="H375" t="s">
+        <v>433</v>
+      </c>
+      <c r="I375" t="s">
+        <v>39</v>
+      </c>
+      <c r="J375" t="n">
+        <v>28</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.0001159261806868017</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0.0001177832653746009</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0.5896</v>
+      </c>
+      <c r="N375" t="n">
+        <v>0.5782</v>
+      </c>
+      <c r="O375" t="n">
+        <v>0.7338937252763509</v>
+      </c>
+      <c r="P375" t="n">
+        <v>0.7032780389006896</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>0.4522</v>
+      </c>
+      <c r="R375" t="n">
+        <v>0.4458</v>
+      </c>
+      <c r="S375" t="n">
+        <v>0.9596</v>
+      </c>
+      <c r="T375" t="n">
+        <v>0.9764</v>
+      </c>
+      <c r="U375" t="n">
+        <v>50</v>
+      </c>
+      <c r="V375" t="n">
+        <v>0.5921999999999999</v>
+      </c>
+      <c r="W375" t="n">
+        <v>0.5752</v>
+      </c>
+      <c r="X375" t="n">
+        <v>0.7051241025521677</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>0.7237402849088892</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>0.4368</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>0.4566</v>
+      </c>
+      <c r="AB375" t="n">
+        <v>0.9722</v>
+      </c>
+      <c r="AC375" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29">
+      <c r="A376" t="s">
+        <v>435</v>
+      </c>
+      <c r="B376" t="s">
+        <v>63</v>
+      </c>
+      <c r="C376" t="s">
+        <v>27</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376" t="s">
+        <v>29</v>
+      </c>
+      <c r="F376" t="s">
+        <v>30</v>
+      </c>
+      <c r="G376" t="s">
+        <v>216</v>
+      </c>
+      <c r="H376" t="s">
+        <v>433</v>
+      </c>
+      <c r="I376" t="s">
+        <v>39</v>
+      </c>
+      <c r="J376" t="n">
+        <v>24</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.000116041096765548</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0.0001175810277462006</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0.5866</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="O376" t="n">
+        <v>0.7264984514780469</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0.7174956445860839</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0.4506</v>
+      </c>
+      <c r="R376" t="n">
+        <v>0.4516</v>
+      </c>
+      <c r="S376" t="n">
+        <v>0.9641999999999999</v>
+      </c>
+      <c r="T376" t="n">
+        <v>0.9724</v>
+      </c>
+      <c r="U376" t="n">
+        <v>50</v>
+      </c>
+      <c r="V376" t="n">
+        <v>0.5934</v>
+      </c>
+      <c r="W376" t="n">
+        <v>0.5764</v>
+      </c>
+      <c r="X376" t="n">
+        <v>0.7034202158027589</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>0.7191661838546081</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>0.4352</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>0.4536</v>
+      </c>
+      <c r="AB376" t="n">
+        <v>0.9726</v>
+      </c>
+      <c r="AC376" t="n">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29">
+      <c r="A377" t="s">
+        <v>436</v>
+      </c>
+      <c r="B377" t="s">
+        <v>63</v>
+      </c>
+      <c r="C377" t="s">
+        <v>27</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377" t="s">
+        <v>29</v>
+      </c>
+      <c r="F377" t="s">
+        <v>30</v>
+      </c>
+      <c r="G377" t="s">
+        <v>216</v>
+      </c>
+      <c r="H377" t="s">
+        <v>433</v>
+      </c>
+      <c r="I377" t="s">
+        <v>39</v>
+      </c>
+      <c r="J377" t="n">
+        <v>24</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.0001160041835159063</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0.0001182319853454828</v>
+      </c>
+      <c r="M377" t="n">
+        <v>0.5578</v>
+      </c>
+      <c r="N377" t="n">
+        <v>0.5921999999999999</v>
+      </c>
+      <c r="O377" t="n">
+        <v>0.7479304780526062</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0.7107742257566744</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0.4802</v>
+      </c>
+      <c r="R377" t="n">
+        <v>0.4388</v>
+      </c>
+      <c r="S377" t="n">
+        <v>0.9636</v>
+      </c>
+      <c r="T377" t="n">
+        <v>0.9712</v>
+      </c>
+      <c r="U377" t="n">
+        <v>50</v>
+      </c>
+      <c r="V377" t="n">
+        <v>0.5896</v>
+      </c>
+      <c r="W377" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="X377" t="n">
+        <v>0.7089428749906441</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>0.7274613391789284</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>0.4402</v>
+      </c>
+      <c r="AA377" t="n">
+        <v>0.4584</v>
+      </c>
+      <c r="AB377" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="AC377" t="n">
+        <v>0.9686</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29">
+      <c r="A378" t="s">
+        <v>437</v>
+      </c>
+      <c r="B378" t="s">
+        <v>63</v>
+      </c>
+      <c r="C378" t="s">
+        <v>27</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378" t="s">
+        <v>29</v>
+      </c>
+      <c r="F378" t="s">
+        <v>30</v>
+      </c>
+      <c r="G378" t="s">
+        <v>216</v>
+      </c>
+      <c r="H378" t="s">
+        <v>433</v>
+      </c>
+      <c r="I378" t="s">
+        <v>39</v>
+      </c>
+      <c r="J378" t="n">
+        <v>29</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.0001160305595956743</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0.0001181947125121951</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0.5582</v>
+      </c>
+      <c r="N378" t="n">
+        <v>0.5928</v>
+      </c>
+      <c r="O378" t="n">
+        <v>0.741484996476665</v>
+      </c>
+      <c r="P378" t="n">
+        <v>0.7022819946431775</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>0.4766</v>
+      </c>
+      <c r="R378" t="n">
+        <v>0.4352</v>
+      </c>
+      <c r="S378" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="T378" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="U378" t="n">
+        <v>50</v>
+      </c>
+      <c r="V378" t="n">
+        <v>0.5906</v>
+      </c>
+      <c r="W378" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="X378" t="n">
+        <v>0.7052659073002182</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>0.7231873892705818</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>0.4378</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="AB378" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="AC378" t="n">
+        <v>0.971</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29">
+      <c r="A379" t="s">
+        <v>438</v>
+      </c>
+      <c r="B379" t="s">
+        <v>63</v>
+      </c>
+      <c r="C379" t="s">
+        <v>27</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379" t="s">
+        <v>29</v>
+      </c>
+      <c r="F379" t="s">
+        <v>30</v>
+      </c>
+      <c r="G379" t="s">
+        <v>216</v>
+      </c>
+      <c r="H379" t="s">
+        <v>433</v>
+      </c>
+      <c r="I379" t="s">
+        <v>39</v>
+      </c>
+      <c r="J379" t="n">
+        <v>31</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.0001155150369741023</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0.0001177484109997749</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="N379" t="n">
+        <v>0.5672</v>
+      </c>
+      <c r="O379" t="n">
+        <v>0.7096477999684069</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0.7152621896899067</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>0.4484</v>
+      </c>
+      <c r="R379" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="S379" t="n">
+        <v>0.9728</v>
+      </c>
+      <c r="T379" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="U379" t="n">
+        <v>50</v>
+      </c>
+      <c r="V379" t="n">
+        <v>0.5884</v>
+      </c>
+      <c r="W379" t="n">
+        <v>0.5706</v>
+      </c>
+      <c r="X379" t="n">
+        <v>0.708237248385031</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>0.7267736924242649</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>0.4408</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="AB379" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="AC379" t="n">
+        <v>0.9704</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29">
+      <c r="A380" t="s">
+        <v>439</v>
+      </c>
+      <c r="B380" t="s">
+        <v>63</v>
+      </c>
+      <c r="C380" t="s">
+        <v>27</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380" t="s">
+        <v>29</v>
+      </c>
+      <c r="F380" t="s">
+        <v>30</v>
+      </c>
+      <c r="G380" t="s">
+        <v>216</v>
+      </c>
+      <c r="H380" t="s">
+        <v>433</v>
+      </c>
+      <c r="I380" t="s">
+        <v>39</v>
+      </c>
+      <c r="J380" t="n">
+        <v>22</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.0001156761449761689</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0.0001181008617393673</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="N380" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="O380" t="n">
+        <v>0.7345747068882783</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0.7034202158027589</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>0.4624</v>
+      </c>
+      <c r="R380" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="S380" t="n">
+        <v>0.9618</v>
+      </c>
+      <c r="T380" t="n">
+        <v>0.9714</v>
+      </c>
+      <c r="U380" t="n">
+        <v>50</v>
+      </c>
+      <c r="V380" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W380" t="n">
+        <v>0.5696</v>
+      </c>
+      <c r="X380" t="n">
+        <v>0.7037044834303672</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>0.7271863585079137</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>0.4376</v>
+      </c>
+      <c r="AA380" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="AB380" t="n">
+        <v>0.9736</v>
+      </c>
+      <c r="AC380" t="n">
+        <v>0.9702</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29">
+      <c r="A381" t="s">
+        <v>440</v>
+      </c>
+      <c r="B381" t="s">
+        <v>63</v>
+      </c>
+      <c r="C381" t="s">
+        <v>27</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381" t="s">
+        <v>29</v>
+      </c>
+      <c r="F381" t="s">
+        <v>30</v>
+      </c>
+      <c r="G381" t="s">
+        <v>216</v>
+      </c>
+      <c r="H381" t="s">
+        <v>433</v>
+      </c>
+      <c r="I381" t="s">
+        <v>39</v>
+      </c>
+      <c r="J381" t="n">
+        <v>27</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.0001158107412047684</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0.0001179325439035892</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="O381" t="n">
+        <v>0.7215261603018979</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0.6997142273814361</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0.4498</v>
+      </c>
+      <c r="R381" t="n">
+        <v>0.4336</v>
+      </c>
+      <c r="S381" t="n">
+        <v>0.9674</v>
+      </c>
+      <c r="T381" t="n">
+        <v>0.9728</v>
+      </c>
+      <c r="U381" t="n">
+        <v>50</v>
+      </c>
+      <c r="V381" t="n">
+        <v>0.5906</v>
+      </c>
+      <c r="W381" t="n">
+        <v>0.5782</v>
+      </c>
+      <c r="X381" t="n">
+        <v>0.7049822692805827</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>0.7195832127002408</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>0.4378</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>0.4526</v>
+      </c>
+      <c r="AB381" t="n">
+        <v>0.9728</v>
+      </c>
+      <c r="AC381" t="n">
+        <v>0.971</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29">
+      <c r="A382" t="s">
+        <v>441</v>
+      </c>
+      <c r="B382" t="s">
+        <v>63</v>
+      </c>
+      <c r="C382" t="s">
+        <v>27</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382" t="s">
+        <v>29</v>
+      </c>
+      <c r="F382" t="s">
+        <v>30</v>
+      </c>
+      <c r="G382" t="s">
+        <v>216</v>
+      </c>
+      <c r="H382" t="s">
+        <v>433</v>
+      </c>
+      <c r="I382" t="s">
+        <v>39</v>
+      </c>
+      <c r="J382" t="n">
+        <v>23</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.0001158866362646222</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0.0001179030927829444</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0.5772</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0.5854</v>
+      </c>
+      <c r="O382" t="n">
+        <v>0.7360706487831178</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0.7145628033979938</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0.4614</v>
+      </c>
+      <c r="R382" t="n">
+        <v>0.4454</v>
+      </c>
+      <c r="S382" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="T382" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="U382" t="n">
+        <v>50</v>
+      </c>
+      <c r="V382" t="n">
+        <v>0.5918</v>
+      </c>
+      <c r="W382" t="n">
+        <v>0.5722</v>
+      </c>
+      <c r="X382" t="n">
+        <v>0.706257743320383</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>0.7292461861401813</v>
+      </c>
+      <c r="Z382" t="n">
+        <v>0.4376</v>
+      </c>
+      <c r="AA382" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="AB382" t="n">
+        <v>0.9718</v>
+      </c>
+      <c r="AC382" t="n">
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29">
+      <c r="A383" t="s">
+        <v>442</v>
+      </c>
+      <c r="B383" t="s">
+        <v>63</v>
+      </c>
+      <c r="C383" t="s">
+        <v>27</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383" t="s">
+        <v>29</v>
+      </c>
+      <c r="F383" t="s">
+        <v>30</v>
+      </c>
+      <c r="G383" t="s">
+        <v>216</v>
+      </c>
+      <c r="H383" t="s">
+        <v>433</v>
+      </c>
+      <c r="I383" t="s">
+        <v>39</v>
+      </c>
+      <c r="J383" t="n">
+        <v>26</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.0001156836066395044</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0.0001176818440668285</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0.5758</v>
+      </c>
+      <c r="N383" t="n">
+        <v>0.5891999999999999</v>
+      </c>
+      <c r="O383" t="n">
+        <v>0.7278736154031138</v>
+      </c>
+      <c r="P383" t="n">
+        <v>0.7059745037889117</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>0.4582</v>
+      </c>
+      <c r="R383" t="n">
+        <v>0.4388</v>
+      </c>
+      <c r="S383" t="n">
+        <v>0.9678</v>
+      </c>
+      <c r="T383" t="n">
+        <v>0.9738</v>
+      </c>
+      <c r="U383" t="n">
+        <v>50</v>
+      </c>
+      <c r="V383" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="W383" t="n">
+        <v>0.5736</v>
+      </c>
+      <c r="X383" t="n">
+        <v>0.7079548008171143</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>0.7275987905432498</v>
+      </c>
+      <c r="Z383" t="n">
+        <v>0.4404</v>
+      </c>
+      <c r="AA383" t="n">
+        <v>0.4594</v>
+      </c>
+      <c r="AB383" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="AC383" t="n">
+        <v>0.969</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29">
+      <c r="A384" t="s">
+        <v>443</v>
+      </c>
+      <c r="B384" t="s">
+        <v>63</v>
+      </c>
+      <c r="C384" t="s">
+        <v>27</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384" t="s">
+        <v>29</v>
+      </c>
+      <c r="F384" t="s">
+        <v>30</v>
+      </c>
+      <c r="G384" t="s">
+        <v>216</v>
+      </c>
+      <c r="H384" t="s">
+        <v>444</v>
+      </c>
+      <c r="I384" t="s">
+        <v>39</v>
+      </c>
+      <c r="J384" t="n">
+        <v>22</v>
+      </c>
+      <c r="K384" t="n">
+        <v>9.00472047738731e-05</v>
+      </c>
+      <c r="L384" t="n">
+        <v>9.208418736234307e-05</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="N384" t="n">
+        <v>0.6056</v>
+      </c>
+      <c r="O384" t="n">
+        <v>0.6894925670375279</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0.6772001181334806</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0.4222</v>
+      </c>
+      <c r="R384" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="S384" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="T384" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="U384" t="n">
+        <v>50</v>
+      </c>
+      <c r="V384" t="n">
+        <v>0.6133999999999999</v>
+      </c>
+      <c r="W384" t="n">
+        <v>0.6102</v>
+      </c>
+      <c r="X384" t="n">
+        <v>0.6814690014960328</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>0.6903622237637282</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="AA384" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="AB384" t="n">
+        <v>0.9754</v>
+      </c>
+      <c r="AC384" t="n">
+        <v>0.9734</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29">
+      <c r="A385" t="s">
+        <v>445</v>
+      </c>
+      <c r="B385" t="s">
+        <v>63</v>
+      </c>
+      <c r="C385" t="s">
+        <v>27</v>
+      </c>
+      <c r="D385" t="s">
+        <v>28</v>
+      </c>
+      <c r="E385" t="s">
+        <v>29</v>
+      </c>
+      <c r="F385" t="s">
+        <v>30</v>
+      </c>
+      <c r="G385" t="s">
+        <v>216</v>
+      </c>
+      <c r="H385" t="s">
+        <v>444</v>
+      </c>
+      <c r="I385" t="s">
+        <v>39</v>
+      </c>
+      <c r="J385" t="n">
+        <v>29</v>
+      </c>
+      <c r="K385" t="n">
+        <v>9.020868232473731e-05</v>
+      </c>
+      <c r="L385" t="n">
+        <v>9.209964508190751e-05</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="O385" t="n">
+        <v>0.7022819946431775</v>
+      </c>
+      <c r="P385" t="n">
+        <v>0.6830812543175226</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>0.4296</v>
+      </c>
+      <c r="R385" t="n">
+        <v>0.4202</v>
+      </c>
+      <c r="S385" t="n">
+        <v>0.9698</v>
+      </c>
+      <c r="T385" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="U385" t="n">
+        <v>50</v>
+      </c>
+      <c r="V385" t="n">
+        <v>0.6162</v>
+      </c>
+      <c r="W385" t="n">
+        <v>0.6098</v>
+      </c>
+      <c r="X385" t="n">
+        <v>0.6836665854054884</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>0.6942621983083913</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>0.4196</v>
+      </c>
+      <c r="AB385" t="n">
+        <v>0.9738</v>
+      </c>
+      <c r="AC385" t="n">
+        <v>0.9724</v>
+      </c>
+    </row>
+    <row r="386" spans="1:29">
+      <c r="A386" t="s">
+        <v>446</v>
+      </c>
+      <c r="B386" t="s">
+        <v>63</v>
+      </c>
+      <c r="C386" t="s">
+        <v>27</v>
+      </c>
+      <c r="D386" t="s">
+        <v>28</v>
+      </c>
+      <c r="E386" t="s">
+        <v>29</v>
+      </c>
+      <c r="F386" t="s">
+        <v>30</v>
+      </c>
+      <c r="G386" t="s">
+        <v>216</v>
+      </c>
+      <c r="H386" t="s">
+        <v>444</v>
+      </c>
+      <c r="I386" t="s">
+        <v>39</v>
+      </c>
+      <c r="J386" t="n">
+        <v>26</v>
+      </c>
+      <c r="K386" t="n">
+        <v>8.992919344455004e-05</v>
+      </c>
+      <c r="L386" t="n">
+        <v>9.216566802933813e-05</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0.6136</v>
+      </c>
+      <c r="O386" t="n">
+        <v>0.6962758074211685</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0.6820557161991974</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>0.4268</v>
+      </c>
+      <c r="R386" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="S386" t="n">
+        <v>0.9726</v>
+      </c>
+      <c r="T386" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="U386" t="n">
+        <v>50</v>
+      </c>
+      <c r="V386" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="W386" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="X386" t="n">
+        <v>0.6829348431585549</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>0.692098258919931</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>0.4194</v>
+      </c>
+      <c r="AB386" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="AC386" t="n">
+        <v>0.9734</v>
+      </c>
+    </row>
+    <row r="387" spans="1:29">
+      <c r="A387" t="s">
+        <v>447</v>
+      </c>
+      <c r="B387" t="s">
+        <v>63</v>
+      </c>
+      <c r="C387" t="s">
+        <v>27</v>
+      </c>
+      <c r="D387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387" t="s">
+        <v>29</v>
+      </c>
+      <c r="F387" t="s">
+        <v>30</v>
+      </c>
+      <c r="G387" t="s">
+        <v>216</v>
+      </c>
+      <c r="H387" t="s">
+        <v>444</v>
+      </c>
+      <c r="I387" t="s">
+        <v>39</v>
+      </c>
+      <c r="J387" t="n">
+        <v>24</v>
+      </c>
+      <c r="K387" t="n">
+        <v>8.967036893591285e-05</v>
+      </c>
+      <c r="L387" t="n">
+        <v>9.223863771185279e-05</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0.6178</v>
+      </c>
+      <c r="O387" t="n">
+        <v>0.6849817515817483</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0.6729041536504289</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="R387" t="n">
+        <v>0.4056</v>
+      </c>
+      <c r="S387" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="T387" t="n">
+        <v>0.9768</v>
+      </c>
+      <c r="U387" t="n">
+        <v>50</v>
+      </c>
+      <c r="V387" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="W387" t="n">
+        <v>0.6124000000000001</v>
+      </c>
+      <c r="X387" t="n">
+        <v>0.6798529252713413</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>0.6833739825307955</v>
+      </c>
+      <c r="Z387" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="AA387" t="n">
+        <v>0.4134</v>
+      </c>
+      <c r="AB387" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="AC387" t="n">
+        <v>0.9752</v>
+      </c>
+    </row>
+    <row r="388" spans="1:29">
+      <c r="A388" t="s">
+        <v>448</v>
+      </c>
+      <c r="B388" t="s">
+        <v>63</v>
+      </c>
+      <c r="C388" t="s">
+        <v>27</v>
+      </c>
+      <c r="D388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388" t="s">
+        <v>29</v>
+      </c>
+      <c r="F388" t="s">
+        <v>30</v>
+      </c>
+      <c r="G388" t="s">
+        <v>216</v>
+      </c>
+      <c r="H388" t="s">
+        <v>444</v>
+      </c>
+      <c r="I388" t="s">
+        <v>39</v>
+      </c>
+      <c r="J388" t="n">
+        <v>26</v>
+      </c>
+      <c r="K388" t="n">
+        <v>8.938462804071606e-05</v>
+      </c>
+      <c r="L388" t="n">
+        <v>9.18456015177071e-05</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0.7014271166700072</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0.6769047200308179</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0.4236</v>
+      </c>
+      <c r="R388" t="n">
+        <v>0.4126</v>
+      </c>
+      <c r="S388" t="n">
+        <v>0.9694</v>
+      </c>
+      <c r="T388" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="U388" t="n">
+        <v>50</v>
+      </c>
+      <c r="V388" t="n">
+        <v>0.6172</v>
+      </c>
+      <c r="W388" t="n">
+        <v>0.6114000000000001</v>
+      </c>
+      <c r="X388" t="n">
+        <v>0.6830812543175226</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>0.6935416353759881</v>
+      </c>
+      <c r="Z388" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="AA388" t="n">
+        <v>0.4182</v>
+      </c>
+      <c r="AB388" t="n">
+        <v>0.9734</v>
+      </c>
+      <c r="AC388" t="n">
+        <v>0.9722</v>
+      </c>
+    </row>
+    <row r="389" spans="1:29">
+      <c r="A389" t="s">
+        <v>449</v>
+      </c>
+      <c r="B389" t="s">
+        <v>63</v>
+      </c>
+      <c r="C389" t="s">
+        <v>27</v>
+      </c>
+      <c r="D389" t="s">
+        <v>28</v>
+      </c>
+      <c r="E389" t="s">
+        <v>29</v>
+      </c>
+      <c r="F389" t="s">
+        <v>30</v>
+      </c>
+      <c r="G389" t="s">
+        <v>216</v>
+      </c>
+      <c r="H389" t="s">
+        <v>444</v>
+      </c>
+      <c r="I389" t="s">
+        <v>39</v>
+      </c>
+      <c r="J389" t="n">
+        <v>24</v>
+      </c>
+      <c r="K389" t="n">
+        <v>8.95953057333827e-05</v>
+      </c>
+      <c r="L389" t="n">
+        <v>9.219697173684836e-05</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0.6038</v>
+      </c>
+      <c r="N389" t="n">
+        <v>0.6108</v>
+      </c>
+      <c r="O389" t="n">
+        <v>0.7049822692805827</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0.6830812543175226</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="R389" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="S389" t="n">
+        <v>0.9694</v>
+      </c>
+      <c r="T389" t="n">
+        <v>0.9742</v>
+      </c>
+      <c r="U389" t="n">
+        <v>50</v>
+      </c>
+      <c r="V389" t="n">
+        <v>0.6138</v>
+      </c>
+      <c r="W389" t="n">
+        <v>0.6098</v>
+      </c>
+      <c r="X389" t="n">
+        <v>0.6827884006044626</v>
+      </c>
+      <c r="Y389" t="n">
+        <v>0.6918092222571192</v>
+      </c>
+      <c r="Z389" t="n">
+        <v>0.4122</v>
+      </c>
+      <c r="AA389" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="AB389" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="AC389" t="n">
+        <v>0.9732</v>
+      </c>
+    </row>
+    <row r="390" spans="1:29">
+      <c r="A390" t="s">
+        <v>450</v>
+      </c>
+      <c r="B390" t="s">
+        <v>63</v>
+      </c>
+      <c r="C390" t="s">
+        <v>27</v>
+      </c>
+      <c r="D390" t="s">
+        <v>28</v>
+      </c>
+      <c r="E390" t="s">
+        <v>29</v>
+      </c>
+      <c r="F390" t="s">
+        <v>30</v>
+      </c>
+      <c r="G390" t="s">
+        <v>216</v>
+      </c>
+      <c r="H390" t="s">
+        <v>444</v>
+      </c>
+      <c r="I390" t="s">
+        <v>39</v>
+      </c>
+      <c r="J390" t="n">
+        <v>24</v>
+      </c>
+      <c r="K390" t="n">
+        <v>8.985233884304762e-05</v>
+      </c>
+      <c r="L390" t="n">
+        <v>9.185229977592826e-05</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0.6052</v>
+      </c>
+      <c r="N390" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="O390" t="n">
+        <v>0.6916646586316233</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0.6889121859859935</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="R390" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="S390" t="n">
+        <v>0.9738</v>
+      </c>
+      <c r="T390" t="n">
+        <v>0.9758</v>
+      </c>
+      <c r="U390" t="n">
+        <v>50</v>
+      </c>
+      <c r="V390" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="W390" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="X390" t="n">
+        <v>0.6849817515817483</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>0.6955573304911681</v>
+      </c>
+      <c r="Z390" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="AA390" t="n">
+        <v>0.4214</v>
+      </c>
+      <c r="AB390" t="n">
+        <v>0.9732</v>
+      </c>
+      <c r="AC390" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+    <row r="391" spans="1:29">
+      <c r="A391" t="s">
+        <v>451</v>
+      </c>
+      <c r="B391" t="s">
+        <v>63</v>
+      </c>
+      <c r="C391" t="s">
+        <v>27</v>
+      </c>
+      <c r="D391" t="s">
+        <v>28</v>
+      </c>
+      <c r="E391" t="s">
+        <v>29</v>
+      </c>
+      <c r="F391" t="s">
+        <v>30</v>
+      </c>
+      <c r="G391" t="s">
+        <v>216</v>
+      </c>
+      <c r="H391" t="s">
+        <v>444</v>
+      </c>
+      <c r="I391" t="s">
+        <v>39</v>
+      </c>
+      <c r="J391" t="n">
+        <v>32</v>
+      </c>
+      <c r="K391" t="n">
+        <v>8.953461274504661e-05</v>
+      </c>
+      <c r="L391" t="n">
+        <v>9.187001697719097e-05</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0.6064000000000001</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0.6072</v>
+      </c>
+      <c r="O391" t="n">
+        <v>0.6792643079096677</v>
+      </c>
+      <c r="P391" t="n">
+        <v>0.6791170738539858</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="R391" t="n">
+        <v>0.4152</v>
+      </c>
+      <c r="S391" t="n">
+        <v>0.9784</v>
+      </c>
+      <c r="T391" t="n">
+        <v>0.9782</v>
+      </c>
+      <c r="U391" t="n">
+        <v>50</v>
+      </c>
+      <c r="V391" t="n">
+        <v>0.6146</v>
+      </c>
+      <c r="W391" t="n">
+        <v>0.6114000000000001</v>
+      </c>
+      <c r="X391" t="n">
+        <v>0.6823488843692792</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>0.6890573270780886</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>0.4164</v>
+      </c>
+      <c r="AB391" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="AC391" t="n">
+        <v>0.9736</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29">
+      <c r="A392" t="s">
+        <v>452</v>
+      </c>
+      <c r="B392" t="s">
+        <v>63</v>
+      </c>
+      <c r="C392" t="s">
+        <v>27</v>
+      </c>
+      <c r="D392" t="s">
+        <v>28</v>
+      </c>
+      <c r="E392" t="s">
+        <v>29</v>
+      </c>
+      <c r="F392" t="s">
+        <v>30</v>
+      </c>
+      <c r="G392" t="s">
+        <v>216</v>
+      </c>
+      <c r="H392" t="s">
+        <v>444</v>
+      </c>
+      <c r="I392" t="s">
+        <v>39</v>
+      </c>
+      <c r="J392" t="n">
+        <v>29</v>
+      </c>
+      <c r="K392" t="n">
+        <v>8.957261415198445e-05</v>
+      </c>
+      <c r="L392" t="n">
+        <v>9.20049849897623e-05</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0.6992853494818835</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0.6776429738438966</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0.4274</v>
+      </c>
+      <c r="R392" t="n">
+        <v>0.4144</v>
+      </c>
+      <c r="S392" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="T392" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="U392" t="n">
+        <v>50</v>
+      </c>
+      <c r="V392" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="W392" t="n">
+        <v>0.6078</v>
+      </c>
+      <c r="X392" t="n">
+        <v>0.6829348431585549</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>0.6932532004974806</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>0.4206</v>
+      </c>
+      <c r="AB392" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="AC392" t="n">
+        <v>0.9732</v>
+      </c>
+    </row>
+    <row r="393" spans="1:29">
+      <c r="A393" t="s">
+        <v>453</v>
+      </c>
+      <c r="B393" t="s">
+        <v>63</v>
+      </c>
+      <c r="C393" t="s">
+        <v>27</v>
+      </c>
+      <c r="D393" t="s">
+        <v>28</v>
+      </c>
+      <c r="E393" t="s">
+        <v>29</v>
+      </c>
+      <c r="F393" t="s">
+        <v>30</v>
+      </c>
+      <c r="G393" t="s">
+        <v>216</v>
+      </c>
+      <c r="H393" t="s">
+        <v>444</v>
+      </c>
+      <c r="I393" t="s">
+        <v>39</v>
+      </c>
+      <c r="J393" t="n">
+        <v>29</v>
+      </c>
+      <c r="K393" t="n">
+        <v>8.974449681118131e-05</v>
+      </c>
+      <c r="L393" t="n">
+        <v>9.179287487640977e-05</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0.6944062211702888</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0.6786751800382861</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0.4178</v>
+      </c>
+      <c r="R393" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="S393" t="n">
+        <v>0.9706</v>
+      </c>
+      <c r="T393" t="n">
+        <v>0.9818</v>
+      </c>
+      <c r="U393" t="n">
+        <v>50</v>
+      </c>
+      <c r="V393" t="n">
+        <v>0.6132</v>
+      </c>
+      <c r="W393" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="X393" t="n">
+        <v>0.6829348431585549</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>0.6900724599634447</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="AB393" t="n">
+        <v>0.9748</v>
+      </c>
+      <c r="AC393" t="n">
+        <v>0.9746</v>
+      </c>
+    </row>
+    <row r="394" spans="1:29">
+      <c r="A394" t="s">
+        <v>454</v>
+      </c>
+      <c r="B394" t="s">
+        <v>63</v>
+      </c>
+      <c r="C394" t="s">
+        <v>27</v>
+      </c>
+      <c r="D394" t="s">
+        <v>28</v>
+      </c>
+      <c r="E394" t="s">
+        <v>29</v>
+      </c>
+      <c r="F394" t="s">
+        <v>30</v>
+      </c>
+      <c r="G394" t="s">
+        <v>216</v>
+      </c>
+      <c r="H394" t="s">
+        <v>455</v>
+      </c>
+      <c r="I394" t="s">
+        <v>39</v>
+      </c>
+      <c r="J394" t="n">
+        <v>30</v>
+      </c>
+      <c r="K394" t="n">
+        <v>7.37381408456713e-05</v>
+      </c>
+      <c r="L394" t="n">
+        <v>7.601431934162974e-05</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0.5214</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0.5308</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0.7479304780526062</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0.7374279625834648</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="R394" t="n">
+        <v>0.4938</v>
+      </c>
+      <c r="S394" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="T394" t="n">
+        <v>0.9758</v>
+      </c>
+      <c r="U394" t="n">
+        <v>50</v>
+      </c>
+      <c r="V394" t="n">
+        <v>0.5294</v>
+      </c>
+      <c r="W394" t="n">
+        <v>0.5296</v>
+      </c>
+      <c r="X394" t="n">
+        <v>0.7378346698278687</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>0.7426977851050857</v>
+      </c>
+      <c r="Z394" t="n">
+        <v>0.4948</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>0.4972</v>
+      </c>
+      <c r="AB394" t="n">
+        <v>0.9764</v>
+      </c>
+      <c r="AC394" t="n">
+        <v>0.9736</v>
+      </c>
+    </row>
+    <row r="395" spans="1:29">
+      <c r="A395" t="s">
+        <v>456</v>
+      </c>
+      <c r="B395" t="s">
+        <v>63</v>
+      </c>
+      <c r="C395" t="s">
+        <v>27</v>
+      </c>
+      <c r="D395" t="s">
+        <v>28</v>
+      </c>
+      <c r="E395" t="s">
+        <v>29</v>
+      </c>
+      <c r="F395" t="s">
+        <v>30</v>
+      </c>
+      <c r="G395" t="s">
+        <v>216</v>
+      </c>
+      <c r="H395" t="s">
+        <v>455</v>
+      </c>
+      <c r="I395" t="s">
+        <v>39</v>
+      </c>
+      <c r="J395" t="n">
+        <v>26</v>
+      </c>
+      <c r="K395" t="n">
+        <v>7.380943577736616e-05</v>
+      </c>
+      <c r="L395" t="n">
+        <v>7.599796280264855e-05</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0.5256</v>
+      </c>
+      <c r="N395" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="O395" t="n">
+        <v>0.7443117626371358</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0.7436396977031283</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0.5008</v>
+      </c>
+      <c r="R395" t="n">
+        <v>0.5102</v>
+      </c>
+      <c r="S395" t="n">
+        <v>0.9738</v>
+      </c>
+      <c r="T395" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="U395" t="n">
+        <v>50</v>
+      </c>
+      <c r="V395" t="n">
+        <v>0.5244</v>
+      </c>
+      <c r="W395" t="n">
+        <v>0.5238</v>
+      </c>
+      <c r="X395" t="n">
+        <v>0.7395944834840239</v>
+      </c>
+      <c r="Y395" t="n">
+        <v>0.74565407529229</v>
+      </c>
+      <c r="Z395" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AA395" t="n">
+        <v>0.5024</v>
+      </c>
+      <c r="AB395" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="AC395" t="n">
+        <v>0.9744</v>
+      </c>
+    </row>
+    <row r="396" spans="1:29">
+      <c r="A396" t="s">
+        <v>457</v>
+      </c>
+      <c r="B396" t="s">
+        <v>63</v>
+      </c>
+      <c r="C396" t="s">
+        <v>27</v>
+      </c>
+      <c r="D396" t="s">
+        <v>28</v>
+      </c>
+      <c r="E396" t="s">
+        <v>29</v>
+      </c>
+      <c r="F396" t="s">
+        <v>30</v>
+      </c>
+      <c r="G396" t="s">
+        <v>216</v>
+      </c>
+      <c r="H396" t="s">
+        <v>455</v>
+      </c>
+      <c r="I396" t="s">
+        <v>39</v>
+      </c>
+      <c r="J396" t="n">
+        <v>23</v>
+      </c>
+      <c r="K396" t="n">
+        <v>7.347997617907822e-05</v>
+      </c>
+      <c r="L396" t="n">
+        <v>7.622445393353701e-05</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0.5226</v>
+      </c>
+      <c r="N396" t="n">
+        <v>0.5282</v>
+      </c>
+      <c r="O396" t="n">
+        <v>0.7483314773547883</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0.7344385610791416</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0.5044</v>
+      </c>
+      <c r="R396" t="n">
+        <v>0.4942</v>
+      </c>
+      <c r="S396" t="n">
+        <v>0.9738</v>
+      </c>
+      <c r="T396" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="U396" t="n">
+        <v>50</v>
+      </c>
+      <c r="V396" t="n">
+        <v>0.5278</v>
+      </c>
+      <c r="W396" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="X396" t="n">
+        <v>0.7397296803562772</v>
+      </c>
+      <c r="Y396" t="n">
+        <v>0.7467261881037788</v>
+      </c>
+      <c r="Z396" t="n">
+        <v>0.4968</v>
+      </c>
+      <c r="AA396" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="AB396" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="AC396" t="n">
+        <v>0.9738</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29">
+      <c r="A397" t="s">
+        <v>458</v>
+      </c>
+      <c r="B397" t="s">
+        <v>63</v>
+      </c>
+      <c r="C397" t="s">
+        <v>27</v>
+      </c>
+      <c r="D397" t="s">
+        <v>28</v>
+      </c>
+      <c r="E397" t="s">
+        <v>29</v>
+      </c>
+      <c r="F397" t="s">
+        <v>30</v>
+      </c>
+      <c r="G397" t="s">
+        <v>216</v>
+      </c>
+      <c r="H397" t="s">
+        <v>455</v>
+      </c>
+      <c r="I397" t="s">
+        <v>39</v>
+      </c>
+      <c r="J397" t="n">
+        <v>25</v>
+      </c>
+      <c r="K397" t="n">
+        <v>7.371035208925605e-05</v>
+      </c>
+      <c r="L397" t="n">
+        <v>7.624259274452925e-05</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0.5318000000000001</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0.7541883053985921</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0.7405403432629447</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0.5084</v>
+      </c>
+      <c r="R397" t="n">
+        <v>0.4944</v>
+      </c>
+      <c r="S397" t="n">
+        <v>0.9714</v>
+      </c>
+      <c r="T397" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="U397" t="n">
+        <v>50</v>
+      </c>
+      <c r="V397" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="W397" t="n">
+        <v>0.5242</v>
+      </c>
+      <c r="X397" t="n">
+        <v>0.7416198487095663</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>0.7472616676907762</v>
+      </c>
+      <c r="Z397" t="n">
+        <v>0.4996</v>
+      </c>
+      <c r="AA397" t="n">
+        <v>0.5028</v>
+      </c>
+      <c r="AB397" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="AC397" t="n">
+        <v>0.9738</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29">
+      <c r="A398" t="s">
+        <v>459</v>
+      </c>
+      <c r="B398" t="s">
+        <v>63</v>
+      </c>
+      <c r="C398" t="s">
+        <v>27</v>
+      </c>
+      <c r="D398" t="s">
+        <v>28</v>
+      </c>
+      <c r="E398" t="s">
+        <v>29</v>
+      </c>
+      <c r="F398" t="s">
+        <v>30</v>
+      </c>
+      <c r="G398" t="s">
+        <v>216</v>
+      </c>
+      <c r="H398" t="s">
+        <v>455</v>
+      </c>
+      <c r="I398" t="s">
+        <v>39</v>
+      </c>
+      <c r="J398" t="n">
+        <v>24</v>
+      </c>
+      <c r="K398" t="n">
+        <v>7.218515742570161e-05</v>
+      </c>
+      <c r="L398" t="n">
+        <v>7.392039336264134e-05</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0.5254</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0.7573638491504595</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0.7378346698278687</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0.5068</v>
+      </c>
+      <c r="R398" t="n">
+        <v>0.4976</v>
+      </c>
+      <c r="S398" t="n">
+        <v>0.9678</v>
+      </c>
+      <c r="T398" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="U398" t="n">
+        <v>50</v>
+      </c>
+      <c r="V398" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="W398" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="X398" t="n">
+        <v>0.7463243262818117</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>0.7475292636412303</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="AB398" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="AC398" t="n">
+        <v>0.9734</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29">
+      <c r="A399" t="s">
+        <v>460</v>
+      </c>
+      <c r="B399" t="s">
+        <v>63</v>
+      </c>
+      <c r="C399" t="s">
+        <v>27</v>
+      </c>
+      <c r="D399" t="s">
+        <v>28</v>
+      </c>
+      <c r="E399" t="s">
+        <v>29</v>
+      </c>
+      <c r="F399" t="s">
+        <v>30</v>
+      </c>
+      <c r="G399" t="s">
+        <v>216</v>
+      </c>
+      <c r="H399" t="s">
+        <v>455</v>
+      </c>
+      <c r="I399" t="s">
+        <v>39</v>
+      </c>
+      <c r="J399" t="n">
+        <v>23</v>
+      </c>
+      <c r="K399" t="n">
+        <v>7.364166346378624e-05</v>
+      </c>
+      <c r="L399" t="n">
+        <v>7.615752983838319e-05</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0.5182</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0.5302</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0.7487322618933954</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0.7364781055808788</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0.5078</v>
+      </c>
+      <c r="R399" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="S399" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="T399" t="n">
+        <v>0.9758</v>
+      </c>
+      <c r="U399" t="n">
+        <v>50</v>
+      </c>
+      <c r="V399" t="n">
+        <v>0.5288</v>
+      </c>
+      <c r="W399" t="n">
+        <v>0.5262</v>
+      </c>
+      <c r="X399" t="n">
+        <v>0.7386474125047755</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>0.7467261881037788</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>0.4956</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>0.5012</v>
+      </c>
+      <c r="AB399" t="n">
+        <v>0.9762</v>
+      </c>
+      <c r="AC399" t="n">
+        <v>0.9734</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29">
+      <c r="A400" t="s">
+        <v>461</v>
+      </c>
+      <c r="B400" t="s">
+        <v>63</v>
+      </c>
+      <c r="C400" t="s">
+        <v>27</v>
+      </c>
+      <c r="D400" t="s">
+        <v>28</v>
+      </c>
+      <c r="E400" t="s">
+        <v>29</v>
+      </c>
+      <c r="F400" t="s">
+        <v>30</v>
+      </c>
+      <c r="G400" t="s">
+        <v>216</v>
+      </c>
+      <c r="H400" t="s">
+        <v>455</v>
+      </c>
+      <c r="I400" t="s">
+        <v>39</v>
+      </c>
+      <c r="J400" t="n">
+        <v>22</v>
+      </c>
+      <c r="K400" t="n">
+        <v>7.369272974319756e-05</v>
+      </c>
+      <c r="L400" t="n">
+        <v>7.564361225813627e-05</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0.5322</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0.5248</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0.7404052944165108</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0.7349829930005184</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0.4942</v>
+      </c>
+      <c r="R400" t="n">
+        <v>0.4966</v>
+      </c>
+      <c r="S400" t="n">
+        <v>0.9742</v>
+      </c>
+      <c r="T400" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="U400" t="n">
+        <v>50</v>
+      </c>
+      <c r="V400" t="n">
+        <v>0.5284</v>
+      </c>
+      <c r="W400" t="n">
+        <v>0.5262</v>
+      </c>
+      <c r="X400" t="n">
+        <v>0.7409453421137082</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>0.7496665925596525</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>0.5024</v>
+      </c>
+      <c r="AB400" t="n">
+        <v>0.9752</v>
+      </c>
+      <c r="AC400" t="n">
+        <v>0.9726</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29">
+      <c r="A401" t="s">
+        <v>462</v>
+      </c>
+      <c r="B401" t="s">
+        <v>63</v>
+      </c>
+      <c r="C401" t="s">
+        <v>27</v>
+      </c>
+      <c r="D401" t="s">
+        <v>28</v>
+      </c>
+      <c r="E401" t="s">
+        <v>29</v>
+      </c>
+      <c r="F401" t="s">
+        <v>30</v>
+      </c>
+      <c r="G401" t="s">
+        <v>216</v>
+      </c>
+      <c r="H401" t="s">
+        <v>455</v>
+      </c>
+      <c r="I401" t="s">
+        <v>39</v>
+      </c>
+      <c r="J401" t="n">
+        <v>24</v>
+      </c>
+      <c r="K401" t="n">
+        <v>7.367348251864313e-05</v>
+      </c>
+      <c r="L401" t="n">
+        <v>7.621766505762935e-05</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0.5032</v>
+      </c>
+      <c r="N401" t="n">
+        <v>0.5308</v>
+      </c>
+      <c r="O401" t="n">
+        <v>0.7596051605933177</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0.7435052118176442</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="R401" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="S401" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="T401" t="n">
+        <v>0.9738</v>
+      </c>
+      <c r="U401" t="n">
+        <v>50</v>
+      </c>
+      <c r="V401" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="W401" t="n">
+        <v>0.5242</v>
+      </c>
+      <c r="X401" t="n">
+        <v>0.7395944834840239</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>0.7457881736793632</v>
+      </c>
+      <c r="Z401" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="AA401" t="n">
+        <v>0.5022</v>
+      </c>
+      <c r="AB401" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="AC401" t="n">
+        <v>0.9742</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29">
+      <c r="A402" t="s">
+        <v>463</v>
+      </c>
+      <c r="B402" t="s">
+        <v>63</v>
+      </c>
+      <c r="C402" t="s">
+        <v>27</v>
+      </c>
+      <c r="D402" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" t="s">
+        <v>29</v>
+      </c>
+      <c r="F402" t="s">
+        <v>30</v>
+      </c>
+      <c r="G402" t="s">
+        <v>216</v>
+      </c>
+      <c r="H402" t="s">
+        <v>455</v>
+      </c>
+      <c r="I402" t="s">
+        <v>39</v>
+      </c>
+      <c r="J402" t="n">
+        <v>32</v>
+      </c>
+      <c r="K402" t="n">
+        <v>7.406553095206618e-05</v>
+      </c>
+      <c r="L402" t="n">
+        <v>7.617516797035932e-05</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0.5164</v>
+      </c>
+      <c r="N402" t="n">
+        <v>0.5224</v>
+      </c>
+      <c r="O402" t="n">
+        <v>0.7417546764261079</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0.7402702209328699</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>0.5054</v>
+      </c>
+      <c r="R402" t="n">
+        <v>0.5008</v>
+      </c>
+      <c r="S402" t="n">
+        <v>0.9788</v>
+      </c>
+      <c r="T402" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="U402" t="n">
+        <v>50</v>
+      </c>
+      <c r="V402" t="n">
+        <v>0.5248</v>
+      </c>
+      <c r="W402" t="n">
+        <v>0.5266</v>
+      </c>
+      <c r="X402" t="n">
+        <v>0.7389181280764466</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>0.741484996476665</v>
+      </c>
+      <c r="Z402" t="n">
+        <v>0.4984</v>
+      </c>
+      <c r="AA402" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="AB402" t="n">
+        <v>0.9774</v>
+      </c>
+      <c r="AC402" t="n">
+        <v>0.9752</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29">
+      <c r="A403" t="s">
+        <v>464</v>
+      </c>
+      <c r="B403" t="s">
+        <v>63</v>
+      </c>
+      <c r="C403" t="s">
+        <v>27</v>
+      </c>
+      <c r="D403" t="s">
+        <v>28</v>
+      </c>
+      <c r="E403" t="s">
+        <v>29</v>
+      </c>
+      <c r="F403" t="s">
+        <v>30</v>
+      </c>
+      <c r="G403" t="s">
+        <v>216</v>
+      </c>
+      <c r="H403" t="s">
+        <v>455</v>
+      </c>
+      <c r="I403" t="s">
+        <v>39</v>
+      </c>
+      <c r="J403" t="n">
+        <v>29</v>
+      </c>
+      <c r="K403" t="n">
+        <v>7.371655218303203e-05</v>
+      </c>
+      <c r="L403" t="n">
+        <v>7.593767116777599e-05</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0.5234</v>
+      </c>
+      <c r="N403" t="n">
+        <v>0.5284</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0.7521967827636595</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0.7291090453423273</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0.5058</v>
+      </c>
+      <c r="R403" t="n">
+        <v>0.4916</v>
+      </c>
+      <c r="S403" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="T403" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="U403" t="n">
+        <v>50</v>
+      </c>
+      <c r="V403" t="n">
+        <v>0.5254</v>
+      </c>
+      <c r="W403" t="n">
+        <v>0.5244</v>
+      </c>
+      <c r="X403" t="n">
+        <v>0.7401351227985333</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>0.7417546764261079</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>0.4986</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>0.5002</v>
+      </c>
+      <c r="AB403" t="n">
+        <v>0.9766</v>
+      </c>
+      <c r="AC403" t="n">
+        <v>0.9758</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29">
+      <c r="A404" t="s">
+        <v>465</v>
+      </c>
+      <c r="B404" t="s">
+        <v>63</v>
+      </c>
+      <c r="C404" t="s">
+        <v>27</v>
+      </c>
+      <c r="D404" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" t="s">
+        <v>29</v>
+      </c>
+      <c r="F404" t="s">
+        <v>30</v>
+      </c>
+      <c r="G404" t="s">
+        <v>216</v>
+      </c>
+      <c r="H404" t="s">
+        <v>466</v>
+      </c>
+      <c r="I404" t="s">
+        <v>39</v>
+      </c>
+      <c r="J404" t="n">
+        <v>29</v>
+      </c>
+      <c r="K404" t="n">
+        <v>6.414023512043059e-05</v>
+      </c>
+      <c r="L404" t="n">
+        <v>6.670479755848646e-05</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0.4012</v>
+      </c>
+      <c r="N404" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0.8282511696339463</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0.8105553651663778</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>0.6276</v>
+      </c>
+      <c r="R404" t="n">
+        <v>0.6006</v>
+      </c>
+      <c r="S404" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="T404" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="U404" t="n">
+        <v>50</v>
+      </c>
+      <c r="V404" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="W404" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="X404" t="n">
+        <v>0.8075890043827987</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>0.8185352771872451</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="AB404" t="n">
+        <v>0.9752</v>
+      </c>
+      <c r="AC404" t="n">
+        <v>0.9728</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29">
+      <c r="A405" t="s">
+        <v>467</v>
+      </c>
+      <c r="B405" t="s">
+        <v>63</v>
+      </c>
+      <c r="C405" t="s">
+        <v>27</v>
+      </c>
+      <c r="D405" t="s">
+        <v>28</v>
+      </c>
+      <c r="E405" t="s">
+        <v>29</v>
+      </c>
+      <c r="F405" t="s">
+        <v>30</v>
+      </c>
+      <c r="G405" t="s">
+        <v>216</v>
+      </c>
+      <c r="H405" t="s">
+        <v>466</v>
+      </c>
+      <c r="I405" t="s">
+        <v>39</v>
+      </c>
+      <c r="J405" t="n">
+        <v>21</v>
+      </c>
+      <c r="K405" t="n">
+        <v>6.509647141210735e-05</v>
+      </c>
+      <c r="L405" t="n">
+        <v>6.706751310266554e-05</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0.4152</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0.4216</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0.8380930735902785</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0.8088263101556477</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>0.6232</v>
+      </c>
+      <c r="R405" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="S405" t="n">
+        <v>0.9628</v>
+      </c>
+      <c r="T405" t="n">
+        <v>0.9754</v>
+      </c>
+      <c r="U405" t="n">
+        <v>50</v>
+      </c>
+      <c r="V405" t="n">
+        <v>0.4244</v>
+      </c>
+      <c r="W405" t="n">
+        <v>0.4148</v>
+      </c>
+      <c r="X405" t="n">
+        <v>0.8091971329657563</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>0.8198780397107853</v>
+      </c>
+      <c r="Z405" t="n">
+        <v>0.6016</v>
+      </c>
+      <c r="AA405" t="n">
+        <v>0.6138</v>
+      </c>
+      <c r="AB405" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="AC405" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+    <row r="406" spans="1:29">
+      <c r="A406" t="s">
+        <v>468</v>
+      </c>
+      <c r="B406" t="s">
+        <v>63</v>
+      </c>
+      <c r="C406" t="s">
+        <v>27</v>
+      </c>
+      <c r="D406" t="s">
+        <v>28</v>
+      </c>
+      <c r="E406" t="s">
+        <v>29</v>
+      </c>
+      <c r="F406" t="s">
+        <v>30</v>
+      </c>
+      <c r="G406" t="s">
+        <v>216</v>
+      </c>
+      <c r="H406" t="s">
+        <v>466</v>
+      </c>
+      <c r="I406" t="s">
+        <v>39</v>
+      </c>
+      <c r="J406" t="n">
+        <v>28</v>
+      </c>
+      <c r="K406" t="n">
+        <v>6.218751049600542e-05</v>
+      </c>
+      <c r="L406" t="n">
+        <v>6.474863472394645e-05</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0.4396</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.4486</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0.8075890043827987</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0.7922120928135344</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="R406" t="n">
+        <v>0.5768</v>
+      </c>
+      <c r="S406" t="n">
+        <v>0.9694</v>
+      </c>
+      <c r="T406" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="U406" t="n">
+        <v>50</v>
+      </c>
+      <c r="V406" t="n">
+        <v>0.4458</v>
+      </c>
+      <c r="W406" t="n">
+        <v>0.4454</v>
+      </c>
+      <c r="X406" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>0.7998749902328488</v>
+      </c>
+      <c r="Z406" t="n">
+        <v>0.5828</v>
+      </c>
+      <c r="AA406" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="AB406" t="n">
+        <v>0.9714</v>
+      </c>
+      <c r="AC406" t="n">
+        <v>0.9716</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29">
+      <c r="A407" t="s">
+        <v>469</v>
+      </c>
+      <c r="B407" t="s">
+        <v>63</v>
+      </c>
+      <c r="C407" t="s">
+        <v>27</v>
+      </c>
+      <c r="D407" t="s">
+        <v>28</v>
+      </c>
+      <c r="E407" t="s">
+        <v>29</v>
+      </c>
+      <c r="F407" t="s">
+        <v>30</v>
+      </c>
+      <c r="G407" t="s">
+        <v>216</v>
+      </c>
+      <c r="H407" t="s">
+        <v>466</v>
+      </c>
+      <c r="I407" t="s">
+        <v>39</v>
+      </c>
+      <c r="J407" t="n">
+        <v>24</v>
+      </c>
+      <c r="K407" t="n">
+        <v>6.416229964233934e-05</v>
+      </c>
+      <c r="L407" t="n">
+        <v>6.634420068003237e-05</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0.4202</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0.4212</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0.812773031048644</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0.804238770515324</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0.6066</v>
+      </c>
+      <c r="R407" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="S407" t="n">
+        <v>0.9734</v>
+      </c>
+      <c r="T407" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="U407" t="n">
+        <v>50</v>
+      </c>
+      <c r="V407" t="n">
+        <v>0.4224</v>
+      </c>
+      <c r="W407" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="X407" t="n">
+        <v>0.8087026647662292</v>
+      </c>
+      <c r="Y407" t="n">
+        <v>0.8209750300709517</v>
+      </c>
+      <c r="Z407" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="AA407" t="n">
+        <v>0.6156</v>
+      </c>
+      <c r="AB407" t="n">
+        <v>0.9752</v>
+      </c>
+      <c r="AC407" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29">
+      <c r="A408" t="s">
+        <v>470</v>
+      </c>
+      <c r="B408" t="s">
+        <v>63</v>
+      </c>
+      <c r="C408" t="s">
+        <v>27</v>
+      </c>
+      <c r="D408" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408" t="s">
+        <v>29</v>
+      </c>
+      <c r="F408" t="s">
+        <v>30</v>
+      </c>
+      <c r="G408" t="s">
+        <v>216</v>
+      </c>
+      <c r="H408" t="s">
+        <v>466</v>
+      </c>
+      <c r="I408" t="s">
+        <v>39</v>
+      </c>
+      <c r="J408" t="n">
+        <v>30</v>
+      </c>
+      <c r="K408" t="n">
+        <v>6.436906792223453e-05</v>
+      </c>
+      <c r="L408" t="n">
+        <v>6.673443601466715e-05</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0.4032</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0.8153526844255803</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0.8162107570964745</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="R408" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="S408" t="n">
+        <v>0.9728</v>
+      </c>
+      <c r="T408" t="n">
+        <v>0.9772</v>
+      </c>
+      <c r="U408" t="n">
+        <v>50</v>
+      </c>
+      <c r="V408" t="n">
+        <v>0.4226</v>
+      </c>
+      <c r="W408" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="X408" t="n">
+        <v>0.8090735442467514</v>
+      </c>
+      <c r="Y408" t="n">
+        <v>0.8187795796183488</v>
+      </c>
+      <c r="Z408" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="AA408" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="AB408" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="AC408" t="n">
+        <v>0.9732</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29">
+      <c r="A409" t="s">
+        <v>471</v>
+      </c>
+      <c r="B409" t="s">
+        <v>63</v>
+      </c>
+      <c r="C409" t="s">
+        <v>27</v>
+      </c>
+      <c r="D409" t="s">
+        <v>28</v>
+      </c>
+      <c r="E409" t="s">
+        <v>29</v>
+      </c>
+      <c r="F409" t="s">
+        <v>30</v>
+      </c>
+      <c r="G409" t="s">
+        <v>216</v>
+      </c>
+      <c r="H409" t="s">
+        <v>466</v>
+      </c>
+      <c r="I409" t="s">
+        <v>39</v>
+      </c>
+      <c r="J409" t="n">
+        <v>21</v>
+      </c>
+      <c r="K409" t="n">
+        <v>6.301312362775207e-05</v>
+      </c>
+      <c r="L409" t="n">
+        <v>6.543411831371486e-05</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0.4472</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0.8674099376880576</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0.8038656604184558</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0.6392</v>
+      </c>
+      <c r="R409" t="n">
+        <v>0.5838</v>
+      </c>
+      <c r="S409" t="n">
+        <v>0.9462</v>
+      </c>
+      <c r="T409" t="n">
+        <v>0.9692</v>
+      </c>
+      <c r="U409" t="n">
+        <v>50</v>
+      </c>
+      <c r="V409" t="n">
+        <v>0.4338</v>
+      </c>
+      <c r="W409" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="X409" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>0.8313843876330611</v>
+      </c>
+      <c r="Z409" t="n">
+        <v>0.6016</v>
+      </c>
+      <c r="AA409" t="n">
+        <v>0.6192</v>
+      </c>
+      <c r="AB409" t="n">
+        <v>0.9646</v>
+      </c>
+      <c r="AC409" t="n">
+        <v>0.9656</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29">
+      <c r="A410" t="s">
+        <v>472</v>
+      </c>
+      <c r="B410" t="s">
+        <v>63</v>
+      </c>
+      <c r="C410" t="s">
+        <v>27</v>
+      </c>
+      <c r="D410" t="s">
+        <v>28</v>
+      </c>
+      <c r="E410" t="s">
+        <v>29</v>
+      </c>
+      <c r="F410" t="s">
+        <v>30</v>
+      </c>
+      <c r="G410" t="s">
+        <v>216</v>
+      </c>
+      <c r="H410" t="s">
+        <v>466</v>
+      </c>
+      <c r="I410" t="s">
+        <v>39</v>
+      </c>
+      <c r="J410" t="n">
+        <v>14</v>
+      </c>
+      <c r="K410" t="n">
+        <v>6.536533427424729e-05</v>
+      </c>
+      <c r="L410" t="n">
+        <v>6.674394821748138e-05</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0.8676404785393544</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0.8018728078691783</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0.6488</v>
+      </c>
+      <c r="R410" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="S410" t="n">
+        <v>0.9504</v>
+      </c>
+      <c r="T410" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="U410" t="n">
+        <v>50</v>
+      </c>
+      <c r="V410" t="n">
+        <v>0.4244</v>
+      </c>
+      <c r="W410" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="X410" t="n">
+        <v>0.8079603950689662</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>0.8187795796183488</v>
+      </c>
+      <c r="Z410" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="AA410" t="n">
+        <v>0.6124000000000001</v>
+      </c>
+      <c r="AB410" t="n">
+        <v>0.9746</v>
+      </c>
+      <c r="AC410" t="n">
+        <v>0.9722</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29">
+      <c r="A411" t="s">
+        <v>473</v>
+      </c>
+      <c r="B411" t="s">
+        <v>63</v>
+      </c>
+      <c r="C411" t="s">
+        <v>27</v>
+      </c>
+      <c r="D411" t="s">
+        <v>28</v>
+      </c>
+      <c r="E411" t="s">
+        <v>29</v>
+      </c>
+      <c r="F411" t="s">
+        <v>30</v>
+      </c>
+      <c r="G411" t="s">
+        <v>216</v>
+      </c>
+      <c r="H411" t="s">
+        <v>466</v>
+      </c>
+      <c r="I411" t="s">
+        <v>39</v>
+      </c>
+      <c r="J411" t="n">
+        <v>23</v>
+      </c>
+      <c r="K411" t="n">
+        <v>6.428250898607076e-05</v>
+      </c>
+      <c r="L411" t="n">
+        <v>6.647247513756156e-05</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0.4292</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0.4118</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0.8109253973085316</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0.8101851640211637</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0.5996</v>
+      </c>
+      <c r="R411" t="n">
+        <v>0.6108</v>
+      </c>
+      <c r="S411" t="n">
+        <v>0.9714</v>
+      </c>
+      <c r="T411" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="U411" t="n">
+        <v>50</v>
+      </c>
+      <c r="V411" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="W411" t="n">
+        <v>0.4146</v>
+      </c>
+      <c r="X411" t="n">
+        <v>0.8078366171448284</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>0.8178019320104348</v>
+      </c>
+      <c r="Z411" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="AA411" t="n">
+        <v>0.6128</v>
+      </c>
+      <c r="AB411" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="AC411" t="n">
+        <v>0.9732</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29">
+      <c r="A412" t="s">
+        <v>474</v>
+      </c>
+      <c r="B412" t="s">
+        <v>63</v>
+      </c>
+      <c r="C412" t="s">
+        <v>27</v>
+      </c>
+      <c r="D412" t="s">
+        <v>28</v>
+      </c>
+      <c r="E412" t="s">
+        <v>29</v>
+      </c>
+      <c r="F412" t="s">
+        <v>30</v>
+      </c>
+      <c r="G412" t="s">
+        <v>216</v>
+      </c>
+      <c r="H412" t="s">
+        <v>466</v>
+      </c>
+      <c r="I412" t="s">
+        <v>39</v>
+      </c>
+      <c r="J412" t="n">
+        <v>32</v>
+      </c>
+      <c r="K412" t="n">
+        <v>6.453418689779938e-05</v>
+      </c>
+      <c r="L412" t="n">
+        <v>6.659832396544516e-05</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0.4196</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0.4146</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0.8114185110040317</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0.8170679286326199</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0.6064000000000001</v>
+      </c>
+      <c r="R412" t="n">
+        <v>0.6124000000000001</v>
+      </c>
+      <c r="S412" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="T412" t="n">
+        <v>0.9736</v>
+      </c>
+      <c r="U412" t="n">
+        <v>50</v>
+      </c>
+      <c r="V412" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="W412" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="X412" t="n">
+        <v>0.8084553172563095</v>
+      </c>
+      <c r="Y412" t="n">
+        <v>0.8184130986244049</v>
+      </c>
+      <c r="Z412" t="n">
+        <v>0.6016</v>
+      </c>
+      <c r="AA412" t="n">
+        <v>0.6138</v>
+      </c>
+      <c r="AB412" t="n">
+        <v>0.9748</v>
+      </c>
+      <c r="AC412" t="n">
+        <v>0.9732</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29">
+      <c r="A413" t="s">
+        <v>475</v>
+      </c>
+      <c r="B413" t="s">
+        <v>63</v>
+      </c>
+      <c r="C413" t="s">
+        <v>27</v>
+      </c>
+      <c r="D413" t="s">
+        <v>28</v>
+      </c>
+      <c r="E413" t="s">
+        <v>29</v>
+      </c>
+      <c r="F413" t="s">
+        <v>30</v>
+      </c>
+      <c r="G413" t="s">
+        <v>216</v>
+      </c>
+      <c r="H413" t="s">
+        <v>466</v>
+      </c>
+      <c r="I413" t="s">
+        <v>39</v>
+      </c>
+      <c r="J413" t="n">
+        <v>13</v>
+      </c>
+      <c r="K413" t="n">
+        <v>6.515599740669132e-05</v>
+      </c>
+      <c r="L413" t="n">
+        <v>6.661356352269649e-05</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0.3962</v>
+      </c>
+      <c r="N413" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0.8699425268372618</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0.8142481194328913</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="R413" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="S413" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="T413" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="U413" t="n">
+        <v>50</v>
+      </c>
+      <c r="V413" t="n">
+        <v>0.4216</v>
+      </c>
+      <c r="W413" t="n">
+        <v>0.4122</v>
+      </c>
+      <c r="X413" t="n">
+        <v>0.8095677859203638</v>
+      </c>
+      <c r="Y413" t="n">
+        <v>0.8189017035029296</v>
+      </c>
+      <c r="Z413" t="n">
+        <v>0.6038</v>
+      </c>
+      <c r="AA413" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="AB413" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="AC413" t="n">
+        <v>0.9734</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29">
+      <c r="A414" t="s">
+        <v>476</v>
+      </c>
+      <c r="B414" t="s">
+        <v>63</v>
+      </c>
+      <c r="C414" t="s">
+        <v>27</v>
+      </c>
+      <c r="D414" t="s">
+        <v>28</v>
+      </c>
+      <c r="E414" t="s">
+        <v>29</v>
+      </c>
+      <c r="F414" t="s">
+        <v>30</v>
+      </c>
+      <c r="G414" t="s">
+        <v>216</v>
+      </c>
+      <c r="H414" t="s">
+        <v>51</v>
+      </c>
+      <c r="I414" t="s">
+        <v>39</v>
+      </c>
+      <c r="J414" t="n">
+        <v>13</v>
+      </c>
+      <c r="K414" t="n">
+        <v>5.994437029585242e-05</v>
+      </c>
+      <c r="L414" t="n">
+        <v>6.164050549268723e-05</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0.3114</v>
+      </c>
+      <c r="N414" t="n">
+        <v>0.3544</v>
+      </c>
+      <c r="O414" t="n">
+        <v>0.9268225288586807</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0.8667179472008181</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="R414" t="n">
+        <v>0.6804</v>
+      </c>
+      <c r="S414" t="n">
+        <v>0.9442</v>
+      </c>
+      <c r="T414" t="n">
+        <v>0.9658</v>
+      </c>
+      <c r="U414" t="n">
+        <v>50</v>
+      </c>
+      <c r="V414" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="W414" t="n">
+        <v>0.3128</v>
+      </c>
+      <c r="X414" t="n">
+        <v>0.8785214852238959</v>
+      </c>
+      <c r="Y414" t="n">
+        <v>0.890730037665734</v>
+      </c>
+      <c r="Z414" t="n">
+        <v>0.7086</v>
+      </c>
+      <c r="AA414" t="n">
+        <v>0.7222</v>
+      </c>
+      <c r="AB414" t="n">
+        <v>0.9684</v>
+      </c>
+      <c r="AC414" t="n">
+        <v>0.9656</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29">
+      <c r="A415" t="s">
+        <v>477</v>
+      </c>
+      <c r="B415" t="s">
+        <v>63</v>
+      </c>
+      <c r="C415" t="s">
+        <v>27</v>
+      </c>
+      <c r="D415" t="s">
+        <v>28</v>
+      </c>
+      <c r="E415" t="s">
+        <v>29</v>
+      </c>
+      <c r="F415" t="s">
+        <v>30</v>
+      </c>
+      <c r="G415" t="s">
+        <v>216</v>
+      </c>
+      <c r="H415" t="s">
+        <v>51</v>
+      </c>
+      <c r="I415" t="s">
+        <v>39</v>
+      </c>
+      <c r="J415" t="n">
+        <v>20</v>
+      </c>
+      <c r="K415" t="n">
+        <v>5.955067849718035e-05</v>
+      </c>
+      <c r="L415" t="n">
+        <v>6.193282660096884e-05</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0.3208</v>
+      </c>
+      <c r="N415" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="O415" t="n">
+        <v>0.9188035698668132</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0.8549853799919622</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>0.7338</v>
+      </c>
+      <c r="R415" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="S415" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="T415" t="n">
+        <v>0.9724</v>
+      </c>
+      <c r="U415" t="n">
+        <v>50</v>
+      </c>
+      <c r="V415" t="n">
+        <v>0.3198</v>
+      </c>
+      <c r="W415" t="n">
+        <v>0.3094</v>
+      </c>
+      <c r="X415" t="n">
+        <v>0.8813625814612281</v>
+      </c>
+      <c r="Y415" t="n">
+        <v>0.892972563968233</v>
+      </c>
+      <c r="Z415" t="n">
+        <v>0.7124</v>
+      </c>
+      <c r="AA415" t="n">
+        <v>0.7258</v>
+      </c>
+      <c r="AB415" t="n">
+        <v>0.9678</v>
+      </c>
+      <c r="AC415" t="n">
+        <v>0.9654</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29">
+      <c r="A416" t="s">
+        <v>478</v>
+      </c>
+      <c r="B416" t="s">
+        <v>63</v>
+      </c>
+      <c r="C416" t="s">
+        <v>27</v>
+      </c>
+      <c r="D416" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" t="s">
+        <v>29</v>
+      </c>
+      <c r="F416" t="s">
+        <v>30</v>
+      </c>
+      <c r="G416" t="s">
+        <v>216</v>
+      </c>
+      <c r="H416" t="s">
+        <v>51</v>
+      </c>
+      <c r="I416" t="s">
+        <v>39</v>
+      </c>
+      <c r="J416" t="n">
+        <v>12</v>
+      </c>
+      <c r="K416" t="n">
+        <v>5.96062988974154e-05</v>
+      </c>
+      <c r="L416" t="n">
+        <v>6.1355598596856e-05</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0.3134</v>
+      </c>
+      <c r="N416" t="n">
+        <v>0.3284</v>
+      </c>
+      <c r="O416" t="n">
+        <v>0.9197825830053535</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0.870976463516667</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0.7392</v>
+      </c>
+      <c r="R416" t="n">
+        <v>0.7006</v>
+      </c>
+      <c r="S416" t="n">
+        <v>0.9482</v>
+      </c>
+      <c r="T416" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="U416" t="n">
+        <v>50</v>
+      </c>
+      <c r="V416" t="n">
+        <v>0.3234</v>
+      </c>
+      <c r="W416" t="n">
+        <v>0.3124</v>
+      </c>
+      <c r="X416" t="n">
+        <v>0.8782938005018593</v>
+      </c>
+      <c r="Y416" t="n">
+        <v>0.8915155635209068</v>
+      </c>
+      <c r="Z416" t="n">
+        <v>0.7082000000000001</v>
+      </c>
+      <c r="AA416" t="n">
+        <v>0.7228</v>
+      </c>
+      <c r="AB416" t="n">
+        <v>0.9684</v>
+      </c>
+      <c r="AC416" t="n">
+        <v>0.9656</v>
+      </c>
+    </row>
+    <row r="417" spans="1:29">
+      <c r="A417" t="s">
+        <v>479</v>
+      </c>
+      <c r="B417" t="s">
+        <v>63</v>
+      </c>
+      <c r="C417" t="s">
+        <v>27</v>
+      </c>
+      <c r="D417" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" t="s">
+        <v>29</v>
+      </c>
+      <c r="F417" t="s">
+        <v>30</v>
+      </c>
+      <c r="G417" t="s">
+        <v>216</v>
+      </c>
+      <c r="H417" t="s">
+        <v>51</v>
+      </c>
+      <c r="I417" t="s">
+        <v>39</v>
+      </c>
+      <c r="J417" t="n">
+        <v>23</v>
+      </c>
+      <c r="K417" t="n">
+        <v>5.806120438501239e-05</v>
+      </c>
+      <c r="L417" t="n">
+        <v>6.036576586775482e-05</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0.3354</v>
+      </c>
+      <c r="N417" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O417" t="n">
+        <v>0.8918520056601319</v>
+      </c>
+      <c r="P417" t="n">
+        <v>0.8870174744614674</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>0.7078</v>
+      </c>
+      <c r="R417" t="n">
+        <v>0.6956</v>
+      </c>
+      <c r="S417" t="n">
+        <v>0.9574</v>
+      </c>
+      <c r="T417" t="n">
+        <v>0.9544</v>
+      </c>
+      <c r="U417" t="n">
+        <v>50</v>
+      </c>
+      <c r="V417" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="W417" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="X417" t="n">
+        <v>0.8832893070789434</v>
+      </c>
+      <c r="Y417" t="n">
+        <v>0.8917398723843182</v>
+      </c>
+      <c r="Z417" t="n">
+        <v>0.6978</v>
+      </c>
+      <c r="AA417" t="n">
+        <v>0.7008</v>
+      </c>
+      <c r="AB417" t="n">
+        <v>0.9596</v>
+      </c>
+      <c r="AC417" t="n">
+        <v>0.9532</v>
+      </c>
+    </row>
+    <row r="418" spans="1:29">
+      <c r="A418" t="s">
+        <v>480</v>
+      </c>
+      <c r="B418" t="s">
+        <v>63</v>
+      </c>
+      <c r="C418" t="s">
+        <v>27</v>
+      </c>
+      <c r="D418" t="s">
+        <v>28</v>
+      </c>
+      <c r="E418" t="s">
+        <v>29</v>
+      </c>
+      <c r="F418" t="s">
+        <v>30</v>
+      </c>
+      <c r="G418" t="s">
+        <v>216</v>
+      </c>
+      <c r="H418" t="s">
+        <v>51</v>
+      </c>
+      <c r="I418" t="s">
+        <v>39</v>
+      </c>
+      <c r="J418" t="n">
+        <v>30</v>
+      </c>
+      <c r="K418" t="n">
+        <v>5.881508151069283e-05</v>
+      </c>
+      <c r="L418" t="n">
+        <v>6.144090644083917e-05</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="N418" t="n">
+        <v>0.3182</v>
+      </c>
+      <c r="O418" t="n">
+        <v>0.8879189152169246</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0.8863407922464135</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>0.7188</v>
+      </c>
+      <c r="R418" t="n">
+        <v>0.7156</v>
+      </c>
+      <c r="S418" t="n">
+        <v>0.9651999999999999</v>
+      </c>
+      <c r="T418" t="n">
+        <v>0.9674</v>
+      </c>
+      <c r="U418" t="n">
+        <v>50</v>
+      </c>
+      <c r="V418" t="n">
+        <v>0.3234</v>
+      </c>
+      <c r="W418" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X418" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y418" t="n">
+        <v>0.8938679992034618</v>
+      </c>
+      <c r="Z418" t="n">
+        <v>0.7092000000000001</v>
+      </c>
+      <c r="AA418" t="n">
+        <v>0.7258</v>
+      </c>
+      <c r="AB418" t="n">
+        <v>0.9674</v>
+      </c>
+      <c r="AC418" t="n">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="419" spans="1:29">
+      <c r="A419" t="s">
+        <v>481</v>
+      </c>
+      <c r="B419" t="s">
+        <v>63</v>
+      </c>
+      <c r="C419" t="s">
+        <v>27</v>
+      </c>
+      <c r="D419" t="s">
+        <v>28</v>
+      </c>
+      <c r="E419" t="s">
+        <v>29</v>
+      </c>
+      <c r="F419" t="s">
+        <v>30</v>
+      </c>
+      <c r="G419" t="s">
+        <v>216</v>
+      </c>
+      <c r="H419" t="s">
+        <v>51</v>
+      </c>
+      <c r="I419" t="s">
+        <v>39</v>
+      </c>
+      <c r="J419" t="n">
+        <v>22</v>
+      </c>
+      <c r="K419" t="n">
+        <v>5.867492640390992e-05</v>
+      </c>
+      <c r="L419" t="n">
+        <v>6.127878334373236e-05</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0.3234</v>
+      </c>
+      <c r="N419" t="n">
+        <v>0.3206</v>
+      </c>
+      <c r="O419" t="n">
+        <v>0.8823831367382312</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0.8780660567406077</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>0.7106</v>
+      </c>
+      <c r="R419" t="n">
+        <v>0.7098</v>
+      </c>
+      <c r="S419" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="T419" t="n">
+        <v>0.9698</v>
+      </c>
+      <c r="U419" t="n">
+        <v>50</v>
+      </c>
+      <c r="V419" t="n">
+        <v>0.3216</v>
+      </c>
+      <c r="W419" t="n">
+        <v>0.3098</v>
+      </c>
+      <c r="X419" t="n">
+        <v>0.8786353054595518</v>
+      </c>
+      <c r="Y419" t="n">
+        <v>0.8920762299265685</v>
+      </c>
+      <c r="Z419" t="n">
+        <v>0.7096</v>
+      </c>
+      <c r="AA419" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AB419" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="AC419" t="n">
+        <v>0.9658</v>
+      </c>
+    </row>
+    <row r="420" spans="1:29">
+      <c r="A420" t="s">
+        <v>482</v>
+      </c>
+      <c r="B420" t="s">
+        <v>63</v>
+      </c>
+      <c r="C420" t="s">
+        <v>27</v>
+      </c>
+      <c r="D420" t="s">
+        <v>28</v>
+      </c>
+      <c r="E420" t="s">
+        <v>29</v>
+      </c>
+      <c r="F420" t="s">
+        <v>30</v>
+      </c>
+      <c r="G420" t="s">
+        <v>216</v>
+      </c>
+      <c r="H420" t="s">
+        <v>51</v>
+      </c>
+      <c r="I420" t="s">
+        <v>39</v>
+      </c>
+      <c r="J420" t="n">
+        <v>24</v>
+      </c>
+      <c r="K420" t="n">
+        <v>5.898749367333949e-05</v>
+      </c>
+      <c r="L420" t="n">
+        <v>6.044288584962487e-05</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0.3426</v>
+      </c>
+      <c r="N420" t="n">
+        <v>0.3416</v>
+      </c>
+      <c r="O420" t="n">
+        <v>0.885889383614004</v>
+      </c>
+      <c r="P420" t="n">
+        <v>0.8860022573334675</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>0.6996</v>
+      </c>
+      <c r="R420" t="n">
+        <v>0.7006</v>
+      </c>
+      <c r="S420" t="n">
+        <v>0.9582000000000001</v>
+      </c>
+      <c r="T420" t="n">
+        <v>0.9578</v>
+      </c>
+      <c r="U420" t="n">
+        <v>50</v>
+      </c>
+      <c r="V420" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="W420" t="n">
+        <v>0.3452</v>
+      </c>
+      <c r="X420" t="n">
+        <v>0.8813625814612281</v>
+      </c>
+      <c r="Y420" t="n">
+        <v>0.8903931715820825</v>
+      </c>
+      <c r="Z420" t="n">
+        <v>0.6956</v>
+      </c>
+      <c r="AA420" t="n">
+        <v>0.7008</v>
+      </c>
+      <c r="AB420" t="n">
+        <v>0.9602000000000001</v>
+      </c>
+      <c r="AC420" t="n">
+        <v>0.954</v>
+      </c>
+    </row>
+    <row r="421" spans="1:29">
+      <c r="A421" t="s">
+        <v>483</v>
+      </c>
+      <c r="B421" t="s">
+        <v>63</v>
+      </c>
+      <c r="C421" t="s">
+        <v>27</v>
+      </c>
+      <c r="D421" t="s">
+        <v>28</v>
+      </c>
+      <c r="E421" t="s">
+        <v>29</v>
+      </c>
+      <c r="F421" t="s">
+        <v>30</v>
+      </c>
+      <c r="G421" t="s">
+        <v>216</v>
+      </c>
+      <c r="H421" t="s">
+        <v>51</v>
+      </c>
+      <c r="I421" t="s">
+        <v>39</v>
+      </c>
+      <c r="J421" t="n">
+        <v>15</v>
+      </c>
+      <c r="K421" t="n">
+        <v>5.911580324172973e-05</v>
+      </c>
+      <c r="L421" t="n">
+        <v>6.104430425912142e-05</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="N421" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="O421" t="n">
+        <v>0.910494371207203</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0.8804544281222055</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="R421" t="n">
+        <v>0.6936</v>
+      </c>
+      <c r="S421" t="n">
+        <v>0.9504</v>
+      </c>
+      <c r="T421" t="n">
+        <v>0.9608</v>
+      </c>
+      <c r="U421" t="n">
+        <v>50</v>
+      </c>
+      <c r="V421" t="n">
+        <v>0.3222</v>
+      </c>
+      <c r="W421" t="n">
+        <v>0.3116</v>
+      </c>
+      <c r="X421" t="n">
+        <v>0.8810221336606703</v>
+      </c>
+      <c r="Y421" t="n">
+        <v>0.891403387922662</v>
+      </c>
+      <c r="Z421" t="n">
+        <v>0.7106</v>
+      </c>
+      <c r="AA421" t="n">
+        <v>0.7234</v>
+      </c>
+      <c r="AB421" t="n">
+        <v>0.9671999999999999</v>
+      </c>
+      <c r="AC421" t="n">
+        <v>0.9656</v>
+      </c>
+    </row>
+    <row r="422" spans="1:29">
+      <c r="A422" t="s">
+        <v>484</v>
+      </c>
+      <c r="B422" t="s">
+        <v>63</v>
+      </c>
+      <c r="C422" t="s">
+        <v>27</v>
+      </c>
+      <c r="D422" t="s">
+        <v>28</v>
+      </c>
+      <c r="E422" t="s">
+        <v>29</v>
+      </c>
+      <c r="F422" t="s">
+        <v>30</v>
+      </c>
+      <c r="G422" t="s">
+        <v>216</v>
+      </c>
+      <c r="H422" t="s">
+        <v>51</v>
+      </c>
+      <c r="I422" t="s">
+        <v>39</v>
+      </c>
+      <c r="J422" t="n">
+        <v>16</v>
+      </c>
+      <c r="K422" t="n">
+        <v>6.00551201030612e-05</v>
+      </c>
+      <c r="L422" t="n">
+        <v>6.173736974596977e-05</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0.3068</v>
+      </c>
+      <c r="N422" t="n">
+        <v>0.3332</v>
+      </c>
+      <c r="O422" t="n">
+        <v>0.9221713506718803</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0.8670640114778148</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>0.7452</v>
+      </c>
+      <c r="R422" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="S422" t="n">
+        <v>0.9486</v>
+      </c>
+      <c r="T422" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="U422" t="n">
+        <v>50</v>
+      </c>
+      <c r="V422" t="n">
+        <v>0.3214</v>
+      </c>
+      <c r="W422" t="n">
+        <v>0.3098</v>
+      </c>
+      <c r="X422" t="n">
+        <v>0.8797726979169108</v>
+      </c>
+      <c r="Y422" t="n">
+        <v>0.8920762299265685</v>
+      </c>
+      <c r="Z422" t="n">
+        <v>0.7104</v>
+      </c>
+      <c r="AA422" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="AB422" t="n">
+        <v>0.9681999999999999</v>
+      </c>
+      <c r="AC422" t="n">
+        <v>0.9658</v>
+      </c>
+    </row>
+    <row r="423" spans="1:29">
+      <c r="A423" t="s">
+        <v>485</v>
+      </c>
+      <c r="B423" t="s">
+        <v>63</v>
+      </c>
+      <c r="C423" t="s">
+        <v>27</v>
+      </c>
+      <c r="D423" t="s">
+        <v>28</v>
+      </c>
+      <c r="E423" t="s">
+        <v>29</v>
+      </c>
+      <c r="F423" t="s">
+        <v>30</v>
+      </c>
+      <c r="G423" t="s">
+        <v>216</v>
+      </c>
+      <c r="H423" t="s">
+        <v>51</v>
+      </c>
+      <c r="I423" t="s">
+        <v>39</v>
+      </c>
+      <c r="J423" t="n">
+        <v>21</v>
+      </c>
+      <c r="K423" t="n">
+        <v>5.960188768804073e-05</v>
+      </c>
+      <c r="L423" t="n">
+        <v>6.150569855235518e-05</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="O423" t="n">
+        <v>0.8987769467448528</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0.8734987120768982</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0.7266</v>
+      </c>
+      <c r="R423" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="S423" t="n">
+        <v>0.9614</v>
+      </c>
+      <c r="T423" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="U423" t="n">
+        <v>50</v>
+      </c>
+      <c r="V423" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="W423" t="n">
+        <v>0.3132</v>
+      </c>
+      <c r="X423" t="n">
+        <v>0.8763560920082658</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>0.889831444712986</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>0.7064</v>
+      </c>
+      <c r="AA423" t="n">
+        <v>0.7214</v>
+      </c>
+      <c r="AB423" t="n">
+        <v>0.9692</v>
+      </c>
+      <c r="AC423" t="n">
+        <v>0.966</v>
+      </c>
+    </row>
     <row customHeight="1" ht="12.75" r="1048043" s="5" spans="1:29"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>

--- a/logs_regression.xlsx
+++ b/logs_regression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
   <si>
     <t>Date</t>
   </si>
@@ -1308,180 +1308,6 @@
   </si>
   <si>
     <t>January28  15:17:41</t>
-  </si>
-  <si>
-    <t>January28  15:18:58</t>
-  </si>
-  <si>
-    <t>January28  15:20:03</t>
-  </si>
-  <si>
-    <t>January28  15:21:18</t>
-  </si>
-  <si>
-    <t>January28  15:22:35</t>
-  </si>
-  <si>
-    <t>[ 0.075  0.15   0.225  0.3    0.375  0.45   0.525  1.     0.525  0.45
-  0.375  0.3    0.225  0.15   0.075]</t>
-  </si>
-  <si>
-    <t>January28  15:23:48</t>
-  </si>
-  <si>
-    <t>January28  15:24:48</t>
-  </si>
-  <si>
-    <t>January28  15:25:59</t>
-  </si>
-  <si>
-    <t>January28  15:27:07</t>
-  </si>
-  <si>
-    <t>January28  15:28:10</t>
-  </si>
-  <si>
-    <t>January28  15:29:11</t>
-  </si>
-  <si>
-    <t>January28  15:30:11</t>
-  </si>
-  <si>
-    <t>January28  15:31:18</t>
-  </si>
-  <si>
-    <t>January28  15:32:21</t>
-  </si>
-  <si>
-    <t>January28  15:33:22</t>
-  </si>
-  <si>
-    <t>[ 0.0875  0.175   0.2625  0.35    0.4375  0.525   0.6125  1.      0.6125
-  0.525   0.4375  0.35    0.2625  0.175   0.0875]</t>
-  </si>
-  <si>
-    <t>January28  15:34:23</t>
-  </si>
-  <si>
-    <t>January28  15:35:24</t>
-  </si>
-  <si>
-    <t>January28  15:36:25</t>
-  </si>
-  <si>
-    <t>January28  15:37:27</t>
-  </si>
-  <si>
-    <t>January28  15:38:28</t>
-  </si>
-  <si>
-    <t>January28  15:39:29</t>
-  </si>
-  <si>
-    <t>January28  15:40:32</t>
-  </si>
-  <si>
-    <t>January28  15:41:37</t>
-  </si>
-  <si>
-    <t>January28  15:42:40</t>
-  </si>
-  <si>
-    <t>January28  15:43:41</t>
-  </si>
-  <si>
-    <t>[ 0.1  0.2  0.3  0.4  0.5  0.6  0.7  1.   0.7  0.6  0.5  0.4  0.3  0.2  0.1]</t>
-  </si>
-  <si>
-    <t>January28  15:44:42</t>
-  </si>
-  <si>
-    <t>January28  15:45:43</t>
-  </si>
-  <si>
-    <t>January28  15:46:48</t>
-  </si>
-  <si>
-    <t>January28  15:47:51</t>
-  </si>
-  <si>
-    <t>January28  15:48:51</t>
-  </si>
-  <si>
-    <t>January28  15:49:52</t>
-  </si>
-  <si>
-    <t>January28  15:50:54</t>
-  </si>
-  <si>
-    <t>January28  15:52:00</t>
-  </si>
-  <si>
-    <t>January28  15:53:06</t>
-  </si>
-  <si>
-    <t>January28  15:54:11</t>
-  </si>
-  <si>
-    <t>[ 0.1125  0.225   0.3375  0.45    0.5625  0.675   0.7875  1.      0.7875
-  0.675   0.5625  0.45    0.3375  0.225   0.1125]</t>
-  </si>
-  <si>
-    <t>January28  15:55:17</t>
-  </si>
-  <si>
-    <t>January28  15:56:30</t>
-  </si>
-  <si>
-    <t>January28  15:57:42</t>
-  </si>
-  <si>
-    <t>January28  15:58:51</t>
-  </si>
-  <si>
-    <t>January28  16:00:03</t>
-  </si>
-  <si>
-    <t>January28  16:01:22</t>
-  </si>
-  <si>
-    <t>January28  16:02:41</t>
-  </si>
-  <si>
-    <t>January28  16:04:01</t>
-  </si>
-  <si>
-    <t>January28  16:05:15</t>
-  </si>
-  <si>
-    <t>January28  16:06:26</t>
-  </si>
-  <si>
-    <t>January28  16:07:45</t>
-  </si>
-  <si>
-    <t>January28  16:08:57</t>
-  </si>
-  <si>
-    <t>January28  16:10:10</t>
-  </si>
-  <si>
-    <t>January28  16:11:25</t>
-  </si>
-  <si>
-    <t>January28  16:12:31</t>
-  </si>
-  <si>
-    <t>January28  16:13:37</t>
-  </si>
-  <si>
-    <t>January28  16:14:42</t>
-  </si>
-  <si>
-    <t>January28  16:15:46</t>
-  </si>
-  <si>
-    <t>January28  16:17:08</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AC423"/>
+  <dimension ref="A1:AC370"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A184" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A203" activeCellId="0" pane="topLeft" sqref="A203"/>
@@ -34533,4781 +34359,64 @@
         <v>39</v>
       </c>
       <c r="J370" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K370" t="n">
-        <v>0.0001583378603681922</v>
+        <v>0.0001591139882802963</v>
       </c>
       <c r="L370" t="n">
-        <v>0.0001601721368730068</v>
+        <v>0.0001613485006615519</v>
       </c>
       <c r="M370" t="n">
-        <v>0.5414</v>
+        <v>0.5162</v>
       </c>
       <c r="N370" t="n">
-        <v>0.532</v>
+        <v>0.5362</v>
       </c>
       <c r="O370" t="n">
-        <v>0.7896834808959854</v>
+        <v>0.8434453153583817</v>
       </c>
       <c r="P370" t="n">
-        <v>0.7780745465570764</v>
+        <v>0.8089499366462674</v>
       </c>
       <c r="Q370" t="n">
-        <v>0.5124</v>
+        <v>0.5582</v>
       </c>
       <c r="R370" t="n">
-        <v>0.5118</v>
+        <v>0.5256</v>
       </c>
       <c r="S370" t="n">
-        <v>0.948</v>
+        <v>0.9278</v>
       </c>
       <c r="T370" t="n">
-        <v>0.9592000000000001</v>
+        <v>0.9408</v>
       </c>
       <c r="U370" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="V370" t="n">
-        <v>0.5238</v>
+        <v>0.5162</v>
       </c>
       <c r="W370" t="n">
-        <v>0.5158</v>
+        <v>0.5362</v>
       </c>
       <c r="X370" t="n">
-        <v>0.7866384175718855</v>
+        <v>0.8434453153583817</v>
       </c>
       <c r="Y370" t="n">
-        <v>0.7944809626416481</v>
+        <v>0.8089499366462674</v>
       </c>
       <c r="Z370" t="n">
-        <v>0.5228</v>
+        <v>0.5582</v>
       </c>
       <c r="AA370" t="n">
-        <v>0.5316</v>
+        <v>0.5256</v>
       </c>
       <c r="AB370" t="n">
-        <v>0.9548</v>
+        <v>0.9278</v>
       </c>
       <c r="AC370" t="n">
-        <v>0.955</v>
-      </c>
-    </row>
-    <row r="371" spans="1:29">
-      <c r="A371" t="s">
-        <v>429</v>
-      </c>
-      <c r="B371" t="s">
-        <v>63</v>
-      </c>
-      <c r="C371" t="s">
-        <v>27</v>
-      </c>
-      <c r="D371" t="s">
-        <v>28</v>
-      </c>
-      <c r="E371" t="s">
-        <v>29</v>
-      </c>
-      <c r="F371" t="s">
-        <v>30</v>
-      </c>
-      <c r="G371" t="s">
-        <v>216</v>
-      </c>
-      <c r="H371" t="s">
-        <v>420</v>
-      </c>
-      <c r="I371" t="s">
-        <v>39</v>
-      </c>
-      <c r="J371" t="n">
-        <v>24</v>
-      </c>
-      <c r="K371" t="n">
-        <v>0.0001578977530822158</v>
-      </c>
-      <c r="L371" t="n">
-        <v>0.0001598531248047948</v>
-      </c>
-      <c r="M371" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="N371" t="n">
-        <v>0.5204</v>
-      </c>
-      <c r="O371" t="n">
-        <v>0.7937253933193772</v>
-      </c>
-      <c r="P371" t="n">
-        <v>0.7797435475847171</v>
-      </c>
-      <c r="Q371" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="R371" t="n">
-        <v>0.5212</v>
-      </c>
-      <c r="S371" t="n">
-        <v>0.953</v>
-      </c>
-      <c r="T371" t="n">
-        <v>0.9602000000000001</v>
-      </c>
-      <c r="U371" t="n">
-        <v>50</v>
-      </c>
-      <c r="V371" t="n">
-        <v>0.5178</v>
-      </c>
-      <c r="W371" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="X371" t="n">
-        <v>0.7974960814950754</v>
-      </c>
-      <c r="Y371" t="n">
-        <v>0.7991245209602819</v>
-      </c>
-      <c r="Z371" t="n">
-        <v>0.5324</v>
-      </c>
-      <c r="AA371" t="n">
-        <v>0.5374</v>
-      </c>
-      <c r="AB371" t="n">
-        <v>0.9514</v>
-      </c>
-      <c r="AC371" t="n">
-        <v>0.9538</v>
-      </c>
-    </row>
-    <row r="372" spans="1:29">
-      <c r="A372" t="s">
-        <v>430</v>
-      </c>
-      <c r="B372" t="s">
-        <v>63</v>
-      </c>
-      <c r="C372" t="s">
-        <v>27</v>
-      </c>
-      <c r="D372" t="s">
-        <v>28</v>
-      </c>
-      <c r="E372" t="s">
-        <v>29</v>
-      </c>
-      <c r="F372" t="s">
-        <v>30</v>
-      </c>
-      <c r="G372" t="s">
-        <v>216</v>
-      </c>
-      <c r="H372" t="s">
-        <v>420</v>
-      </c>
-      <c r="I372" t="s">
-        <v>39</v>
-      </c>
-      <c r="J372" t="n">
-        <v>22</v>
-      </c>
-      <c r="K372" t="n">
-        <v>0.0001519287399947643</v>
-      </c>
-      <c r="L372" t="n">
-        <v>0.0001532690469175577</v>
-      </c>
-      <c r="M372" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="N372" t="n">
-        <v>0.5358000000000001</v>
-      </c>
-      <c r="O372" t="n">
-        <v>0.7712327793863536</v>
-      </c>
-      <c r="P372" t="n">
-        <v>0.7457881736793632</v>
-      </c>
-      <c r="Q372" t="n">
-        <v>0.5164</v>
-      </c>
-      <c r="R372" t="n">
-        <v>0.4946</v>
-      </c>
-      <c r="S372" t="n">
-        <v>0.9624</v>
-      </c>
-      <c r="T372" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="U372" t="n">
-        <v>50</v>
-      </c>
-      <c r="V372" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="W372" t="n">
-        <v>0.5354</v>
-      </c>
-      <c r="X372" t="n">
-        <v>0.7648529270389177</v>
-      </c>
-      <c r="Y372" t="n">
-        <v>0.7666811592833099</v>
-      </c>
-      <c r="Z372" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="AA372" t="n">
-        <v>0.5042</v>
-      </c>
-      <c r="AB372" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="AC372" t="n">
-        <v>0.9626</v>
-      </c>
-    </row>
-    <row r="373" spans="1:29">
-      <c r="A373" t="s">
-        <v>431</v>
-      </c>
-      <c r="B373" t="s">
-        <v>63</v>
-      </c>
-      <c r="C373" t="s">
-        <v>27</v>
-      </c>
-      <c r="D373" t="s">
-        <v>28</v>
-      </c>
-      <c r="E373" t="s">
-        <v>29</v>
-      </c>
-      <c r="F373" t="s">
-        <v>30</v>
-      </c>
-      <c r="G373" t="s">
-        <v>216</v>
-      </c>
-      <c r="H373" t="s">
-        <v>420</v>
-      </c>
-      <c r="I373" t="s">
-        <v>39</v>
-      </c>
-      <c r="J373" t="n">
-        <v>28</v>
-      </c>
-      <c r="K373" t="n">
-        <v>0.000157981713861227</v>
-      </c>
-      <c r="L373" t="n">
-        <v>0.0001600226441398263</v>
-      </c>
-      <c r="M373" t="n">
-        <v>0.5206</v>
-      </c>
-      <c r="N373" t="n">
-        <v>0.5185999999999999</v>
-      </c>
-      <c r="O373" t="n">
-        <v>0.8043631020876082</v>
-      </c>
-      <c r="P373" t="n">
-        <v>0.7848566748139434</v>
-      </c>
-      <c r="Q373" t="n">
-        <v>0.5342</v>
-      </c>
-      <c r="R373" t="n">
-        <v>0.5248</v>
-      </c>
-      <c r="S373" t="n">
-        <v>0.9468</v>
-      </c>
-      <c r="T373" t="n">
-        <v>0.9588</v>
-      </c>
-      <c r="U373" t="n">
-        <v>50</v>
-      </c>
-      <c r="V373" t="n">
-        <v>0.5258</v>
-      </c>
-      <c r="W373" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="X373" t="n">
-        <v>0.7935993951610598</v>
-      </c>
-      <c r="Y373" t="n">
-        <v>0.7977468270071651</v>
-      </c>
-      <c r="Z373" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="AA373" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="AB373" t="n">
-        <v>0.9508</v>
-      </c>
-      <c r="AC373" t="n">
-        <v>0.9532</v>
-      </c>
-    </row>
-    <row r="374" spans="1:29">
-      <c r="A374" t="s">
-        <v>432</v>
-      </c>
-      <c r="B374" t="s">
-        <v>63</v>
-      </c>
-      <c r="C374" t="s">
-        <v>27</v>
-      </c>
-      <c r="D374" t="s">
-        <v>28</v>
-      </c>
-      <c r="E374" t="s">
-        <v>29</v>
-      </c>
-      <c r="F374" t="s">
-        <v>30</v>
-      </c>
-      <c r="G374" t="s">
-        <v>216</v>
-      </c>
-      <c r="H374" t="s">
-        <v>433</v>
-      </c>
-      <c r="I374" t="s">
-        <v>39</v>
-      </c>
-      <c r="J374" t="n">
-        <v>27</v>
-      </c>
-      <c r="K374" t="n">
-        <v>0.0001154553341679275</v>
-      </c>
-      <c r="L374" t="n">
-        <v>0.0001177025323733687</v>
-      </c>
-      <c r="M374" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="N374" t="n">
-        <v>0.5911999999999999</v>
-      </c>
-      <c r="O374" t="n">
-        <v>0.7297944916207576</v>
-      </c>
-      <c r="P374" t="n">
-        <v>0.7054076835419359</v>
-      </c>
-      <c r="Q374" t="n">
-        <v>0.4606</v>
-      </c>
-      <c r="R374" t="n">
-        <v>0.4372</v>
-      </c>
-      <c r="S374" t="n">
-        <v>0.9668</v>
-      </c>
-      <c r="T374" t="n">
-        <v>0.9734</v>
-      </c>
-      <c r="U374" t="n">
-        <v>50</v>
-      </c>
-      <c r="V374" t="n">
-        <v>0.5896</v>
-      </c>
-      <c r="W374" t="n">
-        <v>0.5724</v>
-      </c>
-      <c r="X374" t="n">
-        <v>0.7073895673530958</v>
-      </c>
-      <c r="Y374" t="n">
-        <v>0.7264984514780469</v>
-      </c>
-      <c r="Z374" t="n">
-        <v>0.4396</v>
-      </c>
-      <c r="AA374" t="n">
-        <v>0.4598</v>
-      </c>
-      <c r="AB374" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="AC374" t="n">
-        <v>0.9696</v>
-      </c>
-    </row>
-    <row r="375" spans="1:29">
-      <c r="A375" t="s">
-        <v>434</v>
-      </c>
-      <c r="B375" t="s">
-        <v>63</v>
-      </c>
-      <c r="C375" t="s">
-        <v>27</v>
-      </c>
-      <c r="D375" t="s">
-        <v>28</v>
-      </c>
-      <c r="E375" t="s">
-        <v>29</v>
-      </c>
-      <c r="F375" t="s">
-        <v>30</v>
-      </c>
-      <c r="G375" t="s">
-        <v>216</v>
-      </c>
-      <c r="H375" t="s">
-        <v>433</v>
-      </c>
-      <c r="I375" t="s">
-        <v>39</v>
-      </c>
-      <c r="J375" t="n">
-        <v>28</v>
-      </c>
-      <c r="K375" t="n">
-        <v>0.0001159261806868017</v>
-      </c>
-      <c r="L375" t="n">
-        <v>0.0001177832653746009</v>
-      </c>
-      <c r="M375" t="n">
-        <v>0.5896</v>
-      </c>
-      <c r="N375" t="n">
-        <v>0.5782</v>
-      </c>
-      <c r="O375" t="n">
-        <v>0.7338937252763509</v>
-      </c>
-      <c r="P375" t="n">
-        <v>0.7032780389006896</v>
-      </c>
-      <c r="Q375" t="n">
-        <v>0.4522</v>
-      </c>
-      <c r="R375" t="n">
-        <v>0.4458</v>
-      </c>
-      <c r="S375" t="n">
-        <v>0.9596</v>
-      </c>
-      <c r="T375" t="n">
-        <v>0.9764</v>
-      </c>
-      <c r="U375" t="n">
-        <v>50</v>
-      </c>
-      <c r="V375" t="n">
-        <v>0.5921999999999999</v>
-      </c>
-      <c r="W375" t="n">
-        <v>0.5752</v>
-      </c>
-      <c r="X375" t="n">
-        <v>0.7051241025521677</v>
-      </c>
-      <c r="Y375" t="n">
-        <v>0.7237402849088892</v>
-      </c>
-      <c r="Z375" t="n">
-        <v>0.4368</v>
-      </c>
-      <c r="AA375" t="n">
-        <v>0.4566</v>
-      </c>
-      <c r="AB375" t="n">
-        <v>0.9722</v>
-      </c>
-      <c r="AC375" t="n">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="376" spans="1:29">
-      <c r="A376" t="s">
-        <v>435</v>
-      </c>
-      <c r="B376" t="s">
-        <v>63</v>
-      </c>
-      <c r="C376" t="s">
-        <v>27</v>
-      </c>
-      <c r="D376" t="s">
-        <v>28</v>
-      </c>
-      <c r="E376" t="s">
-        <v>29</v>
-      </c>
-      <c r="F376" t="s">
-        <v>30</v>
-      </c>
-      <c r="G376" t="s">
-        <v>216</v>
-      </c>
-      <c r="H376" t="s">
-        <v>433</v>
-      </c>
-      <c r="I376" t="s">
-        <v>39</v>
-      </c>
-      <c r="J376" t="n">
-        <v>24</v>
-      </c>
-      <c r="K376" t="n">
-        <v>0.000116041096765548</v>
-      </c>
-      <c r="L376" t="n">
-        <v>0.0001175810277462006</v>
-      </c>
-      <c r="M376" t="n">
-        <v>0.5866</v>
-      </c>
-      <c r="N376" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="O376" t="n">
-        <v>0.7264984514780469</v>
-      </c>
-      <c r="P376" t="n">
-        <v>0.7174956445860839</v>
-      </c>
-      <c r="Q376" t="n">
-        <v>0.4506</v>
-      </c>
-      <c r="R376" t="n">
-        <v>0.4516</v>
-      </c>
-      <c r="S376" t="n">
-        <v>0.9641999999999999</v>
-      </c>
-      <c r="T376" t="n">
-        <v>0.9724</v>
-      </c>
-      <c r="U376" t="n">
-        <v>50</v>
-      </c>
-      <c r="V376" t="n">
-        <v>0.5934</v>
-      </c>
-      <c r="W376" t="n">
-        <v>0.5764</v>
-      </c>
-      <c r="X376" t="n">
-        <v>0.7034202158027589</v>
-      </c>
-      <c r="Y376" t="n">
-        <v>0.7191661838546081</v>
-      </c>
-      <c r="Z376" t="n">
-        <v>0.4352</v>
-      </c>
-      <c r="AA376" t="n">
-        <v>0.4536</v>
-      </c>
-      <c r="AB376" t="n">
-        <v>0.9726</v>
-      </c>
-      <c r="AC376" t="n">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="377" spans="1:29">
-      <c r="A377" t="s">
-        <v>436</v>
-      </c>
-      <c r="B377" t="s">
-        <v>63</v>
-      </c>
-      <c r="C377" t="s">
-        <v>27</v>
-      </c>
-      <c r="D377" t="s">
-        <v>28</v>
-      </c>
-      <c r="E377" t="s">
-        <v>29</v>
-      </c>
-      <c r="F377" t="s">
-        <v>30</v>
-      </c>
-      <c r="G377" t="s">
-        <v>216</v>
-      </c>
-      <c r="H377" t="s">
-        <v>433</v>
-      </c>
-      <c r="I377" t="s">
-        <v>39</v>
-      </c>
-      <c r="J377" t="n">
-        <v>24</v>
-      </c>
-      <c r="K377" t="n">
-        <v>0.0001160041835159063</v>
-      </c>
-      <c r="L377" t="n">
-        <v>0.0001182319853454828</v>
-      </c>
-      <c r="M377" t="n">
-        <v>0.5578</v>
-      </c>
-      <c r="N377" t="n">
-        <v>0.5921999999999999</v>
-      </c>
-      <c r="O377" t="n">
-        <v>0.7479304780526062</v>
-      </c>
-      <c r="P377" t="n">
-        <v>0.7107742257566744</v>
-      </c>
-      <c r="Q377" t="n">
-        <v>0.4802</v>
-      </c>
-      <c r="R377" t="n">
-        <v>0.4388</v>
-      </c>
-      <c r="S377" t="n">
-        <v>0.9636</v>
-      </c>
-      <c r="T377" t="n">
-        <v>0.9712</v>
-      </c>
-      <c r="U377" t="n">
-        <v>50</v>
-      </c>
-      <c r="V377" t="n">
-        <v>0.5896</v>
-      </c>
-      <c r="W377" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="X377" t="n">
-        <v>0.7089428749906441</v>
-      </c>
-      <c r="Y377" t="n">
-        <v>0.7274613391789284</v>
-      </c>
-      <c r="Z377" t="n">
-        <v>0.4402</v>
-      </c>
-      <c r="AA377" t="n">
-        <v>0.4584</v>
-      </c>
-      <c r="AB377" t="n">
-        <v>0.9716</v>
-      </c>
-      <c r="AC377" t="n">
-        <v>0.9686</v>
-      </c>
-    </row>
-    <row r="378" spans="1:29">
-      <c r="A378" t="s">
-        <v>437</v>
-      </c>
-      <c r="B378" t="s">
-        <v>63</v>
-      </c>
-      <c r="C378" t="s">
-        <v>27</v>
-      </c>
-      <c r="D378" t="s">
-        <v>28</v>
-      </c>
-      <c r="E378" t="s">
-        <v>29</v>
-      </c>
-      <c r="F378" t="s">
-        <v>30</v>
-      </c>
-      <c r="G378" t="s">
-        <v>216</v>
-      </c>
-      <c r="H378" t="s">
-        <v>433</v>
-      </c>
-      <c r="I378" t="s">
-        <v>39</v>
-      </c>
-      <c r="J378" t="n">
-        <v>29</v>
-      </c>
-      <c r="K378" t="n">
-        <v>0.0001160305595956743</v>
-      </c>
-      <c r="L378" t="n">
-        <v>0.0001181947125121951</v>
-      </c>
-      <c r="M378" t="n">
-        <v>0.5582</v>
-      </c>
-      <c r="N378" t="n">
-        <v>0.5928</v>
-      </c>
-      <c r="O378" t="n">
-        <v>0.741484996476665</v>
-      </c>
-      <c r="P378" t="n">
-        <v>0.7022819946431775</v>
-      </c>
-      <c r="Q378" t="n">
-        <v>0.4766</v>
-      </c>
-      <c r="R378" t="n">
-        <v>0.4352</v>
-      </c>
-      <c r="S378" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="T378" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="U378" t="n">
-        <v>50</v>
-      </c>
-      <c r="V378" t="n">
-        <v>0.5906</v>
-      </c>
-      <c r="W378" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="X378" t="n">
-        <v>0.7052659073002182</v>
-      </c>
-      <c r="Y378" t="n">
-        <v>0.7231873892705818</v>
-      </c>
-      <c r="Z378" t="n">
-        <v>0.4378</v>
-      </c>
-      <c r="AA378" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="AB378" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="AC378" t="n">
-        <v>0.971</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29">
-      <c r="A379" t="s">
-        <v>438</v>
-      </c>
-      <c r="B379" t="s">
-        <v>63</v>
-      </c>
-      <c r="C379" t="s">
-        <v>27</v>
-      </c>
-      <c r="D379" t="s">
-        <v>28</v>
-      </c>
-      <c r="E379" t="s">
-        <v>29</v>
-      </c>
-      <c r="F379" t="s">
-        <v>30</v>
-      </c>
-      <c r="G379" t="s">
-        <v>216</v>
-      </c>
-      <c r="H379" t="s">
-        <v>433</v>
-      </c>
-      <c r="I379" t="s">
-        <v>39</v>
-      </c>
-      <c r="J379" t="n">
-        <v>31</v>
-      </c>
-      <c r="K379" t="n">
-        <v>0.0001155150369741023</v>
-      </c>
-      <c r="L379" t="n">
-        <v>0.0001177484109997749</v>
-      </c>
-      <c r="M379" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="N379" t="n">
-        <v>0.5672</v>
-      </c>
-      <c r="O379" t="n">
-        <v>0.7096477999684069</v>
-      </c>
-      <c r="P379" t="n">
-        <v>0.7152621896899067</v>
-      </c>
-      <c r="Q379" t="n">
-        <v>0.4484</v>
-      </c>
-      <c r="R379" t="n">
-        <v>0.4588</v>
-      </c>
-      <c r="S379" t="n">
-        <v>0.9728</v>
-      </c>
-      <c r="T379" t="n">
-        <v>0.9744</v>
-      </c>
-      <c r="U379" t="n">
-        <v>50</v>
-      </c>
-      <c r="V379" t="n">
-        <v>0.5884</v>
-      </c>
-      <c r="W379" t="n">
-        <v>0.5706</v>
-      </c>
-      <c r="X379" t="n">
-        <v>0.708237248385031</v>
-      </c>
-      <c r="Y379" t="n">
-        <v>0.7267736924242649</v>
-      </c>
-      <c r="Z379" t="n">
-        <v>0.4408</v>
-      </c>
-      <c r="AA379" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="AB379" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="AC379" t="n">
-        <v>0.9704</v>
-      </c>
-    </row>
-    <row r="380" spans="1:29">
-      <c r="A380" t="s">
-        <v>439</v>
-      </c>
-      <c r="B380" t="s">
-        <v>63</v>
-      </c>
-      <c r="C380" t="s">
-        <v>27</v>
-      </c>
-      <c r="D380" t="s">
-        <v>28</v>
-      </c>
-      <c r="E380" t="s">
-        <v>29</v>
-      </c>
-      <c r="F380" t="s">
-        <v>30</v>
-      </c>
-      <c r="G380" t="s">
-        <v>216</v>
-      </c>
-      <c r="H380" t="s">
-        <v>433</v>
-      </c>
-      <c r="I380" t="s">
-        <v>39</v>
-      </c>
-      <c r="J380" t="n">
-        <v>22</v>
-      </c>
-      <c r="K380" t="n">
-        <v>0.0001156761449761689</v>
-      </c>
-      <c r="L380" t="n">
-        <v>0.0001181008617393673</v>
-      </c>
-      <c r="M380" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="N380" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="O380" t="n">
-        <v>0.7345747068882783</v>
-      </c>
-      <c r="P380" t="n">
-        <v>0.7034202158027589</v>
-      </c>
-      <c r="Q380" t="n">
-        <v>0.4624</v>
-      </c>
-      <c r="R380" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="S380" t="n">
-        <v>0.9618</v>
-      </c>
-      <c r="T380" t="n">
-        <v>0.9714</v>
-      </c>
-      <c r="U380" t="n">
-        <v>50</v>
-      </c>
-      <c r="V380" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W380" t="n">
-        <v>0.5696</v>
-      </c>
-      <c r="X380" t="n">
-        <v>0.7037044834303672</v>
-      </c>
-      <c r="Y380" t="n">
-        <v>0.7271863585079137</v>
-      </c>
-      <c r="Z380" t="n">
-        <v>0.4376</v>
-      </c>
-      <c r="AA380" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="AB380" t="n">
-        <v>0.9736</v>
-      </c>
-      <c r="AC380" t="n">
-        <v>0.9702</v>
-      </c>
-    </row>
-    <row r="381" spans="1:29">
-      <c r="A381" t="s">
-        <v>440</v>
-      </c>
-      <c r="B381" t="s">
-        <v>63</v>
-      </c>
-      <c r="C381" t="s">
-        <v>27</v>
-      </c>
-      <c r="D381" t="s">
-        <v>28</v>
-      </c>
-      <c r="E381" t="s">
-        <v>29</v>
-      </c>
-      <c r="F381" t="s">
-        <v>30</v>
-      </c>
-      <c r="G381" t="s">
-        <v>216</v>
-      </c>
-      <c r="H381" t="s">
-        <v>433</v>
-      </c>
-      <c r="I381" t="s">
-        <v>39</v>
-      </c>
-      <c r="J381" t="n">
-        <v>27</v>
-      </c>
-      <c r="K381" t="n">
-        <v>0.0001158107412047684</v>
-      </c>
-      <c r="L381" t="n">
-        <v>0.0001179325439035892</v>
-      </c>
-      <c r="M381" t="n">
-        <v>0.5842000000000001</v>
-      </c>
-      <c r="N381" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="O381" t="n">
-        <v>0.7215261603018979</v>
-      </c>
-      <c r="P381" t="n">
-        <v>0.6997142273814361</v>
-      </c>
-      <c r="Q381" t="n">
-        <v>0.4498</v>
-      </c>
-      <c r="R381" t="n">
-        <v>0.4336</v>
-      </c>
-      <c r="S381" t="n">
-        <v>0.9674</v>
-      </c>
-      <c r="T381" t="n">
-        <v>0.9728</v>
-      </c>
-      <c r="U381" t="n">
-        <v>50</v>
-      </c>
-      <c r="V381" t="n">
-        <v>0.5906</v>
-      </c>
-      <c r="W381" t="n">
-        <v>0.5782</v>
-      </c>
-      <c r="X381" t="n">
-        <v>0.7049822692805827</v>
-      </c>
-      <c r="Y381" t="n">
-        <v>0.7195832127002408</v>
-      </c>
-      <c r="Z381" t="n">
-        <v>0.4378</v>
-      </c>
-      <c r="AA381" t="n">
-        <v>0.4526</v>
-      </c>
-      <c r="AB381" t="n">
-        <v>0.9728</v>
-      </c>
-      <c r="AC381" t="n">
-        <v>0.971</v>
-      </c>
-    </row>
-    <row r="382" spans="1:29">
-      <c r="A382" t="s">
-        <v>441</v>
-      </c>
-      <c r="B382" t="s">
-        <v>63</v>
-      </c>
-      <c r="C382" t="s">
-        <v>27</v>
-      </c>
-      <c r="D382" t="s">
-        <v>28</v>
-      </c>
-      <c r="E382" t="s">
-        <v>29</v>
-      </c>
-      <c r="F382" t="s">
-        <v>30</v>
-      </c>
-      <c r="G382" t="s">
-        <v>216</v>
-      </c>
-      <c r="H382" t="s">
-        <v>433</v>
-      </c>
-      <c r="I382" t="s">
-        <v>39</v>
-      </c>
-      <c r="J382" t="n">
-        <v>23</v>
-      </c>
-      <c r="K382" t="n">
-        <v>0.0001158866362646222</v>
-      </c>
-      <c r="L382" t="n">
-        <v>0.0001179030927829444</v>
-      </c>
-      <c r="M382" t="n">
-        <v>0.5772</v>
-      </c>
-      <c r="N382" t="n">
-        <v>0.5854</v>
-      </c>
-      <c r="O382" t="n">
-        <v>0.7360706487831178</v>
-      </c>
-      <c r="P382" t="n">
-        <v>0.7145628033979938</v>
-      </c>
-      <c r="Q382" t="n">
-        <v>0.4614</v>
-      </c>
-      <c r="R382" t="n">
-        <v>0.4454</v>
-      </c>
-      <c r="S382" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="T382" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="U382" t="n">
-        <v>50</v>
-      </c>
-      <c r="V382" t="n">
-        <v>0.5918</v>
-      </c>
-      <c r="W382" t="n">
-        <v>0.5722</v>
-      </c>
-      <c r="X382" t="n">
-        <v>0.706257743320383</v>
-      </c>
-      <c r="Y382" t="n">
-        <v>0.7292461861401813</v>
-      </c>
-      <c r="Z382" t="n">
-        <v>0.4376</v>
-      </c>
-      <c r="AA382" t="n">
-        <v>0.461</v>
-      </c>
-      <c r="AB382" t="n">
-        <v>0.9718</v>
-      </c>
-      <c r="AC382" t="n">
-        <v>0.969</v>
-      </c>
-    </row>
-    <row r="383" spans="1:29">
-      <c r="A383" t="s">
-        <v>442</v>
-      </c>
-      <c r="B383" t="s">
-        <v>63</v>
-      </c>
-      <c r="C383" t="s">
-        <v>27</v>
-      </c>
-      <c r="D383" t="s">
-        <v>28</v>
-      </c>
-      <c r="E383" t="s">
-        <v>29</v>
-      </c>
-      <c r="F383" t="s">
-        <v>30</v>
-      </c>
-      <c r="G383" t="s">
-        <v>216</v>
-      </c>
-      <c r="H383" t="s">
-        <v>433</v>
-      </c>
-      <c r="I383" t="s">
-        <v>39</v>
-      </c>
-      <c r="J383" t="n">
-        <v>26</v>
-      </c>
-      <c r="K383" t="n">
-        <v>0.0001156836066395044</v>
-      </c>
-      <c r="L383" t="n">
-        <v>0.0001176818440668285</v>
-      </c>
-      <c r="M383" t="n">
-        <v>0.5758</v>
-      </c>
-      <c r="N383" t="n">
-        <v>0.5891999999999999</v>
-      </c>
-      <c r="O383" t="n">
-        <v>0.7278736154031138</v>
-      </c>
-      <c r="P383" t="n">
-        <v>0.7059745037889117</v>
-      </c>
-      <c r="Q383" t="n">
-        <v>0.4582</v>
-      </c>
-      <c r="R383" t="n">
-        <v>0.4388</v>
-      </c>
-      <c r="S383" t="n">
-        <v>0.9678</v>
-      </c>
-      <c r="T383" t="n">
-        <v>0.9738</v>
-      </c>
-      <c r="U383" t="n">
-        <v>50</v>
-      </c>
-      <c r="V383" t="n">
-        <v>0.5888</v>
-      </c>
-      <c r="W383" t="n">
-        <v>0.5736</v>
-      </c>
-      <c r="X383" t="n">
-        <v>0.7079548008171143</v>
-      </c>
-      <c r="Y383" t="n">
-        <v>0.7275987905432498</v>
-      </c>
-      <c r="Z383" t="n">
-        <v>0.4404</v>
-      </c>
-      <c r="AA383" t="n">
-        <v>0.4594</v>
-      </c>
-      <c r="AB383" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="AC383" t="n">
-        <v>0.969</v>
-      </c>
-    </row>
-    <row r="384" spans="1:29">
-      <c r="A384" t="s">
-        <v>443</v>
-      </c>
-      <c r="B384" t="s">
-        <v>63</v>
-      </c>
-      <c r="C384" t="s">
-        <v>27</v>
-      </c>
-      <c r="D384" t="s">
-        <v>28</v>
-      </c>
-      <c r="E384" t="s">
-        <v>29</v>
-      </c>
-      <c r="F384" t="s">
-        <v>30</v>
-      </c>
-      <c r="G384" t="s">
-        <v>216</v>
-      </c>
-      <c r="H384" t="s">
-        <v>444</v>
-      </c>
-      <c r="I384" t="s">
-        <v>39</v>
-      </c>
-      <c r="J384" t="n">
-        <v>22</v>
-      </c>
-      <c r="K384" t="n">
-        <v>9.00472047738731e-05</v>
-      </c>
-      <c r="L384" t="n">
-        <v>9.208418736234307e-05</v>
-      </c>
-      <c r="M384" t="n">
-        <v>0.6036</v>
-      </c>
-      <c r="N384" t="n">
-        <v>0.6056</v>
-      </c>
-      <c r="O384" t="n">
-        <v>0.6894925670375279</v>
-      </c>
-      <c r="P384" t="n">
-        <v>0.6772001181334806</v>
-      </c>
-      <c r="Q384" t="n">
-        <v>0.4222</v>
-      </c>
-      <c r="R384" t="n">
-        <v>0.4158</v>
-      </c>
-      <c r="S384" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="T384" t="n">
-        <v>0.9786</v>
-      </c>
-      <c r="U384" t="n">
-        <v>50</v>
-      </c>
-      <c r="V384" t="n">
-        <v>0.6133999999999999</v>
-      </c>
-      <c r="W384" t="n">
-        <v>0.6102</v>
-      </c>
-      <c r="X384" t="n">
-        <v>0.6814690014960328</v>
-      </c>
-      <c r="Y384" t="n">
-        <v>0.6903622237637282</v>
-      </c>
-      <c r="Z384" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="AA384" t="n">
-        <v>0.4178</v>
-      </c>
-      <c r="AB384" t="n">
-        <v>0.9754</v>
-      </c>
-      <c r="AC384" t="n">
-        <v>0.9734</v>
-      </c>
-    </row>
-    <row r="385" spans="1:29">
-      <c r="A385" t="s">
-        <v>445</v>
-      </c>
-      <c r="B385" t="s">
-        <v>63</v>
-      </c>
-      <c r="C385" t="s">
-        <v>27</v>
-      </c>
-      <c r="D385" t="s">
-        <v>28</v>
-      </c>
-      <c r="E385" t="s">
-        <v>29</v>
-      </c>
-      <c r="F385" t="s">
-        <v>30</v>
-      </c>
-      <c r="G385" t="s">
-        <v>216</v>
-      </c>
-      <c r="H385" t="s">
-        <v>444</v>
-      </c>
-      <c r="I385" t="s">
-        <v>39</v>
-      </c>
-      <c r="J385" t="n">
-        <v>29</v>
-      </c>
-      <c r="K385" t="n">
-        <v>9.020868232473731e-05</v>
-      </c>
-      <c r="L385" t="n">
-        <v>9.209964508190751e-05</v>
-      </c>
-      <c r="M385" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="N385" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="O385" t="n">
-        <v>0.7022819946431775</v>
-      </c>
-      <c r="P385" t="n">
-        <v>0.6830812543175226</v>
-      </c>
-      <c r="Q385" t="n">
-        <v>0.4296</v>
-      </c>
-      <c r="R385" t="n">
-        <v>0.4202</v>
-      </c>
-      <c r="S385" t="n">
-        <v>0.9698</v>
-      </c>
-      <c r="T385" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="U385" t="n">
-        <v>50</v>
-      </c>
-      <c r="V385" t="n">
-        <v>0.6162</v>
-      </c>
-      <c r="W385" t="n">
-        <v>0.6098</v>
-      </c>
-      <c r="X385" t="n">
-        <v>0.6836665854054884</v>
-      </c>
-      <c r="Y385" t="n">
-        <v>0.6942621983083913</v>
-      </c>
-      <c r="Z385" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="AA385" t="n">
-        <v>0.4196</v>
-      </c>
-      <c r="AB385" t="n">
-        <v>0.9738</v>
-      </c>
-      <c r="AC385" t="n">
-        <v>0.9724</v>
-      </c>
-    </row>
-    <row r="386" spans="1:29">
-      <c r="A386" t="s">
-        <v>446</v>
-      </c>
-      <c r="B386" t="s">
-        <v>63</v>
-      </c>
-      <c r="C386" t="s">
-        <v>27</v>
-      </c>
-      <c r="D386" t="s">
-        <v>28</v>
-      </c>
-      <c r="E386" t="s">
-        <v>29</v>
-      </c>
-      <c r="F386" t="s">
-        <v>30</v>
-      </c>
-      <c r="G386" t="s">
-        <v>216</v>
-      </c>
-      <c r="H386" t="s">
-        <v>444</v>
-      </c>
-      <c r="I386" t="s">
-        <v>39</v>
-      </c>
-      <c r="J386" t="n">
-        <v>26</v>
-      </c>
-      <c r="K386" t="n">
-        <v>8.992919344455004e-05</v>
-      </c>
-      <c r="L386" t="n">
-        <v>9.216566802933813e-05</v>
-      </c>
-      <c r="M386" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="N386" t="n">
-        <v>0.6136</v>
-      </c>
-      <c r="O386" t="n">
-        <v>0.6962758074211685</v>
-      </c>
-      <c r="P386" t="n">
-        <v>0.6820557161991974</v>
-      </c>
-      <c r="Q386" t="n">
-        <v>0.4268</v>
-      </c>
-      <c r="R386" t="n">
-        <v>0.4124</v>
-      </c>
-      <c r="S386" t="n">
-        <v>0.9726</v>
-      </c>
-      <c r="T386" t="n">
-        <v>0.9744</v>
-      </c>
-      <c r="U386" t="n">
-        <v>50</v>
-      </c>
-      <c r="V386" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="W386" t="n">
-        <v>0.6088</v>
-      </c>
-      <c r="X386" t="n">
-        <v>0.6829348431585549</v>
-      </c>
-      <c r="Y386" t="n">
-        <v>0.692098258919931</v>
-      </c>
-      <c r="Z386" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="AA386" t="n">
-        <v>0.4194</v>
-      </c>
-      <c r="AB386" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="AC386" t="n">
-        <v>0.9734</v>
-      </c>
-    </row>
-    <row r="387" spans="1:29">
-      <c r="A387" t="s">
-        <v>447</v>
-      </c>
-      <c r="B387" t="s">
-        <v>63</v>
-      </c>
-      <c r="C387" t="s">
-        <v>27</v>
-      </c>
-      <c r="D387" t="s">
-        <v>28</v>
-      </c>
-      <c r="E387" t="s">
-        <v>29</v>
-      </c>
-      <c r="F387" t="s">
-        <v>30</v>
-      </c>
-      <c r="G387" t="s">
-        <v>216</v>
-      </c>
-      <c r="H387" t="s">
-        <v>444</v>
-      </c>
-      <c r="I387" t="s">
-        <v>39</v>
-      </c>
-      <c r="J387" t="n">
-        <v>24</v>
-      </c>
-      <c r="K387" t="n">
-        <v>8.967036893591285e-05</v>
-      </c>
-      <c r="L387" t="n">
-        <v>9.223863771185279e-05</v>
-      </c>
-      <c r="M387" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="N387" t="n">
-        <v>0.6178</v>
-      </c>
-      <c r="O387" t="n">
-        <v>0.6849817515817483</v>
-      </c>
-      <c r="P387" t="n">
-        <v>0.6729041536504289</v>
-      </c>
-      <c r="Q387" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="R387" t="n">
-        <v>0.4056</v>
-      </c>
-      <c r="S387" t="n">
-        <v>0.9772</v>
-      </c>
-      <c r="T387" t="n">
-        <v>0.9768</v>
-      </c>
-      <c r="U387" t="n">
-        <v>50</v>
-      </c>
-      <c r="V387" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="W387" t="n">
-        <v>0.6124000000000001</v>
-      </c>
-      <c r="X387" t="n">
-        <v>0.6798529252713413</v>
-      </c>
-      <c r="Y387" t="n">
-        <v>0.6833739825307955</v>
-      </c>
-      <c r="Z387" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="AA387" t="n">
-        <v>0.4134</v>
-      </c>
-      <c r="AB387" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="AC387" t="n">
-        <v>0.9752</v>
-      </c>
-    </row>
-    <row r="388" spans="1:29">
-      <c r="A388" t="s">
-        <v>448</v>
-      </c>
-      <c r="B388" t="s">
-        <v>63</v>
-      </c>
-      <c r="C388" t="s">
-        <v>27</v>
-      </c>
-      <c r="D388" t="s">
-        <v>28</v>
-      </c>
-      <c r="E388" t="s">
-        <v>29</v>
-      </c>
-      <c r="F388" t="s">
-        <v>30</v>
-      </c>
-      <c r="G388" t="s">
-        <v>216</v>
-      </c>
-      <c r="H388" t="s">
-        <v>444</v>
-      </c>
-      <c r="I388" t="s">
-        <v>39</v>
-      </c>
-      <c r="J388" t="n">
-        <v>26</v>
-      </c>
-      <c r="K388" t="n">
-        <v>8.938462804071606e-05</v>
-      </c>
-      <c r="L388" t="n">
-        <v>9.18456015177071e-05</v>
-      </c>
-      <c r="M388" t="n">
-        <v>0.6088</v>
-      </c>
-      <c r="N388" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O388" t="n">
-        <v>0.7014271166700072</v>
-      </c>
-      <c r="P388" t="n">
-        <v>0.6769047200308179</v>
-      </c>
-      <c r="Q388" t="n">
-        <v>0.4236</v>
-      </c>
-      <c r="R388" t="n">
-        <v>0.4126</v>
-      </c>
-      <c r="S388" t="n">
-        <v>0.9694</v>
-      </c>
-      <c r="T388" t="n">
-        <v>0.9776</v>
-      </c>
-      <c r="U388" t="n">
-        <v>50</v>
-      </c>
-      <c r="V388" t="n">
-        <v>0.6172</v>
-      </c>
-      <c r="W388" t="n">
-        <v>0.6114000000000001</v>
-      </c>
-      <c r="X388" t="n">
-        <v>0.6830812543175226</v>
-      </c>
-      <c r="Y388" t="n">
-        <v>0.6935416353759881</v>
-      </c>
-      <c r="Z388" t="n">
-        <v>0.4102</v>
-      </c>
-      <c r="AA388" t="n">
-        <v>0.4182</v>
-      </c>
-      <c r="AB388" t="n">
-        <v>0.9734</v>
-      </c>
-      <c r="AC388" t="n">
-        <v>0.9722</v>
-      </c>
-    </row>
-    <row r="389" spans="1:29">
-      <c r="A389" t="s">
-        <v>449</v>
-      </c>
-      <c r="B389" t="s">
-        <v>63</v>
-      </c>
-      <c r="C389" t="s">
-        <v>27</v>
-      </c>
-      <c r="D389" t="s">
-        <v>28</v>
-      </c>
-      <c r="E389" t="s">
-        <v>29</v>
-      </c>
-      <c r="F389" t="s">
-        <v>30</v>
-      </c>
-      <c r="G389" t="s">
-        <v>216</v>
-      </c>
-      <c r="H389" t="s">
-        <v>444</v>
-      </c>
-      <c r="I389" t="s">
-        <v>39</v>
-      </c>
-      <c r="J389" t="n">
-        <v>24</v>
-      </c>
-      <c r="K389" t="n">
-        <v>8.95953057333827e-05</v>
-      </c>
-      <c r="L389" t="n">
-        <v>9.219697173684836e-05</v>
-      </c>
-      <c r="M389" t="n">
-        <v>0.6038</v>
-      </c>
-      <c r="N389" t="n">
-        <v>0.6108</v>
-      </c>
-      <c r="O389" t="n">
-        <v>0.7049822692805827</v>
-      </c>
-      <c r="P389" t="n">
-        <v>0.6830812543175226</v>
-      </c>
-      <c r="Q389" t="n">
-        <v>0.4286</v>
-      </c>
-      <c r="R389" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="S389" t="n">
-        <v>0.9694</v>
-      </c>
-      <c r="T389" t="n">
-        <v>0.9742</v>
-      </c>
-      <c r="U389" t="n">
-        <v>50</v>
-      </c>
-      <c r="V389" t="n">
-        <v>0.6138</v>
-      </c>
-      <c r="W389" t="n">
-        <v>0.6098</v>
-      </c>
-      <c r="X389" t="n">
-        <v>0.6827884006044626</v>
-      </c>
-      <c r="Y389" t="n">
-        <v>0.6918092222571192</v>
-      </c>
-      <c r="Z389" t="n">
-        <v>0.4122</v>
-      </c>
-      <c r="AA389" t="n">
-        <v>0.4186</v>
-      </c>
-      <c r="AB389" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="AC389" t="n">
-        <v>0.9732</v>
-      </c>
-    </row>
-    <row r="390" spans="1:29">
-      <c r="A390" t="s">
-        <v>450</v>
-      </c>
-      <c r="B390" t="s">
-        <v>63</v>
-      </c>
-      <c r="C390" t="s">
-        <v>27</v>
-      </c>
-      <c r="D390" t="s">
-        <v>28</v>
-      </c>
-      <c r="E390" t="s">
-        <v>29</v>
-      </c>
-      <c r="F390" t="s">
-        <v>30</v>
-      </c>
-      <c r="G390" t="s">
-        <v>216</v>
-      </c>
-      <c r="H390" t="s">
-        <v>444</v>
-      </c>
-      <c r="I390" t="s">
-        <v>39</v>
-      </c>
-      <c r="J390" t="n">
-        <v>24</v>
-      </c>
-      <c r="K390" t="n">
-        <v>8.985233884304762e-05</v>
-      </c>
-      <c r="L390" t="n">
-        <v>9.185229977592826e-05</v>
-      </c>
-      <c r="M390" t="n">
-        <v>0.6052</v>
-      </c>
-      <c r="N390" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="O390" t="n">
-        <v>0.6916646586316233</v>
-      </c>
-      <c r="P390" t="n">
-        <v>0.6889121859859935</v>
-      </c>
-      <c r="Q390" t="n">
-        <v>0.422</v>
-      </c>
-      <c r="R390" t="n">
-        <v>0.4238</v>
-      </c>
-      <c r="S390" t="n">
-        <v>0.9738</v>
-      </c>
-      <c r="T390" t="n">
-        <v>0.9758</v>
-      </c>
-      <c r="U390" t="n">
-        <v>50</v>
-      </c>
-      <c r="V390" t="n">
-        <v>0.6152</v>
-      </c>
-      <c r="W390" t="n">
-        <v>0.6082</v>
-      </c>
-      <c r="X390" t="n">
-        <v>0.6849817515817483</v>
-      </c>
-      <c r="Y390" t="n">
-        <v>0.6955573304911681</v>
-      </c>
-      <c r="Z390" t="n">
-        <v>0.4124</v>
-      </c>
-      <c r="AA390" t="n">
-        <v>0.4214</v>
-      </c>
-      <c r="AB390" t="n">
-        <v>0.9732</v>
-      </c>
-      <c r="AC390" t="n">
-        <v>0.972</v>
-      </c>
-    </row>
-    <row r="391" spans="1:29">
-      <c r="A391" t="s">
-        <v>451</v>
-      </c>
-      <c r="B391" t="s">
-        <v>63</v>
-      </c>
-      <c r="C391" t="s">
-        <v>27</v>
-      </c>
-      <c r="D391" t="s">
-        <v>28</v>
-      </c>
-      <c r="E391" t="s">
-        <v>29</v>
-      </c>
-      <c r="F391" t="s">
-        <v>30</v>
-      </c>
-      <c r="G391" t="s">
-        <v>216</v>
-      </c>
-      <c r="H391" t="s">
-        <v>444</v>
-      </c>
-      <c r="I391" t="s">
-        <v>39</v>
-      </c>
-      <c r="J391" t="n">
-        <v>32</v>
-      </c>
-      <c r="K391" t="n">
-        <v>8.953461274504661e-05</v>
-      </c>
-      <c r="L391" t="n">
-        <v>9.187001697719097e-05</v>
-      </c>
-      <c r="M391" t="n">
-        <v>0.6064000000000001</v>
-      </c>
-      <c r="N391" t="n">
-        <v>0.6072</v>
-      </c>
-      <c r="O391" t="n">
-        <v>0.6792643079096677</v>
-      </c>
-      <c r="P391" t="n">
-        <v>0.6791170738539858</v>
-      </c>
-      <c r="Q391" t="n">
-        <v>0.4158</v>
-      </c>
-      <c r="R391" t="n">
-        <v>0.4152</v>
-      </c>
-      <c r="S391" t="n">
-        <v>0.9784</v>
-      </c>
-      <c r="T391" t="n">
-        <v>0.9782</v>
-      </c>
-      <c r="U391" t="n">
-        <v>50</v>
-      </c>
-      <c r="V391" t="n">
-        <v>0.6146</v>
-      </c>
-      <c r="W391" t="n">
-        <v>0.6114000000000001</v>
-      </c>
-      <c r="X391" t="n">
-        <v>0.6823488843692792</v>
-      </c>
-      <c r="Y391" t="n">
-        <v>0.6890573270780886</v>
-      </c>
-      <c r="Z391" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="AA391" t="n">
-        <v>0.4164</v>
-      </c>
-      <c r="AB391" t="n">
-        <v>0.9746</v>
-      </c>
-      <c r="AC391" t="n">
-        <v>0.9736</v>
-      </c>
-    </row>
-    <row r="392" spans="1:29">
-      <c r="A392" t="s">
-        <v>452</v>
-      </c>
-      <c r="B392" t="s">
-        <v>63</v>
-      </c>
-      <c r="C392" t="s">
-        <v>27</v>
-      </c>
-      <c r="D392" t="s">
-        <v>28</v>
-      </c>
-      <c r="E392" t="s">
-        <v>29</v>
-      </c>
-      <c r="F392" t="s">
-        <v>30</v>
-      </c>
-      <c r="G392" t="s">
-        <v>216</v>
-      </c>
-      <c r="H392" t="s">
-        <v>444</v>
-      </c>
-      <c r="I392" t="s">
-        <v>39</v>
-      </c>
-      <c r="J392" t="n">
-        <v>29</v>
-      </c>
-      <c r="K392" t="n">
-        <v>8.957261415198445e-05</v>
-      </c>
-      <c r="L392" t="n">
-        <v>9.20049849897623e-05</v>
-      </c>
-      <c r="M392" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="N392" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="O392" t="n">
-        <v>0.6992853494818835</v>
-      </c>
-      <c r="P392" t="n">
-        <v>0.6776429738438966</v>
-      </c>
-      <c r="Q392" t="n">
-        <v>0.4274</v>
-      </c>
-      <c r="R392" t="n">
-        <v>0.4144</v>
-      </c>
-      <c r="S392" t="n">
-        <v>0.9716</v>
-      </c>
-      <c r="T392" t="n">
-        <v>0.9776</v>
-      </c>
-      <c r="U392" t="n">
-        <v>50</v>
-      </c>
-      <c r="V392" t="n">
-        <v>0.6148</v>
-      </c>
-      <c r="W392" t="n">
-        <v>0.6078</v>
-      </c>
-      <c r="X392" t="n">
-        <v>0.6829348431585549</v>
-      </c>
-      <c r="Y392" t="n">
-        <v>0.6932532004974806</v>
-      </c>
-      <c r="Z392" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="AA392" t="n">
-        <v>0.4206</v>
-      </c>
-      <c r="AB392" t="n">
-        <v>0.9746</v>
-      </c>
-      <c r="AC392" t="n">
-        <v>0.9732</v>
-      </c>
-    </row>
-    <row r="393" spans="1:29">
-      <c r="A393" t="s">
-        <v>453</v>
-      </c>
-      <c r="B393" t="s">
-        <v>63</v>
-      </c>
-      <c r="C393" t="s">
-        <v>27</v>
-      </c>
-      <c r="D393" t="s">
-        <v>28</v>
-      </c>
-      <c r="E393" t="s">
-        <v>29</v>
-      </c>
-      <c r="F393" t="s">
-        <v>30</v>
-      </c>
-      <c r="G393" t="s">
-        <v>216</v>
-      </c>
-      <c r="H393" t="s">
-        <v>444</v>
-      </c>
-      <c r="I393" t="s">
-        <v>39</v>
-      </c>
-      <c r="J393" t="n">
-        <v>29</v>
-      </c>
-      <c r="K393" t="n">
-        <v>8.974449681118131e-05</v>
-      </c>
-      <c r="L393" t="n">
-        <v>9.179287487640977e-05</v>
-      </c>
-      <c r="M393" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="N393" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="O393" t="n">
-        <v>0.6944062211702888</v>
-      </c>
-      <c r="P393" t="n">
-        <v>0.6786751800382861</v>
-      </c>
-      <c r="Q393" t="n">
-        <v>0.4178</v>
-      </c>
-      <c r="R393" t="n">
-        <v>0.4234</v>
-      </c>
-      <c r="S393" t="n">
-        <v>0.9706</v>
-      </c>
-      <c r="T393" t="n">
-        <v>0.9818</v>
-      </c>
-      <c r="U393" t="n">
-        <v>50</v>
-      </c>
-      <c r="V393" t="n">
-        <v>0.6132</v>
-      </c>
-      <c r="W393" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="X393" t="n">
-        <v>0.6829348431585549</v>
-      </c>
-      <c r="Y393" t="n">
-        <v>0.6900724599634447</v>
-      </c>
-      <c r="Z393" t="n">
-        <v>0.4128</v>
-      </c>
-      <c r="AA393" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="AB393" t="n">
-        <v>0.9748</v>
-      </c>
-      <c r="AC393" t="n">
-        <v>0.9746</v>
-      </c>
-    </row>
-    <row r="394" spans="1:29">
-      <c r="A394" t="s">
-        <v>454</v>
-      </c>
-      <c r="B394" t="s">
-        <v>63</v>
-      </c>
-      <c r="C394" t="s">
-        <v>27</v>
-      </c>
-      <c r="D394" t="s">
-        <v>28</v>
-      </c>
-      <c r="E394" t="s">
-        <v>29</v>
-      </c>
-      <c r="F394" t="s">
-        <v>30</v>
-      </c>
-      <c r="G394" t="s">
-        <v>216</v>
-      </c>
-      <c r="H394" t="s">
-        <v>455</v>
-      </c>
-      <c r="I394" t="s">
-        <v>39</v>
-      </c>
-      <c r="J394" t="n">
-        <v>30</v>
-      </c>
-      <c r="K394" t="n">
-        <v>7.37381408456713e-05</v>
-      </c>
-      <c r="L394" t="n">
-        <v>7.601431934162974e-05</v>
-      </c>
-      <c r="M394" t="n">
-        <v>0.5214</v>
-      </c>
-      <c r="N394" t="n">
-        <v>0.5308</v>
-      </c>
-      <c r="O394" t="n">
-        <v>0.7479304780526062</v>
-      </c>
-      <c r="P394" t="n">
-        <v>0.7374279625834648</v>
-      </c>
-      <c r="Q394" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="R394" t="n">
-        <v>0.4938</v>
-      </c>
-      <c r="S394" t="n">
-        <v>0.9744</v>
-      </c>
-      <c r="T394" t="n">
-        <v>0.9758</v>
-      </c>
-      <c r="U394" t="n">
-        <v>50</v>
-      </c>
-      <c r="V394" t="n">
-        <v>0.5294</v>
-      </c>
-      <c r="W394" t="n">
-        <v>0.5296</v>
-      </c>
-      <c r="X394" t="n">
-        <v>0.7378346698278687</v>
-      </c>
-      <c r="Y394" t="n">
-        <v>0.7426977851050857</v>
-      </c>
-      <c r="Z394" t="n">
-        <v>0.4948</v>
-      </c>
-      <c r="AA394" t="n">
-        <v>0.4972</v>
-      </c>
-      <c r="AB394" t="n">
-        <v>0.9764</v>
-      </c>
-      <c r="AC394" t="n">
-        <v>0.9736</v>
-      </c>
-    </row>
-    <row r="395" spans="1:29">
-      <c r="A395" t="s">
-        <v>456</v>
-      </c>
-      <c r="B395" t="s">
-        <v>63</v>
-      </c>
-      <c r="C395" t="s">
-        <v>27</v>
-      </c>
-      <c r="D395" t="s">
-        <v>28</v>
-      </c>
-      <c r="E395" t="s">
-        <v>29</v>
-      </c>
-      <c r="F395" t="s">
-        <v>30</v>
-      </c>
-      <c r="G395" t="s">
-        <v>216</v>
-      </c>
-      <c r="H395" t="s">
-        <v>455</v>
-      </c>
-      <c r="I395" t="s">
-        <v>39</v>
-      </c>
-      <c r="J395" t="n">
-        <v>26</v>
-      </c>
-      <c r="K395" t="n">
-        <v>7.380943577736616e-05</v>
-      </c>
-      <c r="L395" t="n">
-        <v>7.599796280264855e-05</v>
-      </c>
-      <c r="M395" t="n">
-        <v>0.5256</v>
-      </c>
-      <c r="N395" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="O395" t="n">
-        <v>0.7443117626371358</v>
-      </c>
-      <c r="P395" t="n">
-        <v>0.7436396977031283</v>
-      </c>
-      <c r="Q395" t="n">
-        <v>0.5008</v>
-      </c>
-      <c r="R395" t="n">
-        <v>0.5102</v>
-      </c>
-      <c r="S395" t="n">
-        <v>0.9738</v>
-      </c>
-      <c r="T395" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="U395" t="n">
-        <v>50</v>
-      </c>
-      <c r="V395" t="n">
-        <v>0.5244</v>
-      </c>
-      <c r="W395" t="n">
-        <v>0.5238</v>
-      </c>
-      <c r="X395" t="n">
-        <v>0.7395944834840239</v>
-      </c>
-      <c r="Y395" t="n">
-        <v>0.74565407529229</v>
-      </c>
-      <c r="Z395" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="AA395" t="n">
-        <v>0.5024</v>
-      </c>
-      <c r="AB395" t="n">
-        <v>0.9772</v>
-      </c>
-      <c r="AC395" t="n">
-        <v>0.9744</v>
-      </c>
-    </row>
-    <row r="396" spans="1:29">
-      <c r="A396" t="s">
-        <v>457</v>
-      </c>
-      <c r="B396" t="s">
-        <v>63</v>
-      </c>
-      <c r="C396" t="s">
-        <v>27</v>
-      </c>
-      <c r="D396" t="s">
-        <v>28</v>
-      </c>
-      <c r="E396" t="s">
-        <v>29</v>
-      </c>
-      <c r="F396" t="s">
-        <v>30</v>
-      </c>
-      <c r="G396" t="s">
-        <v>216</v>
-      </c>
-      <c r="H396" t="s">
-        <v>455</v>
-      </c>
-      <c r="I396" t="s">
-        <v>39</v>
-      </c>
-      <c r="J396" t="n">
-        <v>23</v>
-      </c>
-      <c r="K396" t="n">
-        <v>7.347997617907822e-05</v>
-      </c>
-      <c r="L396" t="n">
-        <v>7.622445393353701e-05</v>
-      </c>
-      <c r="M396" t="n">
-        <v>0.5226</v>
-      </c>
-      <c r="N396" t="n">
-        <v>0.5282</v>
-      </c>
-      <c r="O396" t="n">
-        <v>0.7483314773547883</v>
-      </c>
-      <c r="P396" t="n">
-        <v>0.7344385610791416</v>
-      </c>
-      <c r="Q396" t="n">
-        <v>0.5044</v>
-      </c>
-      <c r="R396" t="n">
-        <v>0.4942</v>
-      </c>
-      <c r="S396" t="n">
-        <v>0.9738</v>
-      </c>
-      <c r="T396" t="n">
-        <v>0.9778</v>
-      </c>
-      <c r="U396" t="n">
-        <v>50</v>
-      </c>
-      <c r="V396" t="n">
-        <v>0.5278</v>
-      </c>
-      <c r="W396" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="X396" t="n">
-        <v>0.7397296803562772</v>
-      </c>
-      <c r="Y396" t="n">
-        <v>0.7467261881037788</v>
-      </c>
-      <c r="Z396" t="n">
-        <v>0.4968</v>
-      </c>
-      <c r="AA396" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="AB396" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="AC396" t="n">
-        <v>0.9738</v>
-      </c>
-    </row>
-    <row r="397" spans="1:29">
-      <c r="A397" t="s">
-        <v>458</v>
-      </c>
-      <c r="B397" t="s">
-        <v>63</v>
-      </c>
-      <c r="C397" t="s">
-        <v>27</v>
-      </c>
-      <c r="D397" t="s">
-        <v>28</v>
-      </c>
-      <c r="E397" t="s">
-        <v>29</v>
-      </c>
-      <c r="F397" t="s">
-        <v>30</v>
-      </c>
-      <c r="G397" t="s">
-        <v>216</v>
-      </c>
-      <c r="H397" t="s">
-        <v>455</v>
-      </c>
-      <c r="I397" t="s">
-        <v>39</v>
-      </c>
-      <c r="J397" t="n">
-        <v>25</v>
-      </c>
-      <c r="K397" t="n">
-        <v>7.371035208925605e-05</v>
-      </c>
-      <c r="L397" t="n">
-        <v>7.624259274452925e-05</v>
-      </c>
-      <c r="M397" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="N397" t="n">
-        <v>0.5318000000000001</v>
-      </c>
-      <c r="O397" t="n">
-        <v>0.7541883053985921</v>
-      </c>
-      <c r="P397" t="n">
-        <v>0.7405403432629447</v>
-      </c>
-      <c r="Q397" t="n">
-        <v>0.5084</v>
-      </c>
-      <c r="R397" t="n">
-        <v>0.4944</v>
-      </c>
-      <c r="S397" t="n">
-        <v>0.9714</v>
-      </c>
-      <c r="T397" t="n">
-        <v>0.9746</v>
-      </c>
-      <c r="U397" t="n">
-        <v>50</v>
-      </c>
-      <c r="V397" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="W397" t="n">
-        <v>0.5242</v>
-      </c>
-      <c r="X397" t="n">
-        <v>0.7416198487095663</v>
-      </c>
-      <c r="Y397" t="n">
-        <v>0.7472616676907762</v>
-      </c>
-      <c r="Z397" t="n">
-        <v>0.4996</v>
-      </c>
-      <c r="AA397" t="n">
-        <v>0.5028</v>
-      </c>
-      <c r="AB397" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="AC397" t="n">
-        <v>0.9738</v>
-      </c>
-    </row>
-    <row r="398" spans="1:29">
-      <c r="A398" t="s">
-        <v>459</v>
-      </c>
-      <c r="B398" t="s">
-        <v>63</v>
-      </c>
-      <c r="C398" t="s">
-        <v>27</v>
-      </c>
-      <c r="D398" t="s">
-        <v>28</v>
-      </c>
-      <c r="E398" t="s">
-        <v>29</v>
-      </c>
-      <c r="F398" t="s">
-        <v>30</v>
-      </c>
-      <c r="G398" t="s">
-        <v>216</v>
-      </c>
-      <c r="H398" t="s">
-        <v>455</v>
-      </c>
-      <c r="I398" t="s">
-        <v>39</v>
-      </c>
-      <c r="J398" t="n">
-        <v>24</v>
-      </c>
-      <c r="K398" t="n">
-        <v>7.218515742570161e-05</v>
-      </c>
-      <c r="L398" t="n">
-        <v>7.392039336264134e-05</v>
-      </c>
-      <c r="M398" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="N398" t="n">
-        <v>0.5254</v>
-      </c>
-      <c r="O398" t="n">
-        <v>0.7573638491504595</v>
-      </c>
-      <c r="P398" t="n">
-        <v>0.7378346698278687</v>
-      </c>
-      <c r="Q398" t="n">
-        <v>0.5068</v>
-      </c>
-      <c r="R398" t="n">
-        <v>0.4976</v>
-      </c>
-      <c r="S398" t="n">
-        <v>0.9678</v>
-      </c>
-      <c r="T398" t="n">
-        <v>0.9774</v>
-      </c>
-      <c r="U398" t="n">
-        <v>50</v>
-      </c>
-      <c r="V398" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="W398" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="X398" t="n">
-        <v>0.7463243262818117</v>
-      </c>
-      <c r="Y398" t="n">
-        <v>0.7475292636412303</v>
-      </c>
-      <c r="Z398" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="AA398" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="AB398" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="AC398" t="n">
-        <v>0.9734</v>
-      </c>
-    </row>
-    <row r="399" spans="1:29">
-      <c r="A399" t="s">
-        <v>460</v>
-      </c>
-      <c r="B399" t="s">
-        <v>63</v>
-      </c>
-      <c r="C399" t="s">
-        <v>27</v>
-      </c>
-      <c r="D399" t="s">
-        <v>28</v>
-      </c>
-      <c r="E399" t="s">
-        <v>29</v>
-      </c>
-      <c r="F399" t="s">
-        <v>30</v>
-      </c>
-      <c r="G399" t="s">
-        <v>216</v>
-      </c>
-      <c r="H399" t="s">
-        <v>455</v>
-      </c>
-      <c r="I399" t="s">
-        <v>39</v>
-      </c>
-      <c r="J399" t="n">
-        <v>23</v>
-      </c>
-      <c r="K399" t="n">
-        <v>7.364166346378624e-05</v>
-      </c>
-      <c r="L399" t="n">
-        <v>7.615752983838319e-05</v>
-      </c>
-      <c r="M399" t="n">
-        <v>0.5182</v>
-      </c>
-      <c r="N399" t="n">
-        <v>0.5302</v>
-      </c>
-      <c r="O399" t="n">
-        <v>0.7487322618933954</v>
-      </c>
-      <c r="P399" t="n">
-        <v>0.7364781055808788</v>
-      </c>
-      <c r="Q399" t="n">
-        <v>0.5078</v>
-      </c>
-      <c r="R399" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="S399" t="n">
-        <v>0.9744</v>
-      </c>
-      <c r="T399" t="n">
-        <v>0.9758</v>
-      </c>
-      <c r="U399" t="n">
-        <v>50</v>
-      </c>
-      <c r="V399" t="n">
-        <v>0.5288</v>
-      </c>
-      <c r="W399" t="n">
-        <v>0.5262</v>
-      </c>
-      <c r="X399" t="n">
-        <v>0.7386474125047755</v>
-      </c>
-      <c r="Y399" t="n">
-        <v>0.7467261881037788</v>
-      </c>
-      <c r="Z399" t="n">
-        <v>0.4956</v>
-      </c>
-      <c r="AA399" t="n">
-        <v>0.5012</v>
-      </c>
-      <c r="AB399" t="n">
-        <v>0.9762</v>
-      </c>
-      <c r="AC399" t="n">
-        <v>0.9734</v>
-      </c>
-    </row>
-    <row r="400" spans="1:29">
-      <c r="A400" t="s">
-        <v>461</v>
-      </c>
-      <c r="B400" t="s">
-        <v>63</v>
-      </c>
-      <c r="C400" t="s">
-        <v>27</v>
-      </c>
-      <c r="D400" t="s">
-        <v>28</v>
-      </c>
-      <c r="E400" t="s">
-        <v>29</v>
-      </c>
-      <c r="F400" t="s">
-        <v>30</v>
-      </c>
-      <c r="G400" t="s">
-        <v>216</v>
-      </c>
-      <c r="H400" t="s">
-        <v>455</v>
-      </c>
-      <c r="I400" t="s">
-        <v>39</v>
-      </c>
-      <c r="J400" t="n">
-        <v>22</v>
-      </c>
-      <c r="K400" t="n">
-        <v>7.369272974319756e-05</v>
-      </c>
-      <c r="L400" t="n">
-        <v>7.564361225813627e-05</v>
-      </c>
-      <c r="M400" t="n">
-        <v>0.5322</v>
-      </c>
-      <c r="N400" t="n">
-        <v>0.5248</v>
-      </c>
-      <c r="O400" t="n">
-        <v>0.7404052944165108</v>
-      </c>
-      <c r="P400" t="n">
-        <v>0.7349829930005184</v>
-      </c>
-      <c r="Q400" t="n">
-        <v>0.4942</v>
-      </c>
-      <c r="R400" t="n">
-        <v>0.4966</v>
-      </c>
-      <c r="S400" t="n">
-        <v>0.9742</v>
-      </c>
-      <c r="T400" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="U400" t="n">
-        <v>50</v>
-      </c>
-      <c r="V400" t="n">
-        <v>0.5284</v>
-      </c>
-      <c r="W400" t="n">
-        <v>0.5262</v>
-      </c>
-      <c r="X400" t="n">
-        <v>0.7409453421137082</v>
-      </c>
-      <c r="Y400" t="n">
-        <v>0.7496665925596525</v>
-      </c>
-      <c r="Z400" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="AA400" t="n">
-        <v>0.5024</v>
-      </c>
-      <c r="AB400" t="n">
-        <v>0.9752</v>
-      </c>
-      <c r="AC400" t="n">
-        <v>0.9726</v>
-      </c>
-    </row>
-    <row r="401" spans="1:29">
-      <c r="A401" t="s">
-        <v>462</v>
-      </c>
-      <c r="B401" t="s">
-        <v>63</v>
-      </c>
-      <c r="C401" t="s">
-        <v>27</v>
-      </c>
-      <c r="D401" t="s">
-        <v>28</v>
-      </c>
-      <c r="E401" t="s">
-        <v>29</v>
-      </c>
-      <c r="F401" t="s">
-        <v>30</v>
-      </c>
-      <c r="G401" t="s">
-        <v>216</v>
-      </c>
-      <c r="H401" t="s">
-        <v>455</v>
-      </c>
-      <c r="I401" t="s">
-        <v>39</v>
-      </c>
-      <c r="J401" t="n">
-        <v>24</v>
-      </c>
-      <c r="K401" t="n">
-        <v>7.367348251864313e-05</v>
-      </c>
-      <c r="L401" t="n">
-        <v>7.621766505762935e-05</v>
-      </c>
-      <c r="M401" t="n">
-        <v>0.5032</v>
-      </c>
-      <c r="N401" t="n">
-        <v>0.5308</v>
-      </c>
-      <c r="O401" t="n">
-        <v>0.7596051605933177</v>
-      </c>
-      <c r="P401" t="n">
-        <v>0.7435052118176442</v>
-      </c>
-      <c r="Q401" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="R401" t="n">
-        <v>0.4964</v>
-      </c>
-      <c r="S401" t="n">
-        <v>0.9746</v>
-      </c>
-      <c r="T401" t="n">
-        <v>0.9738</v>
-      </c>
-      <c r="U401" t="n">
-        <v>50</v>
-      </c>
-      <c r="V401" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="W401" t="n">
-        <v>0.5242</v>
-      </c>
-      <c r="X401" t="n">
-        <v>0.7395944834840239</v>
-      </c>
-      <c r="Y401" t="n">
-        <v>0.7457881736793632</v>
-      </c>
-      <c r="Z401" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="AA401" t="n">
-        <v>0.5022</v>
-      </c>
-      <c r="AB401" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="AC401" t="n">
-        <v>0.9742</v>
-      </c>
-    </row>
-    <row r="402" spans="1:29">
-      <c r="A402" t="s">
-        <v>463</v>
-      </c>
-      <c r="B402" t="s">
-        <v>63</v>
-      </c>
-      <c r="C402" t="s">
-        <v>27</v>
-      </c>
-      <c r="D402" t="s">
-        <v>28</v>
-      </c>
-      <c r="E402" t="s">
-        <v>29</v>
-      </c>
-      <c r="F402" t="s">
-        <v>30</v>
-      </c>
-      <c r="G402" t="s">
-        <v>216</v>
-      </c>
-      <c r="H402" t="s">
-        <v>455</v>
-      </c>
-      <c r="I402" t="s">
-        <v>39</v>
-      </c>
-      <c r="J402" t="n">
-        <v>32</v>
-      </c>
-      <c r="K402" t="n">
-        <v>7.406553095206618e-05</v>
-      </c>
-      <c r="L402" t="n">
-        <v>7.617516797035932e-05</v>
-      </c>
-      <c r="M402" t="n">
-        <v>0.5164</v>
-      </c>
-      <c r="N402" t="n">
-        <v>0.5224</v>
-      </c>
-      <c r="O402" t="n">
-        <v>0.7417546764261079</v>
-      </c>
-      <c r="P402" t="n">
-        <v>0.7402702209328699</v>
-      </c>
-      <c r="Q402" t="n">
-        <v>0.5054</v>
-      </c>
-      <c r="R402" t="n">
-        <v>0.5008</v>
-      </c>
-      <c r="S402" t="n">
-        <v>0.9788</v>
-      </c>
-      <c r="T402" t="n">
-        <v>0.9772</v>
-      </c>
-      <c r="U402" t="n">
-        <v>50</v>
-      </c>
-      <c r="V402" t="n">
-        <v>0.5248</v>
-      </c>
-      <c r="W402" t="n">
-        <v>0.5266</v>
-      </c>
-      <c r="X402" t="n">
-        <v>0.7389181280764466</v>
-      </c>
-      <c r="Y402" t="n">
-        <v>0.741484996476665</v>
-      </c>
-      <c r="Z402" t="n">
-        <v>0.4984</v>
-      </c>
-      <c r="AA402" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="AB402" t="n">
-        <v>0.9774</v>
-      </c>
-      <c r="AC402" t="n">
-        <v>0.9752</v>
-      </c>
-    </row>
-    <row r="403" spans="1:29">
-      <c r="A403" t="s">
-        <v>464</v>
-      </c>
-      <c r="B403" t="s">
-        <v>63</v>
-      </c>
-      <c r="C403" t="s">
-        <v>27</v>
-      </c>
-      <c r="D403" t="s">
-        <v>28</v>
-      </c>
-      <c r="E403" t="s">
-        <v>29</v>
-      </c>
-      <c r="F403" t="s">
-        <v>30</v>
-      </c>
-      <c r="G403" t="s">
-        <v>216</v>
-      </c>
-      <c r="H403" t="s">
-        <v>455</v>
-      </c>
-      <c r="I403" t="s">
-        <v>39</v>
-      </c>
-      <c r="J403" t="n">
-        <v>29</v>
-      </c>
-      <c r="K403" t="n">
-        <v>7.371655218303203e-05</v>
-      </c>
-      <c r="L403" t="n">
-        <v>7.593767116777599e-05</v>
-      </c>
-      <c r="M403" t="n">
-        <v>0.5234</v>
-      </c>
-      <c r="N403" t="n">
-        <v>0.5284</v>
-      </c>
-      <c r="O403" t="n">
-        <v>0.7521967827636595</v>
-      </c>
-      <c r="P403" t="n">
-        <v>0.7291090453423273</v>
-      </c>
-      <c r="Q403" t="n">
-        <v>0.5058</v>
-      </c>
-      <c r="R403" t="n">
-        <v>0.4916</v>
-      </c>
-      <c r="S403" t="n">
-        <v>0.9716</v>
-      </c>
-      <c r="T403" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="U403" t="n">
-        <v>50</v>
-      </c>
-      <c r="V403" t="n">
-        <v>0.5254</v>
-      </c>
-      <c r="W403" t="n">
-        <v>0.5244</v>
-      </c>
-      <c r="X403" t="n">
-        <v>0.7401351227985333</v>
-      </c>
-      <c r="Y403" t="n">
-        <v>0.7417546764261079</v>
-      </c>
-      <c r="Z403" t="n">
-        <v>0.4986</v>
-      </c>
-      <c r="AA403" t="n">
-        <v>0.5002</v>
-      </c>
-      <c r="AB403" t="n">
-        <v>0.9766</v>
-      </c>
-      <c r="AC403" t="n">
-        <v>0.9758</v>
-      </c>
-    </row>
-    <row r="404" spans="1:29">
-      <c r="A404" t="s">
-        <v>465</v>
-      </c>
-      <c r="B404" t="s">
-        <v>63</v>
-      </c>
-      <c r="C404" t="s">
-        <v>27</v>
-      </c>
-      <c r="D404" t="s">
-        <v>28</v>
-      </c>
-      <c r="E404" t="s">
-        <v>29</v>
-      </c>
-      <c r="F404" t="s">
-        <v>30</v>
-      </c>
-      <c r="G404" t="s">
-        <v>216</v>
-      </c>
-      <c r="H404" t="s">
-        <v>466</v>
-      </c>
-      <c r="I404" t="s">
-        <v>39</v>
-      </c>
-      <c r="J404" t="n">
-        <v>29</v>
-      </c>
-      <c r="K404" t="n">
-        <v>6.414023512043059e-05</v>
-      </c>
-      <c r="L404" t="n">
-        <v>6.670479755848646e-05</v>
-      </c>
-      <c r="M404" t="n">
-        <v>0.4012</v>
-      </c>
-      <c r="N404" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="O404" t="n">
-        <v>0.8282511696339463</v>
-      </c>
-      <c r="P404" t="n">
-        <v>0.8105553651663778</v>
-      </c>
-      <c r="Q404" t="n">
-        <v>0.6276</v>
-      </c>
-      <c r="R404" t="n">
-        <v>0.6006</v>
-      </c>
-      <c r="S404" t="n">
-        <v>0.9716</v>
-      </c>
-      <c r="T404" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="U404" t="n">
-        <v>50</v>
-      </c>
-      <c r="V404" t="n">
-        <v>0.4232</v>
-      </c>
-      <c r="W404" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="X404" t="n">
-        <v>0.8075890043827987</v>
-      </c>
-      <c r="Y404" t="n">
-        <v>0.8185352771872451</v>
-      </c>
-      <c r="Z404" t="n">
-        <v>0.6018</v>
-      </c>
-      <c r="AA404" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="AB404" t="n">
-        <v>0.9752</v>
-      </c>
-      <c r="AC404" t="n">
-        <v>0.9728</v>
-      </c>
-    </row>
-    <row r="405" spans="1:29">
-      <c r="A405" t="s">
-        <v>467</v>
-      </c>
-      <c r="B405" t="s">
-        <v>63</v>
-      </c>
-      <c r="C405" t="s">
-        <v>27</v>
-      </c>
-      <c r="D405" t="s">
-        <v>28</v>
-      </c>
-      <c r="E405" t="s">
-        <v>29</v>
-      </c>
-      <c r="F405" t="s">
-        <v>30</v>
-      </c>
-      <c r="G405" t="s">
-        <v>216</v>
-      </c>
-      <c r="H405" t="s">
-        <v>466</v>
-      </c>
-      <c r="I405" t="s">
-        <v>39</v>
-      </c>
-      <c r="J405" t="n">
-        <v>21</v>
-      </c>
-      <c r="K405" t="n">
-        <v>6.509647141210735e-05</v>
-      </c>
-      <c r="L405" t="n">
-        <v>6.706751310266554e-05</v>
-      </c>
-      <c r="M405" t="n">
-        <v>0.4152</v>
-      </c>
-      <c r="N405" t="n">
-        <v>0.4216</v>
-      </c>
-      <c r="O405" t="n">
-        <v>0.8380930735902785</v>
-      </c>
-      <c r="P405" t="n">
-        <v>0.8088263101556477</v>
-      </c>
-      <c r="Q405" t="n">
-        <v>0.6232</v>
-      </c>
-      <c r="R405" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="S405" t="n">
-        <v>0.9628</v>
-      </c>
-      <c r="T405" t="n">
-        <v>0.9754</v>
-      </c>
-      <c r="U405" t="n">
-        <v>50</v>
-      </c>
-      <c r="V405" t="n">
-        <v>0.4244</v>
-      </c>
-      <c r="W405" t="n">
-        <v>0.4148</v>
-      </c>
-      <c r="X405" t="n">
-        <v>0.8091971329657563</v>
-      </c>
-      <c r="Y405" t="n">
-        <v>0.8198780397107853</v>
-      </c>
-      <c r="Z405" t="n">
-        <v>0.6016</v>
-      </c>
-      <c r="AA405" t="n">
-        <v>0.6138</v>
-      </c>
-      <c r="AB405" t="n">
-        <v>0.9746</v>
-      </c>
-      <c r="AC405" t="n">
-        <v>0.972</v>
-      </c>
-    </row>
-    <row r="406" spans="1:29">
-      <c r="A406" t="s">
-        <v>468</v>
-      </c>
-      <c r="B406" t="s">
-        <v>63</v>
-      </c>
-      <c r="C406" t="s">
-        <v>27</v>
-      </c>
-      <c r="D406" t="s">
-        <v>28</v>
-      </c>
-      <c r="E406" t="s">
-        <v>29</v>
-      </c>
-      <c r="F406" t="s">
-        <v>30</v>
-      </c>
-      <c r="G406" t="s">
-        <v>216</v>
-      </c>
-      <c r="H406" t="s">
-        <v>466</v>
-      </c>
-      <c r="I406" t="s">
-        <v>39</v>
-      </c>
-      <c r="J406" t="n">
-        <v>28</v>
-      </c>
-      <c r="K406" t="n">
-        <v>6.218751049600542e-05</v>
-      </c>
-      <c r="L406" t="n">
-        <v>6.474863472394645e-05</v>
-      </c>
-      <c r="M406" t="n">
-        <v>0.4396</v>
-      </c>
-      <c r="N406" t="n">
-        <v>0.4486</v>
-      </c>
-      <c r="O406" t="n">
-        <v>0.8075890043827987</v>
-      </c>
-      <c r="P406" t="n">
-        <v>0.7922120928135344</v>
-      </c>
-      <c r="Q406" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="R406" t="n">
-        <v>0.5768</v>
-      </c>
-      <c r="S406" t="n">
-        <v>0.9694</v>
-      </c>
-      <c r="T406" t="n">
-        <v>0.9746</v>
-      </c>
-      <c r="U406" t="n">
-        <v>50</v>
-      </c>
-      <c r="V406" t="n">
-        <v>0.4458</v>
-      </c>
-      <c r="W406" t="n">
-        <v>0.4454</v>
-      </c>
-      <c r="X406" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y406" t="n">
-        <v>0.7998749902328488</v>
-      </c>
-      <c r="Z406" t="n">
-        <v>0.5828</v>
-      </c>
-      <c r="AA406" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="AB406" t="n">
-        <v>0.9714</v>
-      </c>
-      <c r="AC406" t="n">
-        <v>0.9716</v>
-      </c>
-    </row>
-    <row r="407" spans="1:29">
-      <c r="A407" t="s">
-        <v>469</v>
-      </c>
-      <c r="B407" t="s">
-        <v>63</v>
-      </c>
-      <c r="C407" t="s">
-        <v>27</v>
-      </c>
-      <c r="D407" t="s">
-        <v>28</v>
-      </c>
-      <c r="E407" t="s">
-        <v>29</v>
-      </c>
-      <c r="F407" t="s">
-        <v>30</v>
-      </c>
-      <c r="G407" t="s">
-        <v>216</v>
-      </c>
-      <c r="H407" t="s">
-        <v>466</v>
-      </c>
-      <c r="I407" t="s">
-        <v>39</v>
-      </c>
-      <c r="J407" t="n">
-        <v>24</v>
-      </c>
-      <c r="K407" t="n">
-        <v>6.416229964233934e-05</v>
-      </c>
-      <c r="L407" t="n">
-        <v>6.634420068003237e-05</v>
-      </c>
-      <c r="M407" t="n">
-        <v>0.4202</v>
-      </c>
-      <c r="N407" t="n">
-        <v>0.4212</v>
-      </c>
-      <c r="O407" t="n">
-        <v>0.812773031048644</v>
-      </c>
-      <c r="P407" t="n">
-        <v>0.804238770515324</v>
-      </c>
-      <c r="Q407" t="n">
-        <v>0.6066</v>
-      </c>
-      <c r="R407" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="S407" t="n">
-        <v>0.9734</v>
-      </c>
-      <c r="T407" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="U407" t="n">
-        <v>50</v>
-      </c>
-      <c r="V407" t="n">
-        <v>0.4224</v>
-      </c>
-      <c r="W407" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="X407" t="n">
-        <v>0.8087026647662292</v>
-      </c>
-      <c r="Y407" t="n">
-        <v>0.8209750300709517</v>
-      </c>
-      <c r="Z407" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="AA407" t="n">
-        <v>0.6156</v>
-      </c>
-      <c r="AB407" t="n">
-        <v>0.9752</v>
-      </c>
-      <c r="AC407" t="n">
-        <v>0.972</v>
-      </c>
-    </row>
-    <row r="408" spans="1:29">
-      <c r="A408" t="s">
-        <v>470</v>
-      </c>
-      <c r="B408" t="s">
-        <v>63</v>
-      </c>
-      <c r="C408" t="s">
-        <v>27</v>
-      </c>
-      <c r="D408" t="s">
-        <v>28</v>
-      </c>
-      <c r="E408" t="s">
-        <v>29</v>
-      </c>
-      <c r="F408" t="s">
-        <v>30</v>
-      </c>
-      <c r="G408" t="s">
-        <v>216</v>
-      </c>
-      <c r="H408" t="s">
-        <v>466</v>
-      </c>
-      <c r="I408" t="s">
-        <v>39</v>
-      </c>
-      <c r="J408" t="n">
-        <v>30</v>
-      </c>
-      <c r="K408" t="n">
-        <v>6.436906792223453e-05</v>
-      </c>
-      <c r="L408" t="n">
-        <v>6.673443601466715e-05</v>
-      </c>
-      <c r="M408" t="n">
-        <v>0.4188</v>
-      </c>
-      <c r="N408" t="n">
-        <v>0.4032</v>
-      </c>
-      <c r="O408" t="n">
-        <v>0.8153526844255803</v>
-      </c>
-      <c r="P408" t="n">
-        <v>0.8162107570964745</v>
-      </c>
-      <c r="Q408" t="n">
-        <v>0.6088</v>
-      </c>
-      <c r="R408" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="S408" t="n">
-        <v>0.9728</v>
-      </c>
-      <c r="T408" t="n">
-        <v>0.9772</v>
-      </c>
-      <c r="U408" t="n">
-        <v>50</v>
-      </c>
-      <c r="V408" t="n">
-        <v>0.4226</v>
-      </c>
-      <c r="W408" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="X408" t="n">
-        <v>0.8090735442467514</v>
-      </c>
-      <c r="Y408" t="n">
-        <v>0.8187795796183488</v>
-      </c>
-      <c r="Z408" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="AA408" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="AB408" t="n">
-        <v>0.9746</v>
-      </c>
-      <c r="AC408" t="n">
-        <v>0.9732</v>
-      </c>
-    </row>
-    <row r="409" spans="1:29">
-      <c r="A409" t="s">
-        <v>471</v>
-      </c>
-      <c r="B409" t="s">
-        <v>63</v>
-      </c>
-      <c r="C409" t="s">
-        <v>27</v>
-      </c>
-      <c r="D409" t="s">
-        <v>28</v>
-      </c>
-      <c r="E409" t="s">
-        <v>29</v>
-      </c>
-      <c r="F409" t="s">
-        <v>30</v>
-      </c>
-      <c r="G409" t="s">
-        <v>216</v>
-      </c>
-      <c r="H409" t="s">
-        <v>466</v>
-      </c>
-      <c r="I409" t="s">
-        <v>39</v>
-      </c>
-      <c r="J409" t="n">
-        <v>21</v>
-      </c>
-      <c r="K409" t="n">
-        <v>6.301312362775207e-05</v>
-      </c>
-      <c r="L409" t="n">
-        <v>6.543411831371486e-05</v>
-      </c>
-      <c r="M409" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="N409" t="n">
-        <v>0.4472</v>
-      </c>
-      <c r="O409" t="n">
-        <v>0.8674099376880576</v>
-      </c>
-      <c r="P409" t="n">
-        <v>0.8038656604184558</v>
-      </c>
-      <c r="Q409" t="n">
-        <v>0.6392</v>
-      </c>
-      <c r="R409" t="n">
-        <v>0.5838</v>
-      </c>
-      <c r="S409" t="n">
-        <v>0.9462</v>
-      </c>
-      <c r="T409" t="n">
-        <v>0.9692</v>
-      </c>
-      <c r="U409" t="n">
-        <v>50</v>
-      </c>
-      <c r="V409" t="n">
-        <v>0.4338</v>
-      </c>
-      <c r="W409" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="X409" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y409" t="n">
-        <v>0.8313843876330611</v>
-      </c>
-      <c r="Z409" t="n">
-        <v>0.6016</v>
-      </c>
-      <c r="AA409" t="n">
-        <v>0.6192</v>
-      </c>
-      <c r="AB409" t="n">
-        <v>0.9646</v>
-      </c>
-      <c r="AC409" t="n">
-        <v>0.9656</v>
-      </c>
-    </row>
-    <row r="410" spans="1:29">
-      <c r="A410" t="s">
-        <v>472</v>
-      </c>
-      <c r="B410" t="s">
-        <v>63</v>
-      </c>
-      <c r="C410" t="s">
-        <v>27</v>
-      </c>
-      <c r="D410" t="s">
-        <v>28</v>
-      </c>
-      <c r="E410" t="s">
-        <v>29</v>
-      </c>
-      <c r="F410" t="s">
-        <v>30</v>
-      </c>
-      <c r="G410" t="s">
-        <v>216</v>
-      </c>
-      <c r="H410" t="s">
-        <v>466</v>
-      </c>
-      <c r="I410" t="s">
-        <v>39</v>
-      </c>
-      <c r="J410" t="n">
-        <v>14</v>
-      </c>
-      <c r="K410" t="n">
-        <v>6.536533427424729e-05</v>
-      </c>
-      <c r="L410" t="n">
-        <v>6.674394821748138e-05</v>
-      </c>
-      <c r="M410" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="N410" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="O410" t="n">
-        <v>0.8676404785393544</v>
-      </c>
-      <c r="P410" t="n">
-        <v>0.8018728078691783</v>
-      </c>
-      <c r="Q410" t="n">
-        <v>0.6488</v>
-      </c>
-      <c r="R410" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="S410" t="n">
-        <v>0.9504</v>
-      </c>
-      <c r="T410" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="U410" t="n">
-        <v>50</v>
-      </c>
-      <c r="V410" t="n">
-        <v>0.4244</v>
-      </c>
-      <c r="W410" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="X410" t="n">
-        <v>0.8079603950689662</v>
-      </c>
-      <c r="Y410" t="n">
-        <v>0.8187795796183488</v>
-      </c>
-      <c r="Z410" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="AA410" t="n">
-        <v>0.6124000000000001</v>
-      </c>
-      <c r="AB410" t="n">
-        <v>0.9746</v>
-      </c>
-      <c r="AC410" t="n">
-        <v>0.9722</v>
-      </c>
-    </row>
-    <row r="411" spans="1:29">
-      <c r="A411" t="s">
-        <v>473</v>
-      </c>
-      <c r="B411" t="s">
-        <v>63</v>
-      </c>
-      <c r="C411" t="s">
-        <v>27</v>
-      </c>
-      <c r="D411" t="s">
-        <v>28</v>
-      </c>
-      <c r="E411" t="s">
-        <v>29</v>
-      </c>
-      <c r="F411" t="s">
-        <v>30</v>
-      </c>
-      <c r="G411" t="s">
-        <v>216</v>
-      </c>
-      <c r="H411" t="s">
-        <v>466</v>
-      </c>
-      <c r="I411" t="s">
-        <v>39</v>
-      </c>
-      <c r="J411" t="n">
-        <v>23</v>
-      </c>
-      <c r="K411" t="n">
-        <v>6.428250898607076e-05</v>
-      </c>
-      <c r="L411" t="n">
-        <v>6.647247513756156e-05</v>
-      </c>
-      <c r="M411" t="n">
-        <v>0.4292</v>
-      </c>
-      <c r="N411" t="n">
-        <v>0.4118</v>
-      </c>
-      <c r="O411" t="n">
-        <v>0.8109253973085316</v>
-      </c>
-      <c r="P411" t="n">
-        <v>0.8101851640211637</v>
-      </c>
-      <c r="Q411" t="n">
-        <v>0.5996</v>
-      </c>
-      <c r="R411" t="n">
-        <v>0.6108</v>
-      </c>
-      <c r="S411" t="n">
-        <v>0.9714</v>
-      </c>
-      <c r="T411" t="n">
-        <v>0.9776</v>
-      </c>
-      <c r="U411" t="n">
-        <v>50</v>
-      </c>
-      <c r="V411" t="n">
-        <v>0.4242</v>
-      </c>
-      <c r="W411" t="n">
-        <v>0.4146</v>
-      </c>
-      <c r="X411" t="n">
-        <v>0.8078366171448284</v>
-      </c>
-      <c r="Y411" t="n">
-        <v>0.8178019320104348</v>
-      </c>
-      <c r="Z411" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="AA411" t="n">
-        <v>0.6128</v>
-      </c>
-      <c r="AB411" t="n">
-        <v>0.9744</v>
-      </c>
-      <c r="AC411" t="n">
-        <v>0.9732</v>
-      </c>
-    </row>
-    <row r="412" spans="1:29">
-      <c r="A412" t="s">
-        <v>474</v>
-      </c>
-      <c r="B412" t="s">
-        <v>63</v>
-      </c>
-      <c r="C412" t="s">
-        <v>27</v>
-      </c>
-      <c r="D412" t="s">
-        <v>28</v>
-      </c>
-      <c r="E412" t="s">
-        <v>29</v>
-      </c>
-      <c r="F412" t="s">
-        <v>30</v>
-      </c>
-      <c r="G412" t="s">
-        <v>216</v>
-      </c>
-      <c r="H412" t="s">
-        <v>466</v>
-      </c>
-      <c r="I412" t="s">
-        <v>39</v>
-      </c>
-      <c r="J412" t="n">
-        <v>32</v>
-      </c>
-      <c r="K412" t="n">
-        <v>6.453418689779938e-05</v>
-      </c>
-      <c r="L412" t="n">
-        <v>6.659832396544516e-05</v>
-      </c>
-      <c r="M412" t="n">
-        <v>0.4196</v>
-      </c>
-      <c r="N412" t="n">
-        <v>0.4146</v>
-      </c>
-      <c r="O412" t="n">
-        <v>0.8114185110040317</v>
-      </c>
-      <c r="P412" t="n">
-        <v>0.8170679286326199</v>
-      </c>
-      <c r="Q412" t="n">
-        <v>0.6064000000000001</v>
-      </c>
-      <c r="R412" t="n">
-        <v>0.6124000000000001</v>
-      </c>
-      <c r="S412" t="n">
-        <v>0.974</v>
-      </c>
-      <c r="T412" t="n">
-        <v>0.9736</v>
-      </c>
-      <c r="U412" t="n">
-        <v>50</v>
-      </c>
-      <c r="V412" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="W412" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="X412" t="n">
-        <v>0.8084553172563095</v>
-      </c>
-      <c r="Y412" t="n">
-        <v>0.8184130986244049</v>
-      </c>
-      <c r="Z412" t="n">
-        <v>0.6016</v>
-      </c>
-      <c r="AA412" t="n">
-        <v>0.6138</v>
-      </c>
-      <c r="AB412" t="n">
-        <v>0.9748</v>
-      </c>
-      <c r="AC412" t="n">
-        <v>0.9732</v>
-      </c>
-    </row>
-    <row r="413" spans="1:29">
-      <c r="A413" t="s">
-        <v>475</v>
-      </c>
-      <c r="B413" t="s">
-        <v>63</v>
-      </c>
-      <c r="C413" t="s">
-        <v>27</v>
-      </c>
-      <c r="D413" t="s">
-        <v>28</v>
-      </c>
-      <c r="E413" t="s">
-        <v>29</v>
-      </c>
-      <c r="F413" t="s">
-        <v>30</v>
-      </c>
-      <c r="G413" t="s">
-        <v>216</v>
-      </c>
-      <c r="H413" t="s">
-        <v>466</v>
-      </c>
-      <c r="I413" t="s">
-        <v>39</v>
-      </c>
-      <c r="J413" t="n">
-        <v>13</v>
-      </c>
-      <c r="K413" t="n">
-        <v>6.515599740669132e-05</v>
-      </c>
-      <c r="L413" t="n">
-        <v>6.661356352269649e-05</v>
-      </c>
-      <c r="M413" t="n">
-        <v>0.3962</v>
-      </c>
-      <c r="N413" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="O413" t="n">
-        <v>0.8699425268372618</v>
-      </c>
-      <c r="P413" t="n">
-        <v>0.8142481194328913</v>
-      </c>
-      <c r="Q413" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="R413" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="S413" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="T413" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="U413" t="n">
-        <v>50</v>
-      </c>
-      <c r="V413" t="n">
-        <v>0.4216</v>
-      </c>
-      <c r="W413" t="n">
-        <v>0.4122</v>
-      </c>
-      <c r="X413" t="n">
-        <v>0.8095677859203638</v>
-      </c>
-      <c r="Y413" t="n">
-        <v>0.8189017035029296</v>
-      </c>
-      <c r="Z413" t="n">
-        <v>0.6038</v>
-      </c>
-      <c r="AA413" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="AB413" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="AC413" t="n">
-        <v>0.9734</v>
-      </c>
-    </row>
-    <row r="414" spans="1:29">
-      <c r="A414" t="s">
-        <v>476</v>
-      </c>
-      <c r="B414" t="s">
-        <v>63</v>
-      </c>
-      <c r="C414" t="s">
-        <v>27</v>
-      </c>
-      <c r="D414" t="s">
-        <v>28</v>
-      </c>
-      <c r="E414" t="s">
-        <v>29</v>
-      </c>
-      <c r="F414" t="s">
-        <v>30</v>
-      </c>
-      <c r="G414" t="s">
-        <v>216</v>
-      </c>
-      <c r="H414" t="s">
-        <v>51</v>
-      </c>
-      <c r="I414" t="s">
-        <v>39</v>
-      </c>
-      <c r="J414" t="n">
-        <v>13</v>
-      </c>
-      <c r="K414" t="n">
-        <v>5.994437029585242e-05</v>
-      </c>
-      <c r="L414" t="n">
-        <v>6.164050549268723e-05</v>
-      </c>
-      <c r="M414" t="n">
-        <v>0.3114</v>
-      </c>
-      <c r="N414" t="n">
-        <v>0.3544</v>
-      </c>
-      <c r="O414" t="n">
-        <v>0.9268225288586807</v>
-      </c>
-      <c r="P414" t="n">
-        <v>0.8667179472008181</v>
-      </c>
-      <c r="Q414" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="R414" t="n">
-        <v>0.6804</v>
-      </c>
-      <c r="S414" t="n">
-        <v>0.9442</v>
-      </c>
-      <c r="T414" t="n">
-        <v>0.9658</v>
-      </c>
-      <c r="U414" t="n">
-        <v>50</v>
-      </c>
-      <c r="V414" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="W414" t="n">
-        <v>0.3128</v>
-      </c>
-      <c r="X414" t="n">
-        <v>0.8785214852238959</v>
-      </c>
-      <c r="Y414" t="n">
-        <v>0.890730037665734</v>
-      </c>
-      <c r="Z414" t="n">
-        <v>0.7086</v>
-      </c>
-      <c r="AA414" t="n">
-        <v>0.7222</v>
-      </c>
-      <c r="AB414" t="n">
-        <v>0.9684</v>
-      </c>
-      <c r="AC414" t="n">
-        <v>0.9656</v>
-      </c>
-    </row>
-    <row r="415" spans="1:29">
-      <c r="A415" t="s">
-        <v>477</v>
-      </c>
-      <c r="B415" t="s">
-        <v>63</v>
-      </c>
-      <c r="C415" t="s">
-        <v>27</v>
-      </c>
-      <c r="D415" t="s">
-        <v>28</v>
-      </c>
-      <c r="E415" t="s">
-        <v>29</v>
-      </c>
-      <c r="F415" t="s">
-        <v>30</v>
-      </c>
-      <c r="G415" t="s">
-        <v>216</v>
-      </c>
-      <c r="H415" t="s">
-        <v>51</v>
-      </c>
-      <c r="I415" t="s">
-        <v>39</v>
-      </c>
-      <c r="J415" t="n">
-        <v>20</v>
-      </c>
-      <c r="K415" t="n">
-        <v>5.955067849718035e-05</v>
-      </c>
-      <c r="L415" t="n">
-        <v>6.193282660096884e-05</v>
-      </c>
-      <c r="M415" t="n">
-        <v>0.3208</v>
-      </c>
-      <c r="N415" t="n">
-        <v>0.3528</v>
-      </c>
-      <c r="O415" t="n">
-        <v>0.9188035698668132</v>
-      </c>
-      <c r="P415" t="n">
-        <v>0.8549853799919622</v>
-      </c>
-      <c r="Q415" t="n">
-        <v>0.7338</v>
-      </c>
-      <c r="R415" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="S415" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="T415" t="n">
-        <v>0.9724</v>
-      </c>
-      <c r="U415" t="n">
-        <v>50</v>
-      </c>
-      <c r="V415" t="n">
-        <v>0.3198</v>
-      </c>
-      <c r="W415" t="n">
-        <v>0.3094</v>
-      </c>
-      <c r="X415" t="n">
-        <v>0.8813625814612281</v>
-      </c>
-      <c r="Y415" t="n">
-        <v>0.892972563968233</v>
-      </c>
-      <c r="Z415" t="n">
-        <v>0.7124</v>
-      </c>
-      <c r="AA415" t="n">
-        <v>0.7258</v>
-      </c>
-      <c r="AB415" t="n">
-        <v>0.9678</v>
-      </c>
-      <c r="AC415" t="n">
-        <v>0.9654</v>
-      </c>
-    </row>
-    <row r="416" spans="1:29">
-      <c r="A416" t="s">
-        <v>478</v>
-      </c>
-      <c r="B416" t="s">
-        <v>63</v>
-      </c>
-      <c r="C416" t="s">
-        <v>27</v>
-      </c>
-      <c r="D416" t="s">
-        <v>28</v>
-      </c>
-      <c r="E416" t="s">
-        <v>29</v>
-      </c>
-      <c r="F416" t="s">
-        <v>30</v>
-      </c>
-      <c r="G416" t="s">
-        <v>216</v>
-      </c>
-      <c r="H416" t="s">
-        <v>51</v>
-      </c>
-      <c r="I416" t="s">
-        <v>39</v>
-      </c>
-      <c r="J416" t="n">
-        <v>12</v>
-      </c>
-      <c r="K416" t="n">
-        <v>5.96062988974154e-05</v>
-      </c>
-      <c r="L416" t="n">
-        <v>6.1355598596856e-05</v>
-      </c>
-      <c r="M416" t="n">
-        <v>0.3134</v>
-      </c>
-      <c r="N416" t="n">
-        <v>0.3284</v>
-      </c>
-      <c r="O416" t="n">
-        <v>0.9197825830053535</v>
-      </c>
-      <c r="P416" t="n">
-        <v>0.870976463516667</v>
-      </c>
-      <c r="Q416" t="n">
-        <v>0.7392</v>
-      </c>
-      <c r="R416" t="n">
-        <v>0.7006</v>
-      </c>
-      <c r="S416" t="n">
-        <v>0.9482</v>
-      </c>
-      <c r="T416" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="U416" t="n">
-        <v>50</v>
-      </c>
-      <c r="V416" t="n">
-        <v>0.3234</v>
-      </c>
-      <c r="W416" t="n">
-        <v>0.3124</v>
-      </c>
-      <c r="X416" t="n">
-        <v>0.8782938005018593</v>
-      </c>
-      <c r="Y416" t="n">
-        <v>0.8915155635209068</v>
-      </c>
-      <c r="Z416" t="n">
-        <v>0.7082000000000001</v>
-      </c>
-      <c r="AA416" t="n">
-        <v>0.7228</v>
-      </c>
-      <c r="AB416" t="n">
-        <v>0.9684</v>
-      </c>
-      <c r="AC416" t="n">
-        <v>0.9656</v>
-      </c>
-    </row>
-    <row r="417" spans="1:29">
-      <c r="A417" t="s">
-        <v>479</v>
-      </c>
-      <c r="B417" t="s">
-        <v>63</v>
-      </c>
-      <c r="C417" t="s">
-        <v>27</v>
-      </c>
-      <c r="D417" t="s">
-        <v>28</v>
-      </c>
-      <c r="E417" t="s">
-        <v>29</v>
-      </c>
-      <c r="F417" t="s">
-        <v>30</v>
-      </c>
-      <c r="G417" t="s">
-        <v>216</v>
-      </c>
-      <c r="H417" t="s">
-        <v>51</v>
-      </c>
-      <c r="I417" t="s">
-        <v>39</v>
-      </c>
-      <c r="J417" t="n">
-        <v>23</v>
-      </c>
-      <c r="K417" t="n">
-        <v>5.806120438501239e-05</v>
-      </c>
-      <c r="L417" t="n">
-        <v>6.036576586775482e-05</v>
-      </c>
-      <c r="M417" t="n">
-        <v>0.3354</v>
-      </c>
-      <c r="N417" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O417" t="n">
-        <v>0.8918520056601319</v>
-      </c>
-      <c r="P417" t="n">
-        <v>0.8870174744614674</v>
-      </c>
-      <c r="Q417" t="n">
-        <v>0.7078</v>
-      </c>
-      <c r="R417" t="n">
-        <v>0.6956</v>
-      </c>
-      <c r="S417" t="n">
-        <v>0.9574</v>
-      </c>
-      <c r="T417" t="n">
-        <v>0.9544</v>
-      </c>
-      <c r="U417" t="n">
-        <v>50</v>
-      </c>
-      <c r="V417" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="W417" t="n">
-        <v>0.3462</v>
-      </c>
-      <c r="X417" t="n">
-        <v>0.8832893070789434</v>
-      </c>
-      <c r="Y417" t="n">
-        <v>0.8917398723843182</v>
-      </c>
-      <c r="Z417" t="n">
-        <v>0.6978</v>
-      </c>
-      <c r="AA417" t="n">
-        <v>0.7008</v>
-      </c>
-      <c r="AB417" t="n">
-        <v>0.9596</v>
-      </c>
-      <c r="AC417" t="n">
-        <v>0.9532</v>
-      </c>
-    </row>
-    <row r="418" spans="1:29">
-      <c r="A418" t="s">
-        <v>480</v>
-      </c>
-      <c r="B418" t="s">
-        <v>63</v>
-      </c>
-      <c r="C418" t="s">
-        <v>27</v>
-      </c>
-      <c r="D418" t="s">
-        <v>28</v>
-      </c>
-      <c r="E418" t="s">
-        <v>29</v>
-      </c>
-      <c r="F418" t="s">
-        <v>30</v>
-      </c>
-      <c r="G418" t="s">
-        <v>216</v>
-      </c>
-      <c r="H418" t="s">
-        <v>51</v>
-      </c>
-      <c r="I418" t="s">
-        <v>39</v>
-      </c>
-      <c r="J418" t="n">
-        <v>30</v>
-      </c>
-      <c r="K418" t="n">
-        <v>5.881508151069283e-05</v>
-      </c>
-      <c r="L418" t="n">
-        <v>6.144090644083917e-05</v>
-      </c>
-      <c r="M418" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="N418" t="n">
-        <v>0.3182</v>
-      </c>
-      <c r="O418" t="n">
-        <v>0.8879189152169246</v>
-      </c>
-      <c r="P418" t="n">
-        <v>0.8863407922464135</v>
-      </c>
-      <c r="Q418" t="n">
-        <v>0.7188</v>
-      </c>
-      <c r="R418" t="n">
-        <v>0.7156</v>
-      </c>
-      <c r="S418" t="n">
-        <v>0.9651999999999999</v>
-      </c>
-      <c r="T418" t="n">
-        <v>0.9674</v>
-      </c>
-      <c r="U418" t="n">
-        <v>50</v>
-      </c>
-      <c r="V418" t="n">
-        <v>0.3234</v>
-      </c>
-      <c r="W418" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="X418" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Y418" t="n">
-        <v>0.8938679992034618</v>
-      </c>
-      <c r="Z418" t="n">
-        <v>0.7092000000000001</v>
-      </c>
-      <c r="AA418" t="n">
-        <v>0.7258</v>
-      </c>
-      <c r="AB418" t="n">
-        <v>0.9674</v>
-      </c>
-      <c r="AC418" t="n">
-        <v>0.965</v>
-      </c>
-    </row>
-    <row r="419" spans="1:29">
-      <c r="A419" t="s">
-        <v>481</v>
-      </c>
-      <c r="B419" t="s">
-        <v>63</v>
-      </c>
-      <c r="C419" t="s">
-        <v>27</v>
-      </c>
-      <c r="D419" t="s">
-        <v>28</v>
-      </c>
-      <c r="E419" t="s">
-        <v>29</v>
-      </c>
-      <c r="F419" t="s">
-        <v>30</v>
-      </c>
-      <c r="G419" t="s">
-        <v>216</v>
-      </c>
-      <c r="H419" t="s">
-        <v>51</v>
-      </c>
-      <c r="I419" t="s">
-        <v>39</v>
-      </c>
-      <c r="J419" t="n">
-        <v>22</v>
-      </c>
-      <c r="K419" t="n">
-        <v>5.867492640390992e-05</v>
-      </c>
-      <c r="L419" t="n">
-        <v>6.127878334373236e-05</v>
-      </c>
-      <c r="M419" t="n">
-        <v>0.3234</v>
-      </c>
-      <c r="N419" t="n">
-        <v>0.3206</v>
-      </c>
-      <c r="O419" t="n">
-        <v>0.8823831367382312</v>
-      </c>
-      <c r="P419" t="n">
-        <v>0.8780660567406077</v>
-      </c>
-      <c r="Q419" t="n">
-        <v>0.7106</v>
-      </c>
-      <c r="R419" t="n">
-        <v>0.7098</v>
-      </c>
-      <c r="S419" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="T419" t="n">
-        <v>0.9698</v>
-      </c>
-      <c r="U419" t="n">
-        <v>50</v>
-      </c>
-      <c r="V419" t="n">
-        <v>0.3216</v>
-      </c>
-      <c r="W419" t="n">
-        <v>0.3098</v>
-      </c>
-      <c r="X419" t="n">
-        <v>0.8786353054595518</v>
-      </c>
-      <c r="Y419" t="n">
-        <v>0.8920762299265685</v>
-      </c>
-      <c r="Z419" t="n">
-        <v>0.7096</v>
-      </c>
-      <c r="AA419" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="AB419" t="n">
-        <v>0.9688</v>
-      </c>
-      <c r="AC419" t="n">
-        <v>0.9658</v>
-      </c>
-    </row>
-    <row r="420" spans="1:29">
-      <c r="A420" t="s">
-        <v>482</v>
-      </c>
-      <c r="B420" t="s">
-        <v>63</v>
-      </c>
-      <c r="C420" t="s">
-        <v>27</v>
-      </c>
-      <c r="D420" t="s">
-        <v>28</v>
-      </c>
-      <c r="E420" t="s">
-        <v>29</v>
-      </c>
-      <c r="F420" t="s">
-        <v>30</v>
-      </c>
-      <c r="G420" t="s">
-        <v>216</v>
-      </c>
-      <c r="H420" t="s">
-        <v>51</v>
-      </c>
-      <c r="I420" t="s">
-        <v>39</v>
-      </c>
-      <c r="J420" t="n">
-        <v>24</v>
-      </c>
-      <c r="K420" t="n">
-        <v>5.898749367333949e-05</v>
-      </c>
-      <c r="L420" t="n">
-        <v>6.044288584962487e-05</v>
-      </c>
-      <c r="M420" t="n">
-        <v>0.3426</v>
-      </c>
-      <c r="N420" t="n">
-        <v>0.3416</v>
-      </c>
-      <c r="O420" t="n">
-        <v>0.885889383614004</v>
-      </c>
-      <c r="P420" t="n">
-        <v>0.8860022573334675</v>
-      </c>
-      <c r="Q420" t="n">
-        <v>0.6996</v>
-      </c>
-      <c r="R420" t="n">
-        <v>0.7006</v>
-      </c>
-      <c r="S420" t="n">
-        <v>0.9582000000000001</v>
-      </c>
-      <c r="T420" t="n">
-        <v>0.9578</v>
-      </c>
-      <c r="U420" t="n">
-        <v>50</v>
-      </c>
-      <c r="V420" t="n">
-        <v>0.3446</v>
-      </c>
-      <c r="W420" t="n">
-        <v>0.3452</v>
-      </c>
-      <c r="X420" t="n">
-        <v>0.8813625814612281</v>
-      </c>
-      <c r="Y420" t="n">
-        <v>0.8903931715820825</v>
-      </c>
-      <c r="Z420" t="n">
-        <v>0.6956</v>
-      </c>
-      <c r="AA420" t="n">
-        <v>0.7008</v>
-      </c>
-      <c r="AB420" t="n">
-        <v>0.9602000000000001</v>
-      </c>
-      <c r="AC420" t="n">
-        <v>0.954</v>
-      </c>
-    </row>
-    <row r="421" spans="1:29">
-      <c r="A421" t="s">
-        <v>483</v>
-      </c>
-      <c r="B421" t="s">
-        <v>63</v>
-      </c>
-      <c r="C421" t="s">
-        <v>27</v>
-      </c>
-      <c r="D421" t="s">
-        <v>28</v>
-      </c>
-      <c r="E421" t="s">
-        <v>29</v>
-      </c>
-      <c r="F421" t="s">
-        <v>30</v>
-      </c>
-      <c r="G421" t="s">
-        <v>216</v>
-      </c>
-      <c r="H421" t="s">
-        <v>51</v>
-      </c>
-      <c r="I421" t="s">
-        <v>39</v>
-      </c>
-      <c r="J421" t="n">
-        <v>15</v>
-      </c>
-      <c r="K421" t="n">
-        <v>5.911580324172973e-05</v>
-      </c>
-      <c r="L421" t="n">
-        <v>6.104430425912142e-05</v>
-      </c>
-      <c r="M421" t="n">
-        <v>0.3238</v>
-      </c>
-      <c r="N421" t="n">
-        <v>0.3464</v>
-      </c>
-      <c r="O421" t="n">
-        <v>0.910494371207203</v>
-      </c>
-      <c r="P421" t="n">
-        <v>0.8804544281222055</v>
-      </c>
-      <c r="Q421" t="n">
-        <v>0.7266</v>
-      </c>
-      <c r="R421" t="n">
-        <v>0.6936</v>
-      </c>
-      <c r="S421" t="n">
-        <v>0.9504</v>
-      </c>
-      <c r="T421" t="n">
-        <v>0.9608</v>
-      </c>
-      <c r="U421" t="n">
-        <v>50</v>
-      </c>
-      <c r="V421" t="n">
-        <v>0.3222</v>
-      </c>
-      <c r="W421" t="n">
-        <v>0.3116</v>
-      </c>
-      <c r="X421" t="n">
-        <v>0.8810221336606703</v>
-      </c>
-      <c r="Y421" t="n">
-        <v>0.891403387922662</v>
-      </c>
-      <c r="Z421" t="n">
-        <v>0.7106</v>
-      </c>
-      <c r="AA421" t="n">
-        <v>0.7234</v>
-      </c>
-      <c r="AB421" t="n">
-        <v>0.9671999999999999</v>
-      </c>
-      <c r="AC421" t="n">
-        <v>0.9656</v>
-      </c>
-    </row>
-    <row r="422" spans="1:29">
-      <c r="A422" t="s">
-        <v>484</v>
-      </c>
-      <c r="B422" t="s">
-        <v>63</v>
-      </c>
-      <c r="C422" t="s">
-        <v>27</v>
-      </c>
-      <c r="D422" t="s">
-        <v>28</v>
-      </c>
-      <c r="E422" t="s">
-        <v>29</v>
-      </c>
-      <c r="F422" t="s">
-        <v>30</v>
-      </c>
-      <c r="G422" t="s">
-        <v>216</v>
-      </c>
-      <c r="H422" t="s">
-        <v>51</v>
-      </c>
-      <c r="I422" t="s">
-        <v>39</v>
-      </c>
-      <c r="J422" t="n">
-        <v>16</v>
-      </c>
-      <c r="K422" t="n">
-        <v>6.00551201030612e-05</v>
-      </c>
-      <c r="L422" t="n">
-        <v>6.173736974596977e-05</v>
-      </c>
-      <c r="M422" t="n">
-        <v>0.3068</v>
-      </c>
-      <c r="N422" t="n">
-        <v>0.3332</v>
-      </c>
-      <c r="O422" t="n">
-        <v>0.9221713506718803</v>
-      </c>
-      <c r="P422" t="n">
-        <v>0.8670640114778148</v>
-      </c>
-      <c r="Q422" t="n">
-        <v>0.7452</v>
-      </c>
-      <c r="R422" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="S422" t="n">
-        <v>0.9486</v>
-      </c>
-      <c r="T422" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="U422" t="n">
-        <v>50</v>
-      </c>
-      <c r="V422" t="n">
-        <v>0.3214</v>
-      </c>
-      <c r="W422" t="n">
-        <v>0.3098</v>
-      </c>
-      <c r="X422" t="n">
-        <v>0.8797726979169108</v>
-      </c>
-      <c r="Y422" t="n">
-        <v>0.8920762299265685</v>
-      </c>
-      <c r="Z422" t="n">
-        <v>0.7104</v>
-      </c>
-      <c r="AA422" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="AB422" t="n">
-        <v>0.9681999999999999</v>
-      </c>
-      <c r="AC422" t="n">
-        <v>0.9658</v>
-      </c>
-    </row>
-    <row r="423" spans="1:29">
-      <c r="A423" t="s">
-        <v>485</v>
-      </c>
-      <c r="B423" t="s">
-        <v>63</v>
-      </c>
-      <c r="C423" t="s">
-        <v>27</v>
-      </c>
-      <c r="D423" t="s">
-        <v>28</v>
-      </c>
-      <c r="E423" t="s">
-        <v>29</v>
-      </c>
-      <c r="F423" t="s">
-        <v>30</v>
-      </c>
-      <c r="G423" t="s">
-        <v>216</v>
-      </c>
-      <c r="H423" t="s">
-        <v>51</v>
-      </c>
-      <c r="I423" t="s">
-        <v>39</v>
-      </c>
-      <c r="J423" t="n">
-        <v>21</v>
-      </c>
-      <c r="K423" t="n">
-        <v>5.960188768804073e-05</v>
-      </c>
-      <c r="L423" t="n">
-        <v>6.150569855235518e-05</v>
-      </c>
-      <c r="M423" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="N423" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="O423" t="n">
-        <v>0.8987769467448528</v>
-      </c>
-      <c r="P423" t="n">
-        <v>0.8734987120768982</v>
-      </c>
-      <c r="Q423" t="n">
-        <v>0.7266</v>
-      </c>
-      <c r="R423" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="S423" t="n">
-        <v>0.9614</v>
-      </c>
-      <c r="T423" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="U423" t="n">
-        <v>50</v>
-      </c>
-      <c r="V423" t="n">
-        <v>0.3244</v>
-      </c>
-      <c r="W423" t="n">
-        <v>0.3132</v>
-      </c>
-      <c r="X423" t="n">
-        <v>0.8763560920082658</v>
-      </c>
-      <c r="Y423" t="n">
-        <v>0.889831444712986</v>
-      </c>
-      <c r="Z423" t="n">
-        <v>0.7064</v>
-      </c>
-      <c r="AA423" t="n">
-        <v>0.7214</v>
-      </c>
-      <c r="AB423" t="n">
-        <v>0.9692</v>
-      </c>
-      <c r="AC423" t="n">
-        <v>0.966</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="1048043" s="5" spans="1:29"/>

--- a/logs_regression.xlsx
+++ b/logs_regression.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
   <si>
     <t>Date</t>
   </si>
@@ -1225,28 +1225,13 @@
     <t>February08  04:13:28</t>
   </si>
   <si>
-    <t>February15  16:26:07</t>
+    <t>February15  17:07:01</t>
   </si>
   <si>
     <t>house_16H</t>
   </si>
   <si>
     <t>False</t>
-  </si>
-  <si>
-    <t>February15  16:27:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>February15  16:27:19</t>
-  </si>
-  <si>
-    <t>February15  16:31:55</t>
-  </si>
-  <si>
-    <t>February15  16:32:06</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AC366"/>
+  <dimension ref="A1:AC362"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
@@ -33807,363 +33792,64 @@
         <v>404</v>
       </c>
       <c r="J362" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K362" t="n">
-        <v>4.166119006453862e-05</v>
+        <v>0.0007410549040639132</v>
       </c>
       <c r="L362" t="n">
-        <v>4.169410887755669e-05</v>
+        <v>0.0007480334415312291</v>
       </c>
       <c r="M362" t="n">
-        <v>0.1009491413836616</v>
+        <v>0.240302847424151</v>
       </c>
       <c r="N362" t="n">
-        <v>0.1009657594381036</v>
+        <v>0.2467076382791923</v>
       </c>
       <c r="O362" t="n">
-        <v>3.268258929715837</v>
+        <v>1.957845652342896</v>
       </c>
       <c r="P362" t="n">
-        <v>3.030681561746366</v>
+        <v>1.940793986848018</v>
       </c>
       <c r="Q362" t="n">
-        <v>2.724858726065727</v>
+        <v>1.440335765622428</v>
       </c>
       <c r="R362" t="n">
-        <v>2.582309043020193</v>
+        <v>1.42208077260755</v>
       </c>
       <c r="S362" t="n">
-        <v>0.2910517364349591</v>
+        <v>0.6140889888626763</v>
       </c>
       <c r="T362" t="n">
-        <v>0.2947761194029851</v>
+        <v>0.6165496049165935</v>
       </c>
       <c r="U362" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="V362" t="n">
-        <v>0.1009491413836616</v>
+        <v>0.2451857135019476</v>
       </c>
       <c r="W362" t="n">
-        <v>0.1009657594381036</v>
+        <v>0.2451857135019476</v>
       </c>
       <c r="X362" t="n">
-        <v>3.268258929715837</v>
+        <v>1.945730484986625</v>
       </c>
       <c r="Y362" t="n">
-        <v>3.030681561746366</v>
+        <v>1.945730484986625</v>
       </c>
       <c r="Z362" t="n">
-        <v>2.724858726065727</v>
+        <v>1.428704668897789</v>
       </c>
       <c r="AA362" t="n">
-        <v>2.582309043020193</v>
+        <v>1.428704668897789</v>
       </c>
       <c r="AB362" t="n">
-        <v>0.2910517364349591</v>
+        <v>0.6146924891644264</v>
       </c>
       <c r="AC362" t="n">
-        <v>0.2947761194029851</v>
-      </c>
-    </row>
-    <row r="363" spans="1:29">
-      <c r="A363" t="s">
-        <v>405</v>
-      </c>
-      <c r="B363" t="s">
-        <v>403</v>
-      </c>
-      <c r="C363" t="s">
-        <v>27</v>
-      </c>
-      <c r="D363" t="s">
-        <v>312</v>
-      </c>
-      <c r="E363" t="s">
-        <v>29</v>
-      </c>
-      <c r="F363" t="s">
-        <v>51</v>
-      </c>
-      <c r="G363" t="s">
-        <v>31</v>
-      </c>
-      <c r="H363" t="s">
-        <v>45</v>
-      </c>
-      <c r="I363" t="s">
-        <v>404</v>
-      </c>
-      <c r="O363" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="364" spans="1:29">
-      <c r="A364" t="s">
-        <v>407</v>
-      </c>
-      <c r="B364" t="s">
-        <v>403</v>
-      </c>
-      <c r="C364" t="s">
-        <v>27</v>
-      </c>
-      <c r="D364" t="s">
-        <v>312</v>
-      </c>
-      <c r="E364" t="s">
-        <v>29</v>
-      </c>
-      <c r="F364" t="s">
-        <v>51</v>
-      </c>
-      <c r="G364" t="s">
-        <v>31</v>
-      </c>
-      <c r="H364" t="s">
-        <v>45</v>
-      </c>
-      <c r="I364" t="s">
-        <v>404</v>
-      </c>
-      <c r="J364" t="n">
-        <v>1</v>
-      </c>
-      <c r="K364" t="n">
-        <v>4.130091911396717e-05</v>
-      </c>
-      <c r="L364" t="n">
-        <v>4.134462640193128e-05</v>
-      </c>
-      <c r="M364" t="n">
-        <v>0.1014977780216163</v>
-      </c>
-      <c r="N364" t="n">
-        <v>0.1112818261633011</v>
-      </c>
-      <c r="O364" t="n">
-        <v>2.984203395762495</v>
-      </c>
-      <c r="P364" t="n">
-        <v>2.747494668505829</v>
-      </c>
-      <c r="Q364" t="n">
-        <v>2.539529269764635</v>
-      </c>
-      <c r="R364" t="n">
-        <v>2.318261633011414</v>
-      </c>
-      <c r="S364" t="n">
-        <v>0.3022987875130301</v>
-      </c>
-      <c r="T364" t="n">
-        <v>0.3426251097453907</v>
-      </c>
-      <c r="U364" t="n">
-        <v>1</v>
-      </c>
-      <c r="V364" t="n">
-        <v>0.1014977780216163</v>
-      </c>
-      <c r="W364" t="n">
-        <v>0.1112818261633011</v>
-      </c>
-      <c r="X364" t="n">
-        <v>2.984203395762495</v>
-      </c>
-      <c r="Y364" t="n">
-        <v>2.747494668505829</v>
-      </c>
-      <c r="Z364" t="n">
-        <v>2.539529269764635</v>
-      </c>
-      <c r="AA364" t="n">
-        <v>2.318261633011414</v>
-      </c>
-      <c r="AB364" t="n">
-        <v>0.3022987875130301</v>
-      </c>
-      <c r="AC364" t="n">
-        <v>0.3426251097453907</v>
-      </c>
-    </row>
-    <row r="365" spans="1:29">
-      <c r="A365" t="s">
-        <v>408</v>
-      </c>
-      <c r="B365" t="s">
-        <v>403</v>
-      </c>
-      <c r="C365" t="s">
-        <v>27</v>
-      </c>
-      <c r="D365" t="s">
-        <v>312</v>
-      </c>
-      <c r="E365" t="s">
-        <v>29</v>
-      </c>
-      <c r="F365" t="s">
-        <v>51</v>
-      </c>
-      <c r="G365" t="s">
-        <v>31</v>
-      </c>
-      <c r="H365" t="s">
-        <v>45</v>
-      </c>
-      <c r="I365" t="s">
-        <v>404</v>
-      </c>
-      <c r="J365" t="n">
-        <v>2</v>
-      </c>
-      <c r="K365" t="n">
-        <v>4.018591629511802e-05</v>
-      </c>
-      <c r="L365" t="n">
-        <v>4.024854272479703e-05</v>
-      </c>
-      <c r="M365" t="n">
-        <v>0.1224556975914852</v>
-      </c>
-      <c r="N365" t="n">
-        <v>0.1200614574187884</v>
-      </c>
-      <c r="O365" t="n">
-        <v>2.735179920069254</v>
-      </c>
-      <c r="P365" t="n">
-        <v>2.687809438665193</v>
-      </c>
-      <c r="Q365" t="n">
-        <v>2.278707412080979</v>
-      </c>
-      <c r="R365" t="n">
-        <v>2.254170324846356</v>
-      </c>
-      <c r="S365" t="n">
-        <v>0.3622647720414769</v>
-      </c>
-      <c r="T365" t="n">
-        <v>0.353819139596137</v>
-      </c>
-      <c r="U365" t="n">
-        <v>3</v>
-      </c>
-      <c r="V365" t="n">
-        <v>0.1239370165139628</v>
-      </c>
-      <c r="W365" t="n">
-        <v>0.1239370165139628</v>
-      </c>
-      <c r="X365" t="n">
-        <v>2.698334984015215</v>
-      </c>
-      <c r="Y365" t="n">
-        <v>2.698334984015215</v>
-      </c>
-      <c r="Z365" t="n">
-        <v>2.245405168157129</v>
-      </c>
-      <c r="AA365" t="n">
-        <v>2.245405168157129</v>
-      </c>
-      <c r="AB365" t="n">
-        <v>0.366489274153728</v>
-      </c>
-      <c r="AC365" t="n">
-        <v>0.366489274153728</v>
-      </c>
-    </row>
-    <row r="366" spans="1:29">
-      <c r="A366" t="s">
-        <v>409</v>
-      </c>
-      <c r="B366" t="s">
-        <v>403</v>
-      </c>
-      <c r="C366" t="s">
-        <v>27</v>
-      </c>
-      <c r="D366" t="s">
-        <v>312</v>
-      </c>
-      <c r="E366" t="s">
-        <v>29</v>
-      </c>
-      <c r="F366" t="s">
-        <v>51</v>
-      </c>
-      <c r="G366" t="s">
-        <v>31</v>
-      </c>
-      <c r="H366" t="s">
-        <v>45</v>
-      </c>
-      <c r="I366" t="s">
-        <v>404</v>
-      </c>
-      <c r="J366" t="n">
-        <v>25</v>
-      </c>
-      <c r="K366" t="n">
-        <v>0.0007491819484906064</v>
-      </c>
-      <c r="L366" t="n">
-        <v>0.0007586044515299106</v>
-      </c>
-      <c r="M366" t="n">
-        <v>0.2416744390190377</v>
-      </c>
-      <c r="N366" t="n">
-        <v>0.2478050921861282</v>
-      </c>
-      <c r="O366" t="n">
-        <v>1.941340907920579</v>
-      </c>
-      <c r="P366" t="n">
-        <v>1.942433147381308</v>
-      </c>
-      <c r="Q366" t="n">
-        <v>1.414824161957535</v>
-      </c>
-      <c r="R366" t="n">
-        <v>1.410008779631255</v>
-      </c>
-      <c r="S366" t="n">
-        <v>0.6307675426564986</v>
-      </c>
-      <c r="T366" t="n">
-        <v>0.6305970149253731</v>
-      </c>
-      <c r="U366" t="n">
-        <v>48</v>
-      </c>
-      <c r="V366" t="n">
-        <v>0.2476545783727437</v>
-      </c>
-      <c r="W366" t="n">
-        <v>0.2423178226514486</v>
-      </c>
-      <c r="X366" t="n">
-        <v>1.920442675875217</v>
-      </c>
-      <c r="Y366" t="n">
-        <v>1.960989161087695</v>
-      </c>
-      <c r="Z366" t="n">
-        <v>1.396335107258463</v>
-      </c>
-      <c r="AA366" t="n">
-        <v>1.428007023705004</v>
-      </c>
-      <c r="AB366" t="n">
-        <v>0.635266363087727</v>
-      </c>
-      <c r="AC366" t="n">
-        <v>0.6226953467954346</v>
+        <v>0.6146924891644264</v>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="1048043" s="5" spans="1:29"/>
